--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.5.0-us-wipJ\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Our EIA source uses 2013 dollars.</t>
   </si>
   <si>
-    <t xml:space="preserve">The GTM and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
-  </si>
-  <si>
     <t>Except for wind and solar PV, our general approach is to take start year capital costs from the EIA and</t>
   </si>
   <si>
@@ -244,16 +241,7 @@
     <t>This document is included as Appendix B of a report by Brattle Group.  It is on Page 10 of the EnerNex report, which is Page 70 of the PDF</t>
   </si>
   <si>
-    <t>cause them to decline at the same rate as costs declined in projections in a 2012 study from Black &amp; Veatch.</t>
-  </si>
-  <si>
     <t>For coal, we use values for a coal plant that features carbon capture and sequestration (CCS),</t>
-  </si>
-  <si>
-    <t>We adjust 2015 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>so we assume they are 2015 dollars.</t>
   </si>
   <si>
     <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
@@ -514,9 +502,6 @@
     <t>Onshore Wind ($/MW)</t>
   </si>
   <si>
-    <t>We adjust 2014 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -556,12 +541,6 @@
     <t>National Renewable Energy Lab</t>
   </si>
   <si>
-    <t>For offshore wind, we decline costs according to NREL's annual technology baseline.</t>
-  </si>
-  <si>
-    <t>Overnight Capital Cost</t>
-  </si>
-  <si>
     <t>NREL Electricity Source</t>
   </si>
   <si>
@@ -634,12 +613,6 @@
     <t>Gas-CT-AvgCF - Low</t>
   </si>
   <si>
-    <t>Solar Energy Industries Association</t>
-  </si>
-  <si>
-    <t>"National Solar PV System Pricing" section, last paragraph (using "fixed-tilt" value)</t>
-  </si>
-  <si>
     <t>curves to determine cost declines.  Therefore, we only specify the first simulated year costs in this spreadsheet,</t>
   </si>
   <si>
@@ -655,42 +628,9 @@
     <t>Coal with 30% CCS</t>
   </si>
   <si>
-    <t>AEO 2018</t>
-  </si>
-  <si>
     <t>Capital Costs (Except Wind and Solar), Fixed O&amp;M, Variable O&amp;M</t>
   </si>
   <si>
-    <t>2015, 2018</t>
-  </si>
-  <si>
-    <t>Assumptions to Annual Energy Outlook 2015, 2018</t>
-  </si>
-  <si>
-    <t>Electricity Market Module</t>
-  </si>
-  <si>
-    <t>2017 Onshore Wind Capital Cost</t>
-  </si>
-  <si>
-    <t>2017 Wind Technologies Market Report</t>
-  </si>
-  <si>
-    <t>Page x, Cost Trends, bullet point 3</t>
-  </si>
-  <si>
-    <t>https://emp.lbl.gov/sites/default/files/2017_wind_technologies_market_report.pdf</t>
-  </si>
-  <si>
-    <t>Berkeley National Lab and Greentech Media.) Note that we use 2016 year in review data for</t>
-  </si>
-  <si>
-    <t>show almost no change between 2017 and 2016 (due to tariffs).</t>
-  </si>
-  <si>
-    <t>solar PV, as more recent numerical figures are not given by SEIA and graphs of year over year prices</t>
-  </si>
-  <si>
     <t>TRG 11 - Low</t>
   </si>
   <si>
@@ -712,18 +652,6 @@
     <t>Gas-CC-AvgCF - Low</t>
   </si>
   <si>
-    <t>https://data.nrel.gov/files/89/2018-ATB-data-interim-geo.xlsm</t>
-  </si>
-  <si>
-    <t>Cost Improvement Rate and 2017 Offshore Wind Costs</t>
-  </si>
-  <si>
-    <t>Annual Technology Baseline (ATB) Spreadsheet - 2018 Final</t>
-  </si>
-  <si>
-    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
     <t>Average Utility Scale Solar Cost ($/W-dc)</t>
   </si>
   <si>
@@ -778,12 +706,6 @@
     <t>We adjust 2018 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
-    <t>U.S. Solar Market Insight Report: 2018 Year in Review (Executive Summary)</t>
-  </si>
-  <si>
-    <t>https://www.seia.org/research-resources/solar-market-insight-report-2018-year-review</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -811,10 +733,100 @@
     <t>so we use the cost improvement rates for biomass power plants.</t>
   </si>
   <si>
-    <t>Potential Wind Plant Capacity</t>
-  </si>
-  <si>
-    <t>2018 Solar Capital Cost</t>
+    <t>AEO 2019</t>
+  </si>
+  <si>
+    <t>AEO 2020</t>
+  </si>
+  <si>
+    <t>AEO 2021</t>
+  </si>
+  <si>
+    <t>AEO 2022</t>
+  </si>
+  <si>
+    <t>AEO 2023</t>
+  </si>
+  <si>
+    <t>AEO 2024</t>
+  </si>
+  <si>
+    <t>AEO 2025</t>
+  </si>
+  <si>
+    <t>AEO 2026</t>
+  </si>
+  <si>
+    <t>AEO 2027</t>
+  </si>
+  <si>
+    <t>AEO 2028</t>
+  </si>
+  <si>
+    <t>AEO 2029</t>
+  </si>
+  <si>
+    <t>AEO 2030</t>
+  </si>
+  <si>
+    <t>AEO 2031</t>
+  </si>
+  <si>
+    <t>AEO 2032</t>
+  </si>
+  <si>
+    <t>2015, 2019</t>
+  </si>
+  <si>
+    <t>Assumptions to Annual Energy Outlook 2015, 2019</t>
+  </si>
+  <si>
+    <t>Electricity Market Module, Table 2</t>
+  </si>
+  <si>
+    <t>2018 Wind Technologies Market Report</t>
+  </si>
+  <si>
+    <t>Page x, Cost Trends, bullet point 2</t>
+  </si>
+  <si>
+    <t>https://emp.lbl.gov/sites/default/files/wtmr_final_for_posting_8-9-19.pdf</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline (ATB) Spreadsheet - 2019 Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SEIA and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
+  </si>
+  <si>
+    <t>so we assume they are 2018 dollars.</t>
+  </si>
+  <si>
+    <t>Berkeley National Lab and Solar Energy Industries Association.)</t>
+  </si>
+  <si>
+    <t>cause them to decline at the same rate as costs declined in projections in the NREL</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline.</t>
+  </si>
+  <si>
+    <t>https://atb.nrel.gov/electricity/2019/data.html</t>
+  </si>
+  <si>
+    <t>NREL Overnight Capital Costs</t>
+  </si>
+  <si>
+    <t>Fraction of Start Year Costs</t>
+  </si>
+  <si>
+    <t>Potential Offshore Wind Plant Capacity (NREL Offshore Wind Tab)</t>
+  </si>
+  <si>
+    <t>2018 Onshore Wind Capital Cost</t>
+  </si>
+  <si>
+    <t>2018 Solar Capital Cost, Cost Imrpovement Rates, and Offshore Wind Costs</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1588,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1709,6 +1721,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1732,6 +1746,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="228">
@@ -2320,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2358,11 +2375,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2376,7 +2393,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2384,10 +2401,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2395,15 +2412,15 @@
         <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2412,18 +2429,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>178</v>
+        <v>125</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2436,27 +2453,25 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>226</v>
+        <v>126</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>179</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="23"/>
@@ -2466,50 +2481,39 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>151</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
       </c>
-      <c r="D21" s="2">
-        <v>2018</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>206</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>204</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="23"/>
     </row>
@@ -2545,7 +2549,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="11"/>
@@ -2558,7 +2562,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2571,7 +2575,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2595,7 +2599,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2608,7 +2612,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2621,7 +2625,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2634,7 +2638,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2647,7 +2651,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2659,9 +2663,7 @@
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="A38" s="10"/>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2673,7 +2675,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2685,7 +2687,9 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -2696,9 +2700,7 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="10"/>
       <c r="D41" s="7"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -2710,7 +2712,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2722,7 +2724,9 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2734,7 +2738,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2747,7 +2751,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2760,7 +2764,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2773,7 +2777,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2785,9 +2789,7 @@
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="D48" s="7"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -2799,7 +2801,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2811,7 +2813,9 @@
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="10"/>
+      <c r="A50" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -2823,7 +2827,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2835,9 +2839,7 @@
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="A52" s="10"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -2849,7 +2851,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2861,7 +2863,9 @@
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="10"/>
+      <c r="A54" s="10" t="s">
+        <v>210</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -2872,9 +2876,7 @@
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="A55" s="10"/>
       <c r="D55" s="7"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2885,8 +2887,8 @@
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
-        <v>236</v>
+      <c r="A56" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="11"/>
@@ -2898,7 +2900,10 @@
       <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="10"/>
+      <c r="A57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="9"/>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -2909,9 +2914,10 @@
       <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A58" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -2923,7 +2929,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2936,8 +2942,8 @@
       <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="10" t="s">
-        <v>59</v>
+      <c r="A60" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B60" s="9"/>
       <c r="D60" s="7"/>
@@ -2950,8 +2956,8 @@
       <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="10" t="s">
-        <v>75</v>
+      <c r="A61" s="19">
+        <v>0.98599999999999999</v>
       </c>
       <c r="B61" s="9"/>
       <c r="D61" s="7"/>
@@ -2964,8 +2970,8 @@
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="19" t="s">
-        <v>25</v>
+      <c r="A62" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2978,8 +2984,8 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="19">
-        <v>0.98599999999999999</v>
+      <c r="A63" s="25">
+        <v>0.9143</v>
       </c>
       <c r="B63" s="9"/>
       <c r="D63" s="7"/>
@@ -2992,9 +2998,7 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="A64" s="25"/>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
@@ -3006,8 +3010,8 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="18">
-        <v>0.97</v>
+      <c r="A65" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -3020,14 +3024,19 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="25">
-        <v>0.96899999999999997</v>
-      </c>
+      <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="11"/>
@@ -3039,9 +3048,7 @@
       <c r="K67" s="11"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
       <c r="E68" s="11"/>
@@ -3053,9 +3060,7 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="25">
-        <v>9.5699999999999993E-2</v>
-      </c>
+      <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
       <c r="E69" s="11"/>
@@ -3067,9 +3072,7 @@
       <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="11"/>
@@ -3081,9 +3084,7 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="25">
-        <v>0.9143</v>
-      </c>
+      <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="11"/>
@@ -3095,7 +3096,7 @@
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="25"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
       <c r="E72" s="11"/>
@@ -3107,9 +3108,7 @@
       <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
       <c r="E73" s="11"/>
@@ -3241,7 +3240,7 @@
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="10"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
       <c r="E84" s="11"/>
@@ -3252,111 +3251,16 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="10"/>
-      <c r="B86" s="9"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="10"/>
-      <c r="B87" s="9"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="10"/>
-      <c r="B88" s="9"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="10"/>
-      <c r="B89" s="9"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="10"/>
-      <c r="B90" s="9"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="10"/>
-      <c r="B91" s="9"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="7"/>
-      <c r="B92" s="9"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
     <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3365,7 +3269,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3383,7 +3287,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
@@ -3398,18 +3302,18 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -3424,7 +3328,7 @@
         <v>31.16</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="H2">
         <v>2013</v>
@@ -3432,28 +3336,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>5089</v>
+        <v>5169</v>
       </c>
       <c r="E3" s="16">
-        <v>7.17</v>
+        <v>7.31</v>
       </c>
       <c r="F3" s="16">
-        <v>70.7</v>
+        <v>72.12</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="H3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3461,25 +3365,25 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>982</v>
+        <v>999</v>
       </c>
       <c r="E4" s="16">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="F4" s="16">
-        <v>11.11</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="23">
-        <v>2017</v>
+        <v>11.33</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3487,25 +3391,25 @@
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>1108</v>
+        <v>794</v>
       </c>
       <c r="E5" s="16">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="F5" s="16">
-        <v>10.1</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2017</v>
+        <v>10.3</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3513,25 +3417,25 @@
         <v>36</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="D6">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="E6" s="16">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="F6" s="16">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="23">
-        <v>2017</v>
+        <v>18.03</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3539,25 +3443,25 @@
         <v>36</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="E7" s="16">
-        <v>10.81</v>
+        <v>11.02</v>
       </c>
       <c r="F7" s="16">
-        <v>6.87</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="23">
-        <v>2017</v>
+        <v>7.01</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3565,25 +3469,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
-        <v>5946</v>
+        <v>6034</v>
       </c>
       <c r="E8" s="16">
-        <v>2.3199999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="F8" s="16">
-        <v>101.28</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2017</v>
+        <v>103.31</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3591,25 +3495,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3837</v>
+        <v>3900</v>
       </c>
       <c r="E9" s="16">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="F9" s="16">
-        <v>112.15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="23">
-        <v>2017</v>
+        <v>114.39</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3617,25 +3521,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>2746</v>
+        <v>2787</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>119.87</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="23">
-        <v>2017</v>
+        <v>122.28</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3643,77 +3547,77 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>2898</v>
+        <v>2948</v>
       </c>
       <c r="E11" s="16">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="F11" s="16">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="23">
-        <v>2017</v>
+        <v>40.85</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H11" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>1657</v>
+        <v>1624</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>47.47</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="23">
-        <v>2017</v>
+        <v>48.42</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="24">
-        <v>6454</v>
+        <v>6542</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>78.56</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="23">
-        <v>2017</v>
+        <v>80.14</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3721,25 +3625,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>4228</v>
+        <v>4291</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <v>71.41</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="23">
-        <v>2017</v>
+        <v>72.84</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3747,51 +3651,51 @@
         <v>18</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="24">
-        <v>2105</v>
+        <v>1783</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>22.02</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="23">
-        <v>2017</v>
+        <v>22.46</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="D16" s="52">
-        <v>8742</v>
+        <v>8895</v>
       </c>
       <c r="E16" s="16">
-        <v>9.2899999999999991</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F16" s="16">
-        <v>417.02</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="23">
-        <v>2017</v>
+        <v>425.38</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="H16" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3814,7 +3718,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3825,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3841,13 +3745,13 @@
         <v>2017</v>
       </c>
       <c r="B3" s="19">
-        <v>1610</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3863,7 +3767,7 @@
         <v>2018</v>
       </c>
       <c r="B7" s="16">
-        <v>1.04</v>
+        <v>1.0960000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3881,7 +3785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3894,65 +3798,65 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>86</v>
+      <c r="H2" s="56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3966,7 +3870,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3992,10 +3896,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -4018,7 +3922,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -4030,7 +3934,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -4056,7 +3960,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -4068,7 +3972,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -4094,7 +3998,7 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -4106,7 +4010,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -4132,7 +4036,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -4158,7 +4062,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -4184,7 +4088,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -4210,7 +4114,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -4236,7 +4140,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -4262,7 +4166,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4288,7 +4192,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4314,7 +4218,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -4340,7 +4244,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -4366,7 +4270,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -4392,7 +4296,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -4418,7 +4322,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -4444,7 +4348,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -4470,19 +4374,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -4496,7 +4400,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -4522,10 +4426,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -4548,7 +4452,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -4574,10 +4478,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -4600,12 +4504,12 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -4616,7 +4520,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -4627,7 +4531,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -4652,29 +4556,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ72"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
-      <c r="C1" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="A1" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
     </row>
     <row r="2" spans="1:36" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -4784,7 +4723,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4894,7 +4833,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -5004,7 +4943,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" s="53">
         <v>6044.2528846388041</v>
@@ -5114,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C6" s="53">
         <v>5501.4276276478286</v>
@@ -5224,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C7" s="53">
         <v>4068.8324979159847</v>
@@ -5334,7 +5273,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C8" s="53">
         <v>3836.1961011946664</v>
@@ -5444,7 +5383,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C9" s="53">
         <v>7123.1024412096613</v>
@@ -5554,7 +5493,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C10" s="53">
         <v>6358.970494457717</v>
@@ -5664,7 +5603,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C11" s="53">
         <v>6228.2456569988753</v>
@@ -5774,7 +5713,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C12" s="53">
         <v>5606.8362940961097</v>
@@ -5884,7 +5823,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C13" s="53">
         <v>6199.7160723985862</v>
@@ -5994,7 +5933,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="53">
         <v>7561.0934235746954</v>
@@ -6104,7 +6043,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C15" s="53">
         <v>7561.0934235746954</v>
@@ -6214,7 +6153,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C16" s="53">
         <v>7561.0934235746954</v>
@@ -6324,7 +6263,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C17" s="53">
         <v>3827.2968566587979</v>
@@ -6434,7 +6373,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C18" s="53">
         <v>4013.1693740693227</v>
@@ -6544,7 +6483,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C19" s="53">
         <v>4013.1693740693227</v>
@@ -6654,7 +6593,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C20" s="53">
         <v>4305.3925876948315</v>
@@ -6764,7 +6703,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C21" s="53">
         <v>5576.5909167824766</v>
@@ -6874,7 +6813,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C22" s="53">
         <v>14196.524804379835</v>
@@ -6984,7 +6923,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C23" s="53">
         <v>31389.002895326357</v>
@@ -7094,7 +7033,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C24" s="53">
         <v>14196.524804379835</v>
@@ -7204,7 +7143,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C25" s="53">
         <v>31389.002895326357</v>
@@ -7314,7 +7253,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C26" s="53">
         <v>899.1125440742336</v>
@@ -7421,10 +7360,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="53">
         <v>2985.7163232225957</v>
@@ -7531,10 +7470,10 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="53">
         <v>3068.5330578578878</v>
@@ -7641,10 +7580,10 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C29" s="53">
         <v>3161.5232415013843</v>
@@ -7751,10 +7690,10 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C30" s="53">
         <v>3433.5732515006521</v>
@@ -7861,10 +7800,10 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C31" s="53">
         <v>3650.4675562858592</v>
@@ -7971,10 +7910,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C32" s="53">
         <v>4469.1889883621543</v>
@@ -8081,10 +8020,10 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C33" s="53">
         <v>4351.9349981933547</v>
@@ -8191,10 +8130,10 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C34" s="53">
         <v>4362.9480041823535</v>
@@ -8301,10 +8240,10 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" s="53">
         <v>4522.3633673455815</v>
@@ -8411,10 +8350,10 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C36" s="53">
         <v>4645.8187533874998</v>
@@ -8521,10 +8460,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8631,10 +8570,10 @@
     </row>
     <row r="38" spans="1:36" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8741,10 +8680,10 @@
     </row>
     <row r="39" spans="1:36" s="23" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8851,10 +8790,10 @@
     </row>
     <row r="40" spans="1:36" s="23" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8961,10 +8900,10 @@
     </row>
     <row r="41" spans="1:36" s="23" customFormat="1">
       <c r="A41" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -9070,1504 +9009,1548 @@
       </c>
     </row>
     <row r="42" spans="1:36" s="23" customFormat="1"/>
-    <row r="43" spans="1:36" s="23" customFormat="1"/>
-    <row r="44" spans="1:36">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23">
+    <row r="43" spans="1:36" s="53" customFormat="1">
+      <c r="A43" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="55"/>
+    </row>
+    <row r="44" spans="1:36" s="53" customFormat="1">
+      <c r="A44"/>
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="1:36" s="53" customFormat="1">
+      <c r="A45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="23">
+        <v>12.491269722013936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" s="53" customFormat="1">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" s="23">
+        <v>24.982539444027871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" s="53" customFormat="1">
+      <c r="A47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="23">
+        <v>49.965078888055743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" s="53" customFormat="1">
+      <c r="A48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="23">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" s="53" customFormat="1">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="23">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" s="53" customFormat="1">
+      <c r="A50" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="23">
+        <v>12.491269722013936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" s="53" customFormat="1">
+      <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" s="23">
+        <v>24.982539444027871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" s="53" customFormat="1">
+      <c r="A52" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="23">
+        <v>49.965078888055743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" s="53" customFormat="1">
+      <c r="A53" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="23">
+        <v>99.930157776111486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="53" customFormat="1">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="53" customFormat="1">
+      <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" s="53" customFormat="1">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="53" customFormat="1">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" s="53" customFormat="1">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" s="53" customFormat="1">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="23">
+        <v>143.39977640871999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" s="53" customFormat="1"/>
+    <row r="61" spans="1:35" s="23" customFormat="1">
+      <c r="A61" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="54"/>
+      <c r="AI61" s="54"/>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23">
         <v>2017</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C62" s="47">
         <v>2018</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D62" s="47">
         <v>2019</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E62" s="47">
         <v>2020</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F62" s="47">
         <v>2021</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G62" s="47">
         <v>2022</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H62" s="47">
         <v>2023</v>
       </c>
-      <c r="I44" s="47">
+      <c r="I62" s="47">
         <v>2024</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J62" s="47">
         <v>2025</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K62" s="47">
         <v>2026</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L62" s="47">
         <v>2027</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M62" s="47">
         <v>2028</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N62" s="47">
         <v>2029</v>
       </c>
-      <c r="O44" s="47">
+      <c r="O62" s="47">
         <v>2030</v>
       </c>
-      <c r="P44" s="47">
+      <c r="P62" s="47">
         <v>2031</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q62" s="47">
         <v>2032</v>
       </c>
-      <c r="R44" s="47">
+      <c r="R62" s="47">
         <v>2033</v>
       </c>
-      <c r="S44" s="47">
+      <c r="S62" s="47">
         <v>2034</v>
       </c>
-      <c r="T44" s="47">
+      <c r="T62" s="47">
         <v>2035</v>
       </c>
-      <c r="U44" s="47">
+      <c r="U62" s="47">
         <v>2036</v>
       </c>
-      <c r="V44" s="47">
+      <c r="V62" s="47">
         <v>2037</v>
       </c>
-      <c r="W44" s="47">
+      <c r="W62" s="47">
         <v>2038</v>
       </c>
-      <c r="X44" s="47">
+      <c r="X62" s="47">
         <v>2039</v>
       </c>
-      <c r="Y44" s="47">
+      <c r="Y62" s="47">
         <v>2040</v>
       </c>
-      <c r="Z44" s="47">
+      <c r="Z62" s="47">
         <v>2041</v>
       </c>
-      <c r="AA44" s="47">
+      <c r="AA62" s="47">
         <v>2042</v>
       </c>
-      <c r="AB44" s="47">
+      <c r="AB62" s="47">
         <v>2043</v>
       </c>
-      <c r="AC44" s="47">
+      <c r="AC62" s="47">
         <v>2044</v>
       </c>
-      <c r="AD44" s="47">
+      <c r="AD62" s="47">
         <v>2045</v>
       </c>
-      <c r="AE44" s="47">
+      <c r="AE62" s="47">
         <v>2046</v>
       </c>
-      <c r="AF44" s="47">
+      <c r="AF62" s="47">
         <v>2047</v>
       </c>
-      <c r="AG44" s="47">
+      <c r="AG62" s="47">
         <v>2048</v>
       </c>
-      <c r="AH44" s="47">
+      <c r="AH62" s="47">
         <v>2049</v>
       </c>
-      <c r="AI44" s="47">
+      <c r="AI62" s="47">
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
-      <c r="A45" s="23" t="s">
+    <row r="63" spans="1:35">
+      <c r="A63" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="23">
-        <f t="shared" ref="B45:AI45" si="0">AVERAGEIF($A$3:$A$41,$A45,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A45,$C$3:$C$41)</f>
+      <c r="B63" s="23">
+        <f t="shared" ref="B63:AI63" si="0">AVERAGEIF($A$3:$A$41,$A63,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A63,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C63" s="53">
         <f t="shared" si="0"/>
         <v>0.99361387867111461</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D63" s="53">
         <f t="shared" si="0"/>
         <v>0.98722775734222923</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E63" s="53">
         <f t="shared" si="0"/>
         <v>0.98084163601334406</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F63" s="53">
         <f t="shared" si="0"/>
         <v>0.97445551468445868</v>
       </c>
-      <c r="G45" s="53">
+      <c r="G63" s="53">
         <f t="shared" si="0"/>
         <v>0.96806939335557329</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H63" s="53">
         <f t="shared" si="0"/>
         <v>0.96168327202668813</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I63" s="53">
         <f t="shared" si="0"/>
         <v>0.95575502423058456</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J63" s="53">
         <f t="shared" si="0"/>
         <v>0.95376418570365662</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K63" s="53">
         <f t="shared" si="0"/>
         <v>0.95139261374308337</v>
       </c>
-      <c r="L45" s="53">
+      <c r="L63" s="53">
         <f t="shared" si="0"/>
         <v>0.94852007231170787</v>
       </c>
-      <c r="M45" s="53">
+      <c r="M63" s="53">
         <f t="shared" si="0"/>
         <v>0.94466258129256508</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N63" s="53">
         <f t="shared" si="0"/>
         <v>0.93884950207788953</v>
       </c>
-      <c r="O45" s="53">
+      <c r="O63" s="53">
         <f t="shared" si="0"/>
         <v>0.93456496865882499</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P63" s="53">
         <f t="shared" si="0"/>
         <v>0.93030546804985181</v>
       </c>
-      <c r="Q45" s="53">
+      <c r="Q63" s="53">
         <f t="shared" si="0"/>
         <v>0.92553728258489454</v>
       </c>
-      <c r="R45" s="53">
+      <c r="R63" s="53">
         <f t="shared" si="0"/>
         <v>0.9211574901041627</v>
       </c>
-      <c r="S45" s="53">
+      <c r="S63" s="53">
         <f t="shared" si="0"/>
         <v>0.91750184895739795</v>
       </c>
-      <c r="T45" s="53">
+      <c r="T63" s="53">
         <f t="shared" si="0"/>
         <v>0.91269144432598337</v>
       </c>
-      <c r="U45" s="53">
+      <c r="U63" s="53">
         <f t="shared" si="0"/>
         <v>0.90827188751369381</v>
       </c>
-      <c r="V45" s="53">
+      <c r="V63" s="53">
         <f t="shared" si="0"/>
         <v>0.90363470423676473</v>
       </c>
-      <c r="W45" s="53">
+      <c r="W63" s="53">
         <f t="shared" si="0"/>
         <v>0.89949479347065597</v>
       </c>
-      <c r="X45" s="53">
+      <c r="X63" s="53">
         <f t="shared" si="0"/>
         <v>0.89487579418408858</v>
       </c>
-      <c r="Y45" s="53">
+      <c r="Y63" s="53">
         <f t="shared" si="0"/>
         <v>0.89037032831183294</v>
       </c>
-      <c r="Z45" s="53">
+      <c r="Z63" s="53">
         <f t="shared" si="0"/>
         <v>0.88678090500801032</v>
       </c>
-      <c r="AA45" s="53">
+      <c r="AA63" s="53">
         <f t="shared" si="0"/>
         <v>0.88119299673102536</v>
       </c>
-      <c r="AB45" s="53">
+      <c r="AB63" s="53">
         <f t="shared" si="0"/>
         <v>0.87806005588995828</v>
       </c>
-      <c r="AC45" s="53">
+      <c r="AC63" s="53">
         <f t="shared" si="0"/>
         <v>0.87266621682046297</v>
       </c>
-      <c r="AD45" s="53">
+      <c r="AD63" s="53">
         <f t="shared" si="0"/>
         <v>0.86933443748820738</v>
       </c>
-      <c r="AE45" s="53">
+      <c r="AE63" s="53">
         <f t="shared" si="0"/>
         <v>0.86428508846842067</v>
       </c>
-      <c r="AF45" s="53">
+      <c r="AF63" s="53">
         <f t="shared" si="0"/>
         <v>0.86004245813458313</v>
       </c>
-      <c r="AG45" s="53">
+      <c r="AG63" s="53">
         <f t="shared" si="0"/>
         <v>0.85578564375138377</v>
       </c>
-      <c r="AH45" s="53">
+      <c r="AH63" s="53">
         <f t="shared" si="0"/>
         <v>0.85145208680729234</v>
       </c>
-      <c r="AI45" s="53">
+      <c r="AI63" s="53">
         <f t="shared" si="0"/>
         <v>0.84058920735081899</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
-      <c r="A46" s="23" t="s">
+    <row r="64" spans="1:35">
+      <c r="A64" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="23">
-        <f t="shared" ref="B46:AI46" si="1">AVERAGEIF($A$3:$A$41,$A46,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A46,$C$3:$C$41)</f>
+      <c r="B64" s="23">
+        <f t="shared" ref="B64:AI64" si="1">AVERAGEIF($A$3:$A$41,$A64,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A64,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C64" s="53">
         <f t="shared" si="1"/>
         <v>0.99289565601927343</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D64" s="53">
         <f t="shared" si="1"/>
         <v>0.98579131203854686</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E64" s="53">
         <f t="shared" si="1"/>
         <v>0.97868696805782029</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F64" s="53">
         <f t="shared" si="1"/>
         <v>0.9715826240770935</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G64" s="53">
         <f t="shared" si="1"/>
         <v>0.96447828009636694</v>
       </c>
-      <c r="H46" s="53">
+      <c r="H64" s="53">
         <f t="shared" si="1"/>
         <v>0.94986509740833081</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I64" s="53">
         <f t="shared" si="1"/>
         <v>0.94251232636883664</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J64" s="53">
         <f t="shared" si="1"/>
         <v>0.93884141486351436</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K64" s="53">
         <f t="shared" si="1"/>
         <v>0.93509506075622273</v>
       </c>
-      <c r="L46" s="53">
+      <c r="L64" s="53">
         <f t="shared" si="1"/>
         <v>0.93114650465823812</v>
       </c>
-      <c r="M46" s="53">
+      <c r="M64" s="53">
         <f t="shared" si="1"/>
         <v>0.92776809620357947</v>
       </c>
-      <c r="N46" s="53">
+      <c r="N64" s="53">
         <f t="shared" si="1"/>
         <v>0.92249404190792728</v>
       </c>
-      <c r="O46" s="53">
+      <c r="O64" s="53">
         <f t="shared" si="1"/>
         <v>0.91950118460718078</v>
       </c>
-      <c r="P46" s="53">
+      <c r="P64" s="53">
         <f t="shared" si="1"/>
         <v>0.91672504132656596</v>
       </c>
-      <c r="Q46" s="53">
+      <c r="Q64" s="53">
         <f t="shared" si="1"/>
         <v>0.91296593219468369</v>
       </c>
-      <c r="R46" s="53">
+      <c r="R64" s="53">
         <f t="shared" si="1"/>
         <v>0.91001053553845368</v>
       </c>
-      <c r="S46" s="53">
+      <c r="S64" s="53">
         <f t="shared" si="1"/>
         <v>0.90746245925091229</v>
       </c>
-      <c r="T46" s="53">
+      <c r="T64" s="53">
         <f t="shared" si="1"/>
         <v>0.90416225095749481</v>
       </c>
-      <c r="U46" s="53">
+      <c r="U64" s="53">
         <f t="shared" si="1"/>
         <v>0.90101490638278403</v>
       </c>
-      <c r="V46" s="53">
+      <c r="V64" s="53">
         <f t="shared" si="1"/>
         <v>0.89813993680267379</v>
       </c>
-      <c r="W46" s="53">
+      <c r="W64" s="53">
         <f t="shared" si="1"/>
         <v>0.89622430569802169</v>
       </c>
-      <c r="X46" s="53">
+      <c r="X64" s="53">
         <f t="shared" si="1"/>
         <v>0.89383097648089882</v>
       </c>
-      <c r="Y46" s="53">
+      <c r="Y64" s="53">
         <f t="shared" si="1"/>
         <v>0.89155001563415048</v>
       </c>
-      <c r="Z46" s="53">
+      <c r="Z64" s="53">
         <f t="shared" si="1"/>
         <v>0.89018794212555774</v>
       </c>
-      <c r="AA46" s="53">
+      <c r="AA64" s="53">
         <f t="shared" si="1"/>
         <v>0.88681844175674396</v>
       </c>
-      <c r="AB46" s="53">
+      <c r="AB64" s="53">
         <f t="shared" si="1"/>
         <v>0.88591957066847604</v>
       </c>
-      <c r="AC46" s="53">
+      <c r="AC64" s="53">
         <f t="shared" si="1"/>
         <v>0.88274004210700152</v>
       </c>
-      <c r="AD46" s="53">
+      <c r="AD64" s="53">
         <f t="shared" si="1"/>
         <v>0.88164624452454521</v>
       </c>
-      <c r="AE46" s="53">
+      <c r="AE64" s="53">
         <f t="shared" si="1"/>
         <v>0.87881160892440002</v>
       </c>
-      <c r="AF46" s="53">
+      <c r="AF64" s="53">
         <f t="shared" si="1"/>
         <v>0.8767956515348625</v>
       </c>
-      <c r="AG46" s="53">
+      <c r="AG64" s="53">
         <f t="shared" si="1"/>
         <v>0.87476556369092151</v>
       </c>
-      <c r="AH46" s="53">
+      <c r="AH64" s="53">
         <f t="shared" si="1"/>
         <v>0.87265754775778004</v>
       </c>
-      <c r="AI46" s="53">
+      <c r="AI64" s="53">
         <f t="shared" si="1"/>
         <v>0.8638396791213292</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="23" t="s">
+    <row r="65" spans="1:35">
+      <c r="A65" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="23">
-        <f t="shared" ref="B47:AI47" si="2">AVERAGEIF($A$3:$A$41,$A47,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A47,$C$3:$C$41)</f>
+      <c r="B65" s="23">
+        <f t="shared" ref="B65:AI65" si="2">AVERAGEIF($A$3:$A$41,$A65,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A65,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C65" s="53">
         <f t="shared" si="2"/>
         <v>0.99299706323394998</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D65" s="53">
         <f t="shared" si="2"/>
         <v>0.98599412646789986</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E65" s="53">
         <f t="shared" si="2"/>
         <v>0.97899118970184984</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F65" s="53">
         <f t="shared" si="2"/>
         <v>0.97198825293579971</v>
       </c>
-      <c r="G47" s="53">
+      <c r="G65" s="53">
         <f t="shared" si="2"/>
         <v>0.9649853161697497</v>
       </c>
-      <c r="H47" s="53">
+      <c r="H65" s="53">
         <f t="shared" si="2"/>
         <v>0.95798237940369968</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I65" s="53">
         <f t="shared" si="2"/>
         <v>0.9514380268203958</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J65" s="53">
         <f t="shared" si="2"/>
         <v>0.94881266625648586</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K65" s="53">
         <f t="shared" si="2"/>
         <v>0.94580560403108094</v>
       </c>
-      <c r="L47" s="53">
+      <c r="L65" s="53">
         <f t="shared" si="2"/>
         <v>0.94229815162946873</v>
       </c>
-      <c r="M47" s="53">
+      <c r="M65" s="53">
         <f t="shared" si="2"/>
         <v>0.93781099262875101</v>
       </c>
-      <c r="N47" s="53">
+      <c r="N65" s="53">
         <f t="shared" si="2"/>
         <v>0.93138304519871018</v>
       </c>
-      <c r="O47" s="53">
+      <c r="O65" s="53">
         <f t="shared" si="2"/>
         <v>0.92647245464194639</v>
       </c>
-      <c r="P47" s="53">
+      <c r="P65" s="53">
         <f t="shared" si="2"/>
         <v>0.92158644841071546</v>
       </c>
-      <c r="Q47" s="53">
+      <c r="Q65" s="53">
         <f t="shared" si="2"/>
         <v>0.91619674484378688</v>
       </c>
-      <c r="R47" s="53">
+      <c r="R65" s="53">
         <f t="shared" si="2"/>
         <v>0.91119190892101065</v>
       </c>
-      <c r="S47" s="53">
+      <c r="S65" s="53">
         <f t="shared" si="2"/>
         <v>0.90690285527447145</v>
       </c>
-      <c r="T47" s="53">
+      <c r="T65" s="53">
         <f t="shared" si="2"/>
         <v>0.90147225680378973</v>
       </c>
-      <c r="U47" s="53">
+      <c r="U65" s="53">
         <f t="shared" si="2"/>
         <v>0.89642801084429113</v>
       </c>
-      <c r="V47" s="53">
+      <c r="V65" s="53">
         <f t="shared" si="2"/>
         <v>0.8911693178724599</v>
       </c>
-      <c r="W47" s="53">
+      <c r="W65" s="53">
         <f t="shared" si="2"/>
         <v>0.88640131346991513</v>
       </c>
-      <c r="X47" s="53">
+      <c r="X65" s="53">
         <f t="shared" si="2"/>
         <v>0.88116090900532995</v>
       </c>
-      <c r="Y47" s="53">
+      <c r="Y65" s="53">
         <f t="shared" si="2"/>
         <v>0.8760326516087541</v>
       </c>
-      <c r="Z47" s="53">
+      <c r="Z65" s="53">
         <f t="shared" si="2"/>
         <v>0.87180517776536537</v>
       </c>
-      <c r="AA47" s="53">
+      <c r="AA65" s="53">
         <f t="shared" si="2"/>
         <v>0.86561351805612274</v>
       </c>
-      <c r="AB47" s="53">
+      <c r="AB65" s="53">
         <f t="shared" si="2"/>
         <v>0.86183332046796002</v>
       </c>
-      <c r="AC47" s="53">
+      <c r="AC65" s="53">
         <f t="shared" si="2"/>
         <v>0.85583377022979312</v>
       </c>
-      <c r="AD47" s="53">
+      <c r="AD65" s="53">
         <f t="shared" si="2"/>
         <v>0.85185654996956839</v>
       </c>
-      <c r="AE47" s="53">
+      <c r="AE65" s="53">
         <f t="shared" si="2"/>
         <v>0.84619628302670113</v>
       </c>
-      <c r="AF47" s="53">
+      <c r="AF65" s="53">
         <f t="shared" si="2"/>
         <v>0.84132630906727179</v>
       </c>
-      <c r="AG47" s="53">
+      <c r="AG65" s="53">
         <f t="shared" si="2"/>
         <v>0.83644191361051734</v>
       </c>
-      <c r="AH47" s="53">
+      <c r="AH65" s="53">
         <f t="shared" si="2"/>
         <v>0.83148261136523338</v>
       </c>
-      <c r="AI47" s="53">
+      <c r="AI65" s="53">
         <f t="shared" si="2"/>
         <v>0.82015272478064627</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="23" t="s">
+    <row r="66" spans="1:35">
+      <c r="A66" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="23">
-        <f t="shared" ref="B48:AI48" si="3">AVERAGEIF($A$3:$A$41,$A48,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A48,$C$3:$C$41)</f>
+      <c r="B66" s="23">
+        <f t="shared" ref="B66:AI66" si="3">AVERAGEIF($A$3:$A$41,$A66,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A66,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C66" s="53">
         <f t="shared" si="3"/>
         <v>0.98500285010457367</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D66" s="53">
         <f t="shared" si="3"/>
         <v>0.97000570020914689</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E66" s="53">
         <f t="shared" si="3"/>
         <v>0.95500855031372067</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F66" s="53">
         <f t="shared" si="3"/>
         <v>0.94001140041829412</v>
       </c>
-      <c r="G48" s="53">
+      <c r="G66" s="53">
         <f t="shared" si="3"/>
         <v>0.92501425052286779</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H66" s="53">
         <f t="shared" si="3"/>
         <v>0.91001710062744134</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I66" s="53">
         <f t="shared" si="3"/>
         <v>0.8950199507320149</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J66" s="53">
         <f t="shared" si="3"/>
         <v>0.88002280083658868</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K66" s="53">
         <f t="shared" si="3"/>
         <v>0.86502565094116191</v>
       </c>
-      <c r="L48" s="53">
+      <c r="L66" s="53">
         <f t="shared" si="3"/>
         <v>0.85002850104573568</v>
       </c>
-      <c r="M48" s="53">
+      <c r="M66" s="53">
         <f t="shared" si="3"/>
         <v>0.83503135115030913</v>
       </c>
-      <c r="N48" s="53">
+      <c r="N66" s="53">
         <f t="shared" si="3"/>
         <v>0.82003420125488258</v>
       </c>
-      <c r="O48" s="53">
+      <c r="O66" s="53">
         <f t="shared" si="3"/>
         <v>0.80503705135945625</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P66" s="53">
         <f t="shared" si="3"/>
         <v>0.79003990146402991</v>
       </c>
-      <c r="Q48" s="53">
+      <c r="Q66" s="53">
         <f t="shared" si="3"/>
         <v>0.77504275156860336</v>
       </c>
-      <c r="R48" s="53">
+      <c r="R66" s="53">
         <f t="shared" si="3"/>
         <v>0.76004560167317692</v>
       </c>
-      <c r="S48" s="53">
+      <c r="S66" s="53">
         <f t="shared" si="3"/>
         <v>0.74504845177775059</v>
       </c>
-      <c r="T48" s="53">
+      <c r="T66" s="53">
         <f t="shared" si="3"/>
         <v>0.73005130188232414</v>
       </c>
-      <c r="U48" s="53">
+      <c r="U66" s="53">
         <f t="shared" si="3"/>
         <v>0.72612221934481047</v>
       </c>
-      <c r="V48" s="53">
+      <c r="V66" s="53">
         <f t="shared" si="3"/>
         <v>0.72219313680729702</v>
       </c>
-      <c r="W48" s="53">
+      <c r="W66" s="53">
         <f t="shared" si="3"/>
         <v>0.71826405426978335</v>
       </c>
-      <c r="X48" s="53">
+      <c r="X66" s="53">
         <f t="shared" si="3"/>
         <v>0.71433497173226956</v>
       </c>
-      <c r="Y48" s="53">
+      <c r="Y66" s="53">
         <f t="shared" si="3"/>
         <v>0.71040588919475611</v>
       </c>
-      <c r="Z48" s="53">
+      <c r="Z66" s="53">
         <f t="shared" si="3"/>
         <v>0.70647680665724244</v>
       </c>
-      <c r="AA48" s="53">
+      <c r="AA66" s="53">
         <f t="shared" si="3"/>
         <v>0.70254772411972888</v>
       </c>
-      <c r="AB48" s="53">
+      <c r="AB66" s="53">
         <f t="shared" si="3"/>
         <v>0.69861864158221521</v>
       </c>
-      <c r="AC48" s="53">
+      <c r="AC66" s="53">
         <f t="shared" si="3"/>
         <v>0.69468955904470164</v>
       </c>
-      <c r="AD48" s="53">
+      <c r="AD66" s="53">
         <f t="shared" si="3"/>
         <v>0.69076047650718797</v>
       </c>
-      <c r="AE48" s="53">
+      <c r="AE66" s="53">
         <f t="shared" si="3"/>
         <v>0.68683139396967441</v>
       </c>
-      <c r="AF48" s="53">
+      <c r="AF66" s="53">
         <f t="shared" si="3"/>
         <v>0.68290231143216074</v>
       </c>
-      <c r="AG48" s="53">
+      <c r="AG66" s="53">
         <f t="shared" si="3"/>
         <v>0.67897322889464717</v>
       </c>
-      <c r="AH48" s="53">
+      <c r="AH66" s="53">
         <f t="shared" si="3"/>
         <v>0.67504414635713361</v>
       </c>
-      <c r="AI48" s="53">
+      <c r="AI66" s="53">
         <f t="shared" si="3"/>
         <v>0.67111506381962005</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="23" customFormat="1">
-      <c r="A49" s="23" t="s">
+    <row r="67" spans="1:35" s="23" customFormat="1">
+      <c r="A67" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="23">
-        <f t="shared" ref="B49:AI49" si="4">AVERAGEIF($A$3:$A$41,$A49,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A49,$C$3:$C$41)</f>
+      <c r="B67" s="23">
+        <f t="shared" ref="B67:AI67" si="4">AVERAGEIF($A$3:$A$41,$A67,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A67,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C67" s="53">
         <f t="shared" si="4"/>
         <v>0.95860906787400912</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D67" s="53">
         <f t="shared" si="4"/>
         <v>0.9172181357480178</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E67" s="53">
         <f t="shared" si="4"/>
         <v>0.87582720362202637</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F67" s="53">
         <f t="shared" si="4"/>
         <v>0.83443627149603539</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G67" s="53">
         <f t="shared" si="4"/>
         <v>0.78545475742407822</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H67" s="53">
         <f t="shared" si="4"/>
         <v>0.7434692512162604</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I67" s="53">
         <f t="shared" si="4"/>
         <v>0.69766611832130099</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J67" s="53">
         <f t="shared" si="4"/>
         <v>0.6518629854263418</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K67" s="53">
         <f t="shared" si="4"/>
         <v>0.60605985253138261</v>
       </c>
-      <c r="L49" s="53">
+      <c r="L67" s="53">
         <f t="shared" si="4"/>
         <v>0.56025671963642332</v>
       </c>
-      <c r="M49" s="53">
+      <c r="M67" s="53">
         <f t="shared" si="4"/>
         <v>0.51445358674146391</v>
       </c>
-      <c r="N49" s="53">
+      <c r="N67" s="53">
         <f t="shared" si="4"/>
         <v>0.46865045384650467</v>
       </c>
-      <c r="O49" s="53">
+      <c r="O67" s="53">
         <f t="shared" si="4"/>
         <v>0.42284732095154565</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P67" s="53">
         <f t="shared" si="4"/>
         <v>0.41864257896922646</v>
       </c>
-      <c r="Q49" s="53">
+      <c r="Q67" s="53">
         <f t="shared" si="4"/>
         <v>0.41443783698690723</v>
       </c>
-      <c r="R49" s="53">
+      <c r="R67" s="53">
         <f t="shared" si="4"/>
         <v>0.4102330950045881</v>
       </c>
-      <c r="S49" s="53">
+      <c r="S67" s="53">
         <f t="shared" si="4"/>
         <v>0.40602835302226875</v>
       </c>
-      <c r="T49" s="53">
+      <c r="T67" s="53">
         <f t="shared" si="4"/>
         <v>0.40182361103994962</v>
       </c>
-      <c r="U49" s="53">
+      <c r="U67" s="53">
         <f t="shared" si="4"/>
         <v>0.39761886905763044</v>
       </c>
-      <c r="V49" s="53">
+      <c r="V67" s="53">
         <f t="shared" si="4"/>
         <v>0.39341412707531132</v>
       </c>
-      <c r="W49" s="53">
+      <c r="W67" s="53">
         <f t="shared" si="4"/>
         <v>0.38920938509299208</v>
       </c>
-      <c r="X49" s="53">
+      <c r="X67" s="53">
         <f t="shared" si="4"/>
         <v>0.38500464311067273</v>
       </c>
-      <c r="Y49" s="53">
+      <c r="Y67" s="53">
         <f t="shared" si="4"/>
         <v>0.38079990112835366</v>
       </c>
-      <c r="Z49" s="53">
+      <c r="Z67" s="53">
         <f t="shared" si="4"/>
         <v>0.37659515914603442</v>
       </c>
-      <c r="AA49" s="53">
+      <c r="AA67" s="53">
         <f t="shared" si="4"/>
         <v>0.37239041716371518</v>
       </c>
-      <c r="AB49" s="53">
+      <c r="AB67" s="53">
         <f t="shared" si="4"/>
         <v>0.36818567518139605</v>
       </c>
-      <c r="AC49" s="53">
+      <c r="AC67" s="53">
         <f t="shared" si="4"/>
         <v>0.36398093319907687</v>
       </c>
-      <c r="AD49" s="53">
+      <c r="AD67" s="53">
         <f t="shared" si="4"/>
         <v>0.35977619121675758</v>
       </c>
-      <c r="AE49" s="53">
+      <c r="AE67" s="53">
         <f t="shared" si="4"/>
         <v>0.35557144923443851</v>
       </c>
-      <c r="AF49" s="53">
+      <c r="AF67" s="53">
         <f t="shared" si="4"/>
         <v>0.35136670725211921</v>
       </c>
-      <c r="AG49" s="53">
+      <c r="AG67" s="53">
         <f t="shared" si="4"/>
         <v>0.34716196526979998</v>
       </c>
-      <c r="AH49" s="53">
+      <c r="AH67" s="53">
         <f t="shared" si="4"/>
         <v>0.34295722328748079</v>
       </c>
-      <c r="AI49" s="53">
+      <c r="AI67" s="53">
         <f t="shared" si="4"/>
         <v>0.33875248130516172</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="23" t="s">
+    <row r="68" spans="1:35">
+      <c r="A68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="23">
-        <f t="shared" ref="B50:AI50" si="5">AVERAGEIF($A$3:$A$41,$A50,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A50,$C$3:$C$41)</f>
+      <c r="B68" s="23">
+        <f t="shared" ref="B68:AI68" si="5">AVERAGEIF($A$3:$A$41,$A68,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A68,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C68" s="53">
         <f t="shared" si="5"/>
         <v>0.99866706531590688</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D68" s="53">
         <f t="shared" si="5"/>
         <v>0.99733413063181364</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E68" s="53">
         <f t="shared" si="5"/>
         <v>0.99572315608622486</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F68" s="53">
         <f t="shared" si="5"/>
         <v>1.006844205541084</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G68" s="53">
         <f t="shared" si="5"/>
         <v>0.98099485229086403</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H68" s="53">
         <f t="shared" si="5"/>
         <v>0.97625494126096368</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I68" s="53">
         <f t="shared" si="5"/>
         <v>0.97195053751129057</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J68" s="53">
         <f t="shared" si="5"/>
         <v>0.97144423922539058</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K68" s="53">
         <f t="shared" si="5"/>
         <v>0.97057654461538967</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L68" s="53">
         <f t="shared" si="5"/>
         <v>0.96922954130968253</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M68" s="53">
         <f t="shared" si="5"/>
         <v>0.96693141521083936</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N68" s="53">
         <f t="shared" si="5"/>
         <v>0.96273418242138675</v>
       </c>
-      <c r="O50" s="53">
+      <c r="O68" s="53">
         <f t="shared" si="5"/>
         <v>0.96002039877923506</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P68" s="53">
         <f t="shared" si="5"/>
         <v>0.95733114239508632</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q68" s="53">
         <f t="shared" si="5"/>
         <v>0.95414543365001081</v>
       </c>
-      <c r="R50" s="53">
+      <c r="R68" s="53">
         <f t="shared" si="5"/>
         <v>0.95133837301468205</v>
       </c>
-      <c r="S50" s="53">
+      <c r="S68" s="53">
         <f t="shared" si="5"/>
         <v>0.94924070534335847</v>
       </c>
-      <c r="T50" s="53">
+      <c r="T68" s="53">
         <f t="shared" si="5"/>
         <v>0.94601201531706791</v>
       </c>
-      <c r="U50" s="53">
+      <c r="U68" s="53">
         <f t="shared" si="5"/>
         <v>0.94316603432158919</v>
       </c>
-      <c r="V50" s="53">
+      <c r="V68" s="53">
         <f t="shared" si="5"/>
         <v>0.94010560974761981</v>
       </c>
-      <c r="W50" s="53">
+      <c r="W68" s="53">
         <f t="shared" si="5"/>
         <v>0.93753491204764161</v>
       </c>
-      <c r="X50" s="53">
+      <c r="X68" s="53">
         <f t="shared" si="5"/>
         <v>0.93449120532015484</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y68" s="53">
         <f t="shared" si="5"/>
         <v>0.93155909929288172</v>
       </c>
-      <c r="Z50" s="53">
+      <c r="Z68" s="53">
         <f t="shared" si="5"/>
         <v>0.92953479789727411</v>
       </c>
-      <c r="AA50" s="53">
+      <c r="AA68" s="53">
         <f t="shared" si="5"/>
         <v>0.92552810506553873</v>
       </c>
-      <c r="AB50" s="53">
+      <c r="AB68" s="53">
         <f t="shared" si="5"/>
         <v>0.92395996075469167</v>
       </c>
-      <c r="AC50" s="53">
+      <c r="AC68" s="53">
         <f t="shared" si="5"/>
         <v>0.92014217392752329</v>
       </c>
-      <c r="AD50" s="53">
+      <c r="AD68" s="53">
         <f t="shared" si="5"/>
         <v>0.91837997796090998</v>
       </c>
-      <c r="AE50" s="53">
+      <c r="AE68" s="53">
         <f t="shared" si="5"/>
         <v>0.91490329989722352</v>
       </c>
-      <c r="AF50" s="53">
+      <c r="AF68" s="53">
         <f t="shared" si="5"/>
         <v>0.91223261342364481</v>
       </c>
-      <c r="AG50" s="53">
+      <c r="AG68" s="53">
         <f t="shared" si="5"/>
         <v>0.90954792862679801</v>
       </c>
-      <c r="AH50" s="53">
+      <c r="AH68" s="53">
         <f t="shared" si="5"/>
         <v>0.90678646139822128</v>
       </c>
-      <c r="AI50" s="53">
+      <c r="AI68" s="53">
         <f t="shared" si="5"/>
         <v>0.89744477508287412</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="23" t="s">
+    <row r="69" spans="1:35">
+      <c r="A69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="23">
-        <f t="shared" ref="B51:AI51" si="6">AVERAGEIF($A$3:$A$41,$A51,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A51,$C$3:$C$41)</f>
+      <c r="B69" s="23">
+        <f t="shared" ref="B69:AI69" si="6">AVERAGEIF($A$3:$A$41,$A69,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A69,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C69" s="53">
         <f t="shared" si="6"/>
         <v>0.94356363905780227</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D69" s="53">
         <f t="shared" si="6"/>
         <v>0.88712727811560432</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E69" s="53">
         <f t="shared" si="6"/>
         <v>0.83069091717340648</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F69" s="53">
         <f t="shared" si="6"/>
         <v>0.77425455623120853</v>
       </c>
-      <c r="G51" s="53">
+      <c r="G69" s="53">
         <f t="shared" si="6"/>
         <v>0.71781819528901092</v>
       </c>
-      <c r="H51" s="53">
+      <c r="H69" s="53">
         <f t="shared" si="6"/>
         <v>0.66138183434681308</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I69" s="53">
         <f t="shared" si="6"/>
         <v>0.60494547340461513</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J69" s="53">
         <f t="shared" si="6"/>
         <v>0.54850911246241718</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K69" s="53">
         <f t="shared" si="6"/>
         <v>0.49207275152021934</v>
       </c>
-      <c r="L51" s="53">
+      <c r="L69" s="53">
         <f t="shared" si="6"/>
         <v>0.4356363905780215</v>
       </c>
-      <c r="M51" s="53">
+      <c r="M69" s="53">
         <f t="shared" si="6"/>
         <v>0.37920002963582355</v>
       </c>
-      <c r="N51" s="53">
+      <c r="N69" s="53">
         <f t="shared" si="6"/>
         <v>0.3227636686936256</v>
       </c>
-      <c r="O51" s="53">
+      <c r="O69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Q51" s="53">
+      <c r="Q69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="R51" s="53">
+      <c r="R69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="S51" s="53">
+      <c r="S69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="T51" s="53">
+      <c r="T69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="U51" s="53">
+      <c r="U69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="V51" s="53">
+      <c r="V69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="W51" s="53">
+      <c r="W69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="X51" s="53">
+      <c r="X69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Y51" s="53">
+      <c r="Y69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Z51" s="53">
+      <c r="Z69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AA51" s="53">
+      <c r="AA69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AB51" s="53">
+      <c r="AB69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AC51" s="53">
+      <c r="AC69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AD51" s="53">
+      <c r="AD69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AE51" s="53">
+      <c r="AE69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AF51" s="53">
+      <c r="AF69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AG51" s="53">
+      <c r="AG69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AH51" s="53">
+      <c r="AH69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AI51" s="53">
+      <c r="AI69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="23" t="s">
+    <row r="70" spans="1:35">
+      <c r="A70" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="23">
-        <f t="shared" ref="B52:AI52" si="7">AVERAGEIF($A$3:$A$41,$A52,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A52,$C$3:$C$41)</f>
+      <c r="B70" s="23">
+        <f t="shared" ref="B70:AI70" si="7">AVERAGEIF($A$3:$A$41,$A70,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A70,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C70" s="53">
         <f t="shared" si="7"/>
         <v>0.99843239210146095</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D70" s="53">
         <f t="shared" si="7"/>
         <v>0.99686478420292202</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E70" s="53">
         <f t="shared" si="7"/>
         <v>1.0040053609027875</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F70" s="53">
         <f t="shared" si="7"/>
         <v>0.99193556990426157</v>
       </c>
-      <c r="G52" s="53">
+      <c r="G70" s="53">
         <f t="shared" si="7"/>
         <v>0.9845361127745369</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H70" s="53">
         <f t="shared" si="7"/>
         <v>0.96513000029532214</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I70" s="53">
         <f t="shared" si="7"/>
         <v>0.95615239080336878</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J70" s="53">
         <f t="shared" si="7"/>
         <v>0.95081929414849531</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K70" s="53">
         <f t="shared" si="7"/>
         <v>0.94554090553662251</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L70" s="53">
         <f t="shared" si="7"/>
         <v>0.94018622836390731</v>
       </c>
-      <c r="M52" s="53">
+      <c r="M70" s="53">
         <f t="shared" si="7"/>
         <v>0.93610361308294421</v>
       </c>
-      <c r="N52" s="53">
+      <c r="N70" s="53">
         <f t="shared" si="7"/>
         <v>0.9301202095613057</v>
       </c>
-      <c r="O52" s="53">
+      <c r="O70" s="53">
         <f t="shared" si="7"/>
         <v>0.92679350840479824</v>
       </c>
-      <c r="P52" s="53">
+      <c r="P70" s="53">
         <f t="shared" si="7"/>
         <v>0.92377255675392778</v>
       </c>
-      <c r="Q52" s="53">
+      <c r="Q70" s="53">
         <f t="shared" si="7"/>
         <v>0.91954176438353663</v>
       </c>
-      <c r="R52" s="53">
+      <c r="R70" s="53">
         <f t="shared" si="7"/>
         <v>0.91631268610689376</v>
       </c>
-      <c r="S52" s="53">
+      <c r="S70" s="53">
         <f t="shared" si="7"/>
         <v>0.91335255678838023</v>
       </c>
-      <c r="T52" s="53">
+      <c r="T70" s="53">
         <f t="shared" si="7"/>
         <v>0.90981349690811741</v>
       </c>
-      <c r="U52" s="53">
+      <c r="U70" s="53">
         <f t="shared" si="7"/>
         <v>0.90632156135940878</v>
       </c>
-      <c r="V52" s="53">
+      <c r="V70" s="53">
         <f t="shared" si="7"/>
         <v>0.90332745851820551</v>
       </c>
-      <c r="W52" s="53">
+      <c r="W70" s="53">
         <f t="shared" si="7"/>
         <v>0.90151131816352381</v>
       </c>
-      <c r="X52" s="53">
+      <c r="X70" s="53">
         <f t="shared" si="7"/>
         <v>0.89921462636086258</v>
       </c>
-      <c r="Y52" s="53">
+      <c r="Y70" s="53">
         <f t="shared" si="7"/>
         <v>0.8970309918393935</v>
       </c>
-      <c r="Z52" s="53">
+      <c r="Z70" s="53">
         <f t="shared" si="7"/>
         <v>0.89577190748462732</v>
       </c>
-      <c r="AA52" s="53">
+      <c r="AA70" s="53">
         <f t="shared" si="7"/>
         <v>0.89249282681209385</v>
       </c>
-      <c r="AB52" s="53">
+      <c r="AB70" s="53">
         <f t="shared" si="7"/>
         <v>0.89170014422238164</v>
       </c>
-      <c r="AC52" s="53">
+      <c r="AC70" s="53">
         <f t="shared" si="7"/>
         <v>0.88861192948609069</v>
       </c>
-      <c r="AD52" s="53">
+      <c r="AD70" s="53">
         <f t="shared" si="7"/>
         <v>0.88762326109406264</v>
       </c>
-      <c r="AE52" s="53">
+      <c r="AE70" s="53">
         <f t="shared" si="7"/>
         <v>0.88488207370562277</v>
       </c>
-      <c r="AF52" s="53">
+      <c r="AF70" s="53">
         <f t="shared" si="7"/>
         <v>0.88296511544991185</v>
       </c>
-      <c r="AG52" s="53">
+      <c r="AG70" s="53">
         <f t="shared" si="7"/>
         <v>0.88103401189453079</v>
       </c>
-      <c r="AH52" s="53">
+      <c r="AH70" s="53">
         <f t="shared" si="7"/>
         <v>0.87902427775817016</v>
       </c>
-      <c r="AI52" s="53">
+      <c r="AI70" s="53">
         <f t="shared" si="7"/>
         <v>0.8702549929776886</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="23">
-        <f t="shared" ref="B53:AI53" si="8">(SUMPRODUCT(C$27:C$41,$B$58:$B$72)/SUM($B$58:$B$72))/(SUMPRODUCT($C$27:$C$41,$B$58:$B$72)/SUM($B$58:$B$72))</f>
+    <row r="71" spans="1:35">
+      <c r="A71" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="23">
+        <f t="shared" ref="B71:AI71" si="8">(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>1</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C71" s="23">
         <f t="shared" si="8"/>
         <v>0.76893251532958939</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D71" s="23">
         <f t="shared" si="8"/>
         <v>0.73908611988359929</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E71" s="23">
         <f t="shared" si="8"/>
         <v>0.71041231821700446</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F71" s="23">
         <f t="shared" si="8"/>
         <v>0.68286455787608569</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G71" s="23">
         <f t="shared" si="8"/>
         <v>0.65639815098108378</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H71" s="23">
         <f t="shared" si="8"/>
         <v>0.63097019899268714</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I71" s="23">
         <f t="shared" si="8"/>
         <v>0.60653952053245963</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J71" s="23">
         <f t="shared" si="8"/>
         <v>0.58306658213263374</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K71" s="23">
         <f t="shared" si="8"/>
         <v>0.56051343179579671</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L71" s="23">
         <f t="shared" si="8"/>
         <v>0.53884363524988776</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M71" s="23">
         <f t="shared" si="8"/>
         <v>0.51802221478861732</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N71" s="23">
         <f t="shared" si="8"/>
         <v>0.49801559059191758</v>
       </c>
-      <c r="O53" s="23">
+      <c r="O71" s="23">
         <f t="shared" si="8"/>
         <v>0.47879152442534423</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P71" s="23">
         <f t="shared" si="8"/>
         <v>0.46031906562148955</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q71" s="23">
         <f t="shared" si="8"/>
         <v>0.44256849925043112</v>
       </c>
-      <c r="R53" s="23">
+      <c r="R71" s="23">
         <f t="shared" si="8"/>
         <v>0.4255112963900457</v>
       </c>
-      <c r="S53" s="23">
+      <c r="S71" s="23">
         <f t="shared" si="8"/>
         <v>0.40912006641066312</v>
       </c>
-      <c r="T53" s="23">
+      <c r="T71" s="23">
         <f t="shared" si="8"/>
         <v>0.39336851119203725</v>
       </c>
-      <c r="U53" s="23">
+      <c r="U71" s="23">
         <f t="shared" si="8"/>
         <v>0.3782313811939606</v>
       </c>
-      <c r="V53" s="23">
+      <c r="V71" s="23">
         <f t="shared" si="8"/>
         <v>0.36368443330506955</v>
       </c>
-      <c r="W53" s="23">
+      <c r="W71" s="23">
         <f t="shared" si="8"/>
         <v>0.34970439039746898</v>
       </c>
-      <c r="X53" s="23">
+      <c r="X71" s="23">
         <f t="shared" si="8"/>
         <v>0.33626890251776775</v>
       </c>
-      <c r="Y53" s="23">
+      <c r="Y71" s="23">
         <f t="shared" si="8"/>
         <v>0.3233565096479471</v>
       </c>
-      <c r="Z53" s="23">
+      <c r="Z71" s="23">
         <f t="shared" si="8"/>
         <v>0.31094660597221052</v>
       </c>
-      <c r="AA53" s="23">
+      <c r="AA71" s="23">
         <f t="shared" si="8"/>
         <v>0.29901940558856843</v>
       </c>
-      <c r="AB53" s="23">
+      <c r="AB71" s="23">
         <f t="shared" si="8"/>
         <v>0.2875559096064163</v>
       </c>
-      <c r="AC53" s="23">
+      <c r="AC71" s="23">
         <f t="shared" si="8"/>
         <v>0.27653787457376039</v>
       </c>
-      <c r="AD53" s="23">
+      <c r="AD71" s="23">
         <f t="shared" si="8"/>
         <v>0.26594778218005038</v>
       </c>
-      <c r="AE53" s="23">
+      <c r="AE71" s="23">
         <f t="shared" si="8"/>
         <v>0.25576881018278191</v>
       </c>
-      <c r="AF53" s="23">
+      <c r="AF71" s="23">
         <f t="shared" si="8"/>
         <v>0.24598480450814955</v>
       </c>
-      <c r="AG53" s="23">
+      <c r="AG71" s="23">
         <f t="shared" si="8"/>
         <v>0.23658025247806094</v>
       </c>
-      <c r="AH53" s="23">
+      <c r="AH71" s="23">
         <f t="shared" si="8"/>
         <v>0.22754025711776654</v>
       </c>
-      <c r="AI53" s="23">
+      <c r="AI71" s="23">
         <f t="shared" si="8"/>
         <v>0.21885051250023072</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="23">
-        <v>12.491269722013936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="23">
-        <v>24.982539444027871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="23">
-        <v>49.965078888055743</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
-      <c r="A61" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="23">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
-      <c r="A62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" s="23">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
-      <c r="A63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="23">
-        <v>12.491269722013936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="23">
-        <v>24.982539444027871</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="23">
-        <v>49.965078888055743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="23">
-        <v>99.930157776111486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B71" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>224</v>
-      </c>
-      <c r="B72" s="23">
-        <v>143.39977640871999</v>
       </c>
     </row>
   </sheetData>
@@ -10583,7 +10566,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10599,29 +10582,29 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4">
-        <f>('EIA Costs'!F2*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F2*1000)*(About!$A$61)</f>
         <v>30723.759999999998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!F3*1000*About!$A$63</f>
-        <v>69710.2</v>
+        <f>'EIA Costs'!F3*1000*About!$A$61</f>
+        <v>71110.319999999992</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10629,15 +10612,15 @@
         <v>33</v>
       </c>
       <c r="B3" s="4">
-        <f>('EIA Costs'!F4*1000)*(About!$A$71)</f>
-        <v>10157.873</v>
+        <f>('EIA Costs'!F4*1000)*(About!$A$63)</f>
+        <v>10359.019</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!F5*1000*About!$A$71</f>
-        <v>9234.43</v>
+        <f>'EIA Costs'!F5*1000*About!$A$63</f>
+        <v>9417.2900000000009</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10645,15 +10628,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <f>('EIA Costs'!F8*1000)*(About!$A$71)</f>
-        <v>92600.304000000004</v>
+        <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
+        <v>94456.332999999999</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!F8*1000*About!$A$71</f>
-        <v>92600.304000000004</v>
+        <f>'EIA Costs'!F8*1000*About!$A$63</f>
+        <v>94456.332999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10661,31 +10644,31 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <f>('EIA Costs'!F11*1000)*(About!$A$71)</f>
-        <v>36617.714999999997</v>
+        <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
+        <v>37349.154999999999</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!F11*1000*About!$A$71</f>
-        <v>36617.714999999997</v>
+        <f>'EIA Costs'!F11*1000*About!$A$63</f>
+        <v>37349.154999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
-        <f>('EIA Costs'!F12*1000)*(About!$A$71)</f>
-        <v>43401.821000000004</v>
+        <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
+        <v>44270.406000000003</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!F12*1000*About!$A$71</f>
-        <v>43401.821000000004</v>
+        <f>'EIA Costs'!F12*1000*About!$A$63</f>
+        <v>44270.406000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10693,15 +10676,15 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>('EIA Costs'!F15*1000)*(About!$A$71)</f>
-        <v>20132.885999999999</v>
+        <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
+        <v>20535.178</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!F15*1000*About!$A$71</f>
-        <v>20132.885999999999</v>
+        <f>'EIA Costs'!F15*1000*About!$A$63</f>
+        <v>20535.178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10709,15 +10692,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>('EIA Costs'!F14*1000)*(About!$A$71)</f>
-        <v>65290.163</v>
+        <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
+        <v>66597.611999999994</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!F14*1000*About!$A$71</f>
-        <v>65290.163</v>
+        <f>'EIA Costs'!F14*1000*About!$A$63</f>
+        <v>66597.611999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10725,15 +10708,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="4">
-        <f>('EIA Costs'!F9*1000)*(About!$A$71)</f>
-        <v>102538.745</v>
+        <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
+        <v>104586.777</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!F9*1000*About!$A$71</f>
-        <v>102538.745</v>
+        <f>'EIA Costs'!F9*1000*About!$A$63</f>
+        <v>104586.777</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10741,15 +10724,15 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>('EIA Costs'!F10*1000)*(About!$A$71)</f>
-        <v>109597.141</v>
+        <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
+        <v>111800.60400000001</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!F10*1000*About!$A$71</f>
-        <v>109597.141</v>
+        <f>'EIA Costs'!F10*1000*About!$A$63</f>
+        <v>111800.60400000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10757,15 +10740,15 @@
         <v>35</v>
       </c>
       <c r="B11" s="4">
-        <f>(B12)*(About!$A$71)</f>
-        <v>14771.139138300001</v>
+        <f>(B12)*(About!$A$63)</f>
+        <v>15072.079154700001</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10773,24 +10756,24 @@
         <v>36</v>
       </c>
       <c r="B12" s="4">
-        <f>('EIA Costs'!F6*1000)*(About!$A$71)</f>
-        <v>16155.681</v>
+        <f>('EIA Costs'!F6*1000)*(About!$A$63)</f>
+        <v>16484.829000000002</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!F7*1000*About!$A$71</f>
-        <v>6281.241</v>
+        <f>'EIA Costs'!F7*1000*About!$A$63</f>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="4">
-        <f>(B2*'Coal Cost Multipliers'!$B$35)*(About!$A$71)</f>
-        <v>28090.733767999998</v>
+        <f>B2*'Coal Cost Multipliers'!$B$35</f>
+        <v>30723.759999999998</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$35</f>
@@ -10798,71 +10781,71 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>69710.2</v>
+        <v>71110.319999999992</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" s="4">
-        <f>('EIA Costs'!F13*1000)*(About!$A$71)</f>
-        <v>71827.407999999996</v>
+        <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
+        <v>73272.001999999993</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!F13*1000*About!$A$71</f>
-        <v>71827.407999999996</v>
+        <f>'EIA Costs'!F13*1000*About!$A$63</f>
+        <v>73272.001999999993</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
-        <v>14771.139138300001</v>
+        <v>15072.079154700001</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
       </c>
       <c r="D15" s="4">
         <f>D11</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
-        <v>14771.139138300001</v>
+        <v>15072.079154700001</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
       </c>
       <c r="D16" s="4">
         <f>D11</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B17" s="4">
-        <f>('EIA Costs'!F16*1000)*(About!$A$71)</f>
-        <v>381281.386</v>
+        <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
+        <v>388924.93400000001</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!F16*1000*About!$A$71</f>
-        <v>381281.386</v>
+        <f>'EIA Costs'!F16*1000*About!$A$63</f>
+        <v>388924.93400000001</v>
       </c>
     </row>
   </sheetData>
@@ -10878,7 +10861,9 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -10892,13 +10877,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10906,15 +10891,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="16">
-        <f>'EIA Costs'!E2*About!$A$63</f>
+        <f>'EIA Costs'!E2*About!$A$61</f>
         <v>4.4074200000000001</v>
       </c>
       <c r="C2" s="23">
         <v>0</v>
       </c>
       <c r="D2" s="16">
-        <f>'EIA Costs'!E3*About!$A$63</f>
-        <v>7.0696199999999996</v>
+        <f>'EIA Costs'!E3*About!$A$61</f>
+        <v>7.2076599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10922,15 +10907,15 @@
         <v>33</v>
       </c>
       <c r="B3" s="16">
-        <f>'EIA Costs'!E4*About!$A$71</f>
-        <v>3.2366220000000001</v>
+        <f>'EIA Costs'!E4*About!$A$63</f>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C3" s="23">
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <f>'EIA Costs'!E5*About!$A$71</f>
-        <v>1.846886</v>
+        <f>'EIA Costs'!E5*About!$A$63</f>
+        <v>1.8834580000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10938,15 +10923,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="16">
-        <f>'EIA Costs'!E8*About!$A$71</f>
-        <v>2.1211759999999997</v>
+        <f>'EIA Costs'!E8*About!$A$63</f>
+        <v>2.1668910000000001</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <f>'EIA Costs'!E8*About!$A$71</f>
-        <v>2.1211759999999997</v>
+        <f>'EIA Costs'!E8*About!$A$63</f>
+        <v>2.1668910000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10954,30 +10939,30 @@
         <v>17</v>
       </c>
       <c r="B5" s="16">
-        <f>'EIA Costs'!E11*About!$A$71</f>
-        <v>1.216019</v>
+        <f>'EIA Costs'!E11*About!$A$63</f>
+        <v>1.2434480000000001</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <f>'EIA Costs'!E11*About!$A$71</f>
-        <v>1.216019</v>
+        <f>'EIA Costs'!E11*About!$A$63</f>
+        <v>1.2434480000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!E12*About!$A$71</f>
+        <f>'EIA Costs'!E12*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!E12*About!$A$71</f>
+        <f>'EIA Costs'!E12*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -10986,14 +10971,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!E15*About!$A$71</f>
+        <f>'EIA Costs'!E15*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!E15*About!$A$71</f>
+        <f>'EIA Costs'!E15*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11002,14 +10987,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!E14*About!$A$71</f>
+        <f>'EIA Costs'!E14*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!E14*About!$A$71</f>
+        <f>'EIA Costs'!E14*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11018,15 +11003,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="16">
-        <f>'EIA Costs'!E9*About!$A$71</f>
-        <v>5.1017939999999999</v>
+        <f>'EIA Costs'!E9*About!$A$63</f>
+        <v>5.2115100000000005</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>'EIA Costs'!E9*About!$A$71</f>
-        <v>5.1017939999999999</v>
+        <f>'EIA Costs'!E9*About!$A$63</f>
+        <v>5.2115100000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11034,14 +11019,14 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!E10*About!$A$71</f>
+        <f>'EIA Costs'!E10*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!E10*About!$A$71</f>
+        <f>'EIA Costs'!E10*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11051,14 +11036,14 @@
       </c>
       <c r="B11" s="16">
         <f>B12</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="16">
         <f>D12</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11066,20 +11051,20 @@
         <v>36</v>
       </c>
       <c r="B12" s="16">
-        <f>'EIA Costs'!E6*About!$A$71</f>
-        <v>3.2366220000000001</v>
+        <f>'EIA Costs'!E6*About!$A$63</f>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>'EIA Costs'!E7*About!$A$71</f>
-        <v>9.8835829999999998</v>
+        <f>'EIA Costs'!E7*About!$A$63</f>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -11091,12 +11076,12 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>11.976768</v>
+        <v>12.210623999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E13*1000</f>
@@ -11106,56 +11091,56 @@
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <f>'EIA Costs'!E13*1000*About!$A$71</f>
+        <f>'EIA Costs'!E13*1000*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
       </c>
       <c r="D15" s="16">
         <f>D11</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
       </c>
       <c r="D16" s="16">
         <f>D11</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B17" s="16">
-        <f>'EIA Costs'!E16*About!$A$71</f>
-        <v>8.4938469999999988</v>
+        <f>'EIA Costs'!E16*About!$A$63</f>
+        <v>8.6584210000000006</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <f>'EIA Costs'!E16*About!$A$71</f>
-        <v>8.4938469999999988</v>
+        <f>'EIA Costs'!E16*About!$A$63</f>
+        <v>8.6584210000000006</v>
       </c>
     </row>
   </sheetData>
@@ -11170,8 +11155,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11198,7 +11183,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -11210,7 +11195,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -11231,19 +11216,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11251,68 +11236,68 @@
         <v>2018</v>
       </c>
       <c r="B2" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4985710.0141575001</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>5064086.276907078</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1005847.3841146511</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>720796.7716489468</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5398356.8398834039</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5478251.7947959062</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2609904.3307550726</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2654933.7360476032</v>
       </c>
       <c r="F2" s="20">
-        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$71</f>
-        <v>1472023</v>
+        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
+        <v>1344021</v>
       </c>
       <c r="G2" s="20">
-        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$71</f>
-        <v>1106952.27008149</v>
+        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$63</f>
+        <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3705657.1127614691</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3760873.857819173</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3503492.939728946</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3561017.0614915011</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2368974.8458332461</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2404345.5554760592</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>620749.38054688869</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>630790.91464397067</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>620749.38054688869</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>630790.91464397067</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5778150.1329843532</v>
+        <v>5868983.6976608615</v>
       </c>
       <c r="N2" s="20">
-        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B58:B72,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B58:B72)*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*10^3*About!$A$71</f>
+        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
         <v>3030248.6826914768</v>
       </c>
       <c r="O2" s="4">
         <f>K2</f>
-        <v>620749.38054688869</v>
+        <v>630790.91464397067</v>
       </c>
       <c r="P2" s="4">
         <f>K2</f>
-        <v>620749.38054688869</v>
+        <v>630790.91464397067</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7982156.7055278737</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8121858.1440940769</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11320,20 +11305,20 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4953666.0283149993</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>5031538.553814155</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>998650.36822930234</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>715639.34329789365</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5360285.879766807</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5439617.3895918122</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2570167.261510144</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2614511.0720952055</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11342,43 +11327,43 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3545653.8255229369</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3598486.4156383448</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3498816.7794578923</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3556264.1229830021</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2227281.8916664924</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2260537.0109521174</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>619774.76109377737</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>629800.5292879414</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>619774.76109377737</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>629800.5292879414</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5741013.0029604603</v>
+        <v>5831262.7652392657</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>619774.76109377737</v>
+        <v>629800.5292879414</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>619774.76109377737</v>
+        <v>629800.5292879414</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7971502.811055745</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8111017.7881881548</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11386,20 +11371,20 @@
         <v>2020</v>
       </c>
       <c r="B4" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4921622.0424725004</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4998990.830721234</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>991453.35234395368</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>710481.91494684049</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5322214.9196502101</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5400982.9843877172</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2530430.1922652172</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2574088.4081428093</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11408,43 +11393,43 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3385650.5382844037</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3436098.9734575162</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3493165.2083361712</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3550519.7582775778</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2085588.9374997385</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2116728.466428176</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>624214.22900192463</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>634311.81211813237</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>624214.22900192463</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>634311.81211813237</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5703875.8729365692</v>
+        <v>5793541.8328176718</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>624214.22900192463</v>
+        <v>634311.81211813237</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>624214.22900192463</v>
+        <v>634311.81211813237</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7958626.596631432</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8097916.2179177077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11452,20 +11437,20 @@
         <v>2021</v>
       </c>
       <c r="B5" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4889578.0566300014</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4966443.107628312</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>984256.3364586049</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>705324.48659578711</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5284143.9595336132</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5362348.5791836223</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2490693.1230202895</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2533665.7441904116</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11474,43 +11459,43 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3225647.2510458729</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3273711.5312766884</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3532179.7303932798</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3590174.8627922307</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1943895.9833329846</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1972919.9219042347</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>616710.15026315721</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>626686.34387035528</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>616710.15026315721</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>626686.34387035528</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5666738.742912678</v>
+        <v>5755820.900396076</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>616710.15026315721</v>
+        <v>626686.34387035528</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>616710.15026315721</v>
+        <v>626686.34387035528</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>8047515.0385973537</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8188360.3601376666</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11518,20 +11503,20 @@
         <v>2022</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4857534.0707875015</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4933895.38453539</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>977059.320573256</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>700167.05824473395</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5246072.9994170172</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5323714.1739795282</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2450956.0537753622</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2493243.0802380154</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11540,43 +11525,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3036301.351765865</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3081544.2527027735</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3441495.8280658736</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3498002.0144531941</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1802203.0291662314</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1829111.3773802938</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>612109.73017863615</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>622011.50522564363</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>612109.73017863615</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>622011.50522564363</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5629601.6128887851</v>
+        <v>5718099.9679744812</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>612109.73017863615</v>
+        <v>622011.50522564363</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>612109.73017863615</v>
+        <v>622011.50522564363</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7840906.0539358519</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7978135.3637336325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11584,20 +11569,20 @@
         <v>2023</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4825490.0849450026</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4901347.6614424679</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>962255.51768496411</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>689558.55689698691</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5208002.0393004203</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5285079.7687754352</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2411218.9845304345</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2452820.4162856182</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11606,43 +11591,43 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2873999.6430443497</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2916824.1410367326</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3424867.4186540279</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3481100.5819001063</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1660510.0749994777</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1685302.8328563524</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>600044.48430360877</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>609751.08625557902</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>600044.48430360877</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>609751.08625557902</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5592464.482864894</v>
+        <v>5680379.0355528863</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>600044.48430360877</v>
+        <v>609751.08625557902</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>600044.48430360877</v>
+        <v>609751.08625557902</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7803020.8428130085</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7939587.0964106284</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11650,20 +11635,20 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4795743.5958531126</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4871133.5521644214</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>954806.8341589222</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>684220.78187922772</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5172424.1389835458</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5248975.3203206714</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2371481.9152855068</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2412397.752333221</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11672,43 +11657,43 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2696940.2860163674</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2737126.4823311814</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3409766.8424255005</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3465752.0681416341</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1518817.1208327236</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1541494.2883324109</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>594462.88901983364</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>604079.20045986038</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>594462.88901983364</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>604079.20045986038</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5557990.0189642562</v>
+        <v>5645362.6268473649</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>594462.88901983364</v>
+        <v>604079.20045986038</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>594462.88901983364</v>
+        <v>604079.20045986038</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7768616.5588959409</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7904580.6784922676</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11716,20 +11701,20 @@
         <v>2025</v>
       </c>
       <c r="B9" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4785754.0578712663</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4860986.9768395703</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>951088.03781556</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>681555.86825411068</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5158151.5558288814</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5234491.5048556123</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2331744.84604058</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2371975.0883808243</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11738,43 +11723,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2519880.9289883869</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2557428.8236256307</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3407990.6624235231</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3463946.7249027211</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1377124.1666659696</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1397685.7438084695</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>591147.174835179</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>600709.84972221882</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>591147.174835179</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>600709.84972221882</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5546412.7210359061</v>
+        <v>5633603.3317026133</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>591147.174835179</v>
+        <v>600709.84972221882</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>591147.174835179</v>
+        <v>600709.84972221882</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7764569.8125896389</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7900463.1071819756</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11782,20 +11767,20 @@
         <v>2026</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4773854.0931798108</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4848899.9425518662</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>947292.81476675125</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678836.18675523507</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5141803.8791503608</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5217901.8847617349</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2292007.7767956513</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2331552.4244284267</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11804,43 +11789,43 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2342821.5719604054</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2377731.1649200805</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3404946.6430044817</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3460852.7254932183</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1235431.2124992157</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1253877.1992845279</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>587865.47395385115</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>597375.06250310456</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>587865.47395385115</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>597375.06250310456</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5532621.3488202756</v>
+        <v>5619595.1566225216</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>587865.47395385115</v>
+        <v>597375.06250310456</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>587865.47395385115</v>
+        <v>597375.06250310456</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7757634.4939132584</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7893406.4085287629</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11848,20 +11833,20 @@
         <v>2027</v>
       </c>
       <c r="B11" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4759440.3869223613</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4834259.650226308</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>943292.75212360208</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>675969.71587196749</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5122735.8674070584</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5198551.6690101232</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2252270.7075507245</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2291129.7604760304</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -11870,43 +11855,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2165762.214932424</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2198033.5062145297</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3400221.1276298021</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3456049.6215158268</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1093738.2583324621</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1110068.654760587</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>584536.34264332184</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>593992.07759784628</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>584536.34264332184</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>593992.07759784628</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5515916.6952219354</v>
+        <v>5602627.9028497105</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>584536.34264332184</v>
+        <v>593992.07759784628</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>584536.34264332184</v>
+        <v>593992.07759784628</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7746868.1516131693</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7882451.6367649436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11914,20 +11899,20 @@
         <v>2028</v>
       </c>
       <c r="B12" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4740084.4459310938</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4814599.4303434519</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>939870.27435769746</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>673517.14606499264</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5098341.7514725374</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5173796.5234418577</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2212533.6383057963</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2250707.0965236328</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -11936,43 +11921,43 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1988702.8579044417</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2018335.8475089783</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3392158.9126619366</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3447855.0324163544</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>952045.3041657079</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>966260.11023664533</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>581998.08274038043</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>591412.75760823954</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>581998.08274038043</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>591412.75760823954</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5493484.2768311454</v>
+        <v>5579842.8427864406</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>581998.08274038043</v>
+        <v>591412.75760823954</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>581998.08274038043</v>
+        <v>591412.75760823954</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7728499.6649701986</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7863761.6700880704</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11980,20 +11965,20 @@
         <v>2029</v>
       </c>
       <c r="B13" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4710915.8444493385</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4784972.2931732424</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>934527.42318819102</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>669688.42419803585</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5063396.6793669248</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5138334.26897074</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2172796.569060869</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2210284.4325712356</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -12002,43 +11987,43 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1811643.5008764607</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1838638.1888034281</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3377434.3102844721</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3432888.6656527086</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>810352.34999895387</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>822451.56571270374</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>578278.05716929329</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>587632.55515291414</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>578278.05716929329</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>587632.55515291414</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>5459679.5513151847</v>
+        <v>5545506.700874079</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>578278.05716929329</v>
+        <v>587632.55515291414</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>578278.05716929329</v>
+        <v>587632.55515291414</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7694951.9782399936</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7829626.8412771393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -12046,20 +12031,20 @@
         <v>2030</v>
       </c>
       <c r="B14" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4689417.1097476929</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4763135.5944755012</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>931495.52585967071</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>667515.74687055824</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5036700.6083497163</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5111243.09969428</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2133059.4998159413</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2169861.7686188393</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12068,43 +12053,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1634584.1438484804</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1658940.5300978783</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3367913.89836699</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3423211.9373550331</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>576209.76721946476</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>585530.80757154443</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>576209.76721946476</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>585530.80757154443</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>5434763.7586953649</v>
+        <v>5520199.2274899473</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>576209.76721946476</v>
+        <v>585530.80757154443</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>576209.76721946476</v>
+        <v>585530.80757154443</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7673261.2195788976</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7807556.4571212865</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12112,20 +12097,20 @@
         <v>2031</v>
       </c>
       <c r="B15" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4668043.9835290164</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4741426.478848788</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>928683.16945564619</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>665500.39399619412</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5010138.1882432802</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5084287.5593440877</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2093322.4305710143</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2129439.1046664426</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12134,43 +12119,43 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1618330.0392752115</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1642444.2286021602</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3358479.5322181419</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3413622.6676181271</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>574331.56907527894</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>583622.22681032016</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>574331.56907527894</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>583622.22681032016</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>5409993.5390572287</v>
+        <v>5495039.6155210864</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>574331.56907527894</v>
+        <v>583622.22681032016</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>574331.56907527894</v>
+        <v>583622.22681032016</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7651766.5026455559</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7785685.5457598045</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -12178,20 +12163,20 @@
         <v>2032</v>
       </c>
       <c r="B16" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4644118.4018394854</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4717124.7826897809</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>924875.02500060399</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>662771.45293364581</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4980837.45393827</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5054553.1781136096</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2053585.3613260863</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2089016.440714045</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12200,43 +12185,43 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1602075.9347019426</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1625947.9271064417</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3347303.5272370684</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3402263.1629461991</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>571701.18391958985</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>580949.29130652454</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>571701.18391958985</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>580949.29130652454</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>5382265.1708552018</v>
+        <v>5466875.3523581317</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>571701.18391958985</v>
+        <v>580949.29130652454</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>571701.18391958985</v>
+        <v>580949.29130652454</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7626303.7360194027</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7759777.1370272925</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -12244,20 +12229,20 @@
         <v>2033</v>
       </c>
       <c r="B17" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4622141.6806001225</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4694802.583419539</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>921881.07696823147</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>660625.97031838971</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4953629.0247932514</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5026942.0678779799</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2013848.2920811588</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2048593.776761648</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12266,43 +12251,43 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1585821.8301286742</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1609451.6256107236</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3337455.8838543813</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3392253.8303445629</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>569693.58845712245</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>578909.22003510536</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>569693.58845712245</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>578909.22003510536</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>5356795.4194273818</v>
+        <v>5441005.2118333932</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>569693.58845712245</v>
+        <v>578909.22003510536</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
-        <v>569693.58845712245</v>
+        <v>578909.22003510536</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7603867.4320185054</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7736948.159208945</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -12310,20 +12295,20 @@
         <v>2034</v>
       </c>
       <c r="B18" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4603798.572613379</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4676171.118459139</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>919299.76255436498</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>658776.18363552867</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4930311.8943135142</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5003279.8470043289</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1974111.2228362313</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2008171.1128092513</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12332,43 +12317,43 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1569567.7255554048</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1592955.3241150051</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3330096.910947775</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3384774.0298921876</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>567853.20501669892</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>577039.06568608666</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>567853.20501669892</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>577039.06568608666</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>5335536.8160284711</v>
+        <v>5419412.4193458781</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>567853.20501669892</v>
+        <v>577039.06568608666</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
-        <v>567853.20501669892</v>
+        <v>577039.06568608666</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7587101.1716198716</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7719888.4604848735</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -12376,20 +12361,20 @@
         <v>2035</v>
       </c>
       <c r="B19" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4579661.1455324804</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4651654.2466609143</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>915956.5050238847</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>656380.38356404728</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4900788.8378168615</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4973319.8532436835</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1934374.1535913039</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1967748.4488568543</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12398,43 +12383,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1553313.6209821361</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1576459.022619287</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3318770.1203640644</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3373261.2638571416</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>565652.8865517024</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>574803.15383415646</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>565652.8865517024</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>574803.15383415646</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>5307562.9312454909</v>
+        <v>5390998.7800369319</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>565652.8865517024</v>
+        <v>574803.15383415646</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>565652.8865517024</v>
+        <v>574803.15383415646</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7561294.8637536224</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7693630.4979510959</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -12442,20 +12427,20 @@
         <v>2036</v>
       </c>
       <c r="B20" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4557484.8966593873</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4629129.3831464667</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>912768.10522760358</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>654095.55555118888</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4873366.1588526061</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4945491.3223203206</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1923963.4938358904</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1957158.1710932388</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12464,43 +12449,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1537059.5164088674</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1559962.7211235689</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3308785.9377765385</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3363113.1502028932</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>563481.86641461716</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>572597.01425367699</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>563481.86641461716</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>572597.01425367699</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>5281861.9388068421</v>
+        <v>5364893.7633508667</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>563481.86641461716</v>
+        <v>572597.01425367699</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>563481.86641461716</v>
+        <v>572597.01425367699</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7538547.4766855622</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7670484.9925781367</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -12508,20 +12493,20 @@
         <v>2037</v>
       </c>
       <c r="B21" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4534216.6517228428</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4605495.3571930388</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>909855.63339430257</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>652008.45930963557</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4844777.6541888779</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4916479.7116339877</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1913552.8340804782</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1946567.8933296236</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12530,43 +12515,43 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1520805.4118355988</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1543466.4196278511</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3298049.4508532588</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3352200.3800697704</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>561620.3608197727</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>570705.39606832794</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>561620.3608197727</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>570705.39606832794</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>5254895.3859602809</v>
+        <v>5337503.2914184891</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>561620.3608197727</v>
+        <v>570705.39606832794</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>561620.3608197727</v>
+        <v>570705.39606832794</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7514086.0827102391</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7645595.4822360529</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -12574,20 +12559,20 @@
         <v>2038</v>
       </c>
       <c r="B22" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4513443.5979165575</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4584395.747225523</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>907915.01403126901</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>650617.79886356287</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4818856.7425043611</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4890175.1739440486</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1903142.1743250648</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1935977.615566008</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12596,43 +12581,43 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1504551.3072623296</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1526970.1181321328</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3289031.0086167539</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3343033.8633321188</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>560491.22277389863</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>569557.99255406461</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>560491.22277389863</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>569557.99255406461</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>5230820.6156121381</v>
+        <v>5313050.0613281867</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="0"/>
-        <v>560491.22277389863</v>
+        <v>569557.99255406461</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>560491.22277389863</v>
+        <v>569557.99255406461</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7493538.9828844583</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7624688.7729074871</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -12640,20 +12625,20 @@
         <v>2039</v>
       </c>
       <c r="B23" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4490266.595770387</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4560854.3984156279</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>905490.46527050633</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>648880.35146640975</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4790367.6619898453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4861264.4588709604</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1892731.5145696511</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1925387.3378023915</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12662,43 +12647,43 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1488297.2026890602</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1510473.8166364138</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3278353.1707259226</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3332180.7051944486</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>559063.31435958087</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>568106.98562128015</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>559063.31435958087</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>568106.98562128015</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>5203959.8078931188</v>
+        <v>5285766.9968558718</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>559063.31435958087</v>
+        <v>568106.98562128015</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>559063.31435958087</v>
+        <v>568106.98562128015</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7469211.21148971</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7599935.2237704154</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -12706,20 +12691,20 @@
         <v>2040</v>
       </c>
       <c r="B24" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4467659.2763680127</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4537891.6878652498</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>903179.7506580886</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>647224.47835967725</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4762488.2609135453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4832972.4464097433</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1882320.8548142386</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1914797.0600387768</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12728,43 +12713,43 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1472043.098115792</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1493977.515140696</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3268066.8469631197</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3321725.4894855786</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>557705.69637035497</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>566727.40616458142</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>557705.69637035497</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>566727.40616458142</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>5177759.2295922721</v>
+        <v>5259154.5407275399</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="0"/>
-        <v>557705.69637035497</v>
+        <v>566727.40616458142</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>557705.69637035497</v>
+        <v>566727.40616458142</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7445775.4433545973</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7576089.2894805698</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -12772,20 +12757,20 @@
         <v>2041</v>
       </c>
       <c r="B25" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4449648.4332275633</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4519597.7110145967</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>901799.90971782035</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>646235.67537540558</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4739505.9045875743</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4809649.9543022905</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1871910.1950588252</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1904206.782275161</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12794,43 +12779,43 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1455788.9935425231</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1477481.2136449779</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3260965.2553579621</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3314507.2962981635</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>556922.89340897254</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>565931.94021411764</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>556922.89340897254</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>565931.94021411764</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>5156885.7019720068</v>
+        <v>5237952.8774795271</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>556922.89340897254</v>
+        <v>565931.94021411764</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>556922.89340897254</v>
+        <v>565931.94021411764</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7429595.5857021902</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7559626.2565569635</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -12838,20 +12823,20 @@
         <v>2042</v>
       </c>
       <c r="B26" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4421609.6841190895</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4491118.1877012318</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>898386.45623839565</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>643789.57243076363</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4705845.3936161082</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4775491.2722972743</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1861499.5353034122</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1893616.5045115454</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -12860,43 +12845,43 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1439534.888969254</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1460984.9121492596</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3246909.0993724768</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3300220.3511995459</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554884.21025692218</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563860.27836401947</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554884.21025692218</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563860.27836401947</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>5124390.4101419989</v>
+        <v>5204946.7537873816</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
-        <v>554884.21025692218</v>
+        <v>563860.27836401947</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>554884.21025692218</v>
+        <v>563860.27836401947</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7397570.8487657513</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7527041.0317743495</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -12904,20 +12889,20 @@
         <v>2043</v>
       </c>
       <c r="B27" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4405889.3576820614</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4475150.7348906612</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>897475.85991610389</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>643137.03318897693</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4685294.6223583268</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4754636.3523898665</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1851088.8755479991</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1883026.2267479296</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12926,43 +12911,43 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1423280.7843959855</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1444488.6106535415</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3241407.783956822</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3294628.709260257</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554391.38046651601</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563359.47632700379</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554391.38046651601</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563359.47632700379</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>5106171.459173183</v>
+        <v>5186441.3976156767</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>554391.38046651601</v>
+        <v>563359.47632700379</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>554391.38046651601</v>
+        <v>563359.47632700379</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7385036.9682956832</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7514287.7868897393</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -12970,20 +12955,20 @@
         <v>2044</v>
       </c>
       <c r="B28" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4378824.4001157461</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4447660.3112985436</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>894254.85631226201</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>640828.84107575472</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4652678.500656059</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4721537.5164747164</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1840678.2157925859</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1872435.9489843145</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -12992,43 +12977,43 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1407026.6798227169</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1427992.3091578234</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3228014.3421793631</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3281015.3595255446</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>552471.36324781028</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>561408.40000623069</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>552471.36324781028</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>561408.40000623069</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>5074804.7355336314</v>
+        <v>5154581.5834099697</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="0"/>
-        <v>552471.36324781028</v>
+        <v>561408.40000623069</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>552471.36324781028</v>
+        <v>561408.40000623069</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7354522.1212749518</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7483238.8776871078</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -13036,20 +13021,20 @@
         <v>2045</v>
       </c>
       <c r="B29" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4362106.3510442022</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4430679.4514732715</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>893146.79079662124</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>640034.79412682063</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4631056.6298666513</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4699595.644906722</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1830267.5560371724</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1861845.6712206989</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13058,43 +13043,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1390772.5752494477</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1411496.0076621051</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3221832.2607411454</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3274731.7740136739</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>551856.68438044505</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>560783.77780424629</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>551856.68438044505</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>560783.77780424629</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>5055429.4816196105</v>
+        <v>5134901.7470017215</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>551856.68438044505</v>
+        <v>560783.77780424629</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>551856.68438044505</v>
+        <v>560783.77780424629</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7340437.2226737272</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7468907.4691927256</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -13102,20 +13087,20 @@
         <v>2046</v>
       </c>
       <c r="B30" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4336769.959802771</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4404944.7675811611</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>890275.17907585343</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>637976.97850742575</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4600284.9973030258</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4668368.5963213015</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1819856.8962817597</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1851255.3934570833</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13124,43 +13109,43 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1374518.470676179</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1394999.7061663871</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3209635.4861874729</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3262334.739674523</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>550152.42239255458</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>559051.94687243411</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>550152.42239255458</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>559051.94687243411</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>5026066.0665783612</v>
+        <v>5105076.7337676473</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="0"/>
-        <v>550152.42239255458</v>
+        <v>559051.94687243411</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>550152.42239255458</v>
+        <v>559051.94687243411</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7312648.7933935076</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7440632.6947191991</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -13168,20 +13153,20 @@
         <v>2047</v>
       </c>
       <c r="B31" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4315481.4844746375</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4383321.6335722934</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>888232.92473174375</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>636513.4857734699</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4573809.735484709</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4641501.5041901665</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1809446.2365263463</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1840665.1156934679</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13190,43 +13175,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1358264.3661029099</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1378503.4046706685</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3200266.2664250759</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3252811.6859676302</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>548960.60343798099</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>557840.84849359537</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>548960.60343798099</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>557840.84849359537</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>5001393.9524363447</v>
+        <v>5080016.7695310405</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="0"/>
-        <v>548960.60343798099</v>
+        <v>557840.84849359537</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>548960.60343798099</v>
+        <v>557840.84849359537</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7291302.5022382103</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7418912.8068415569</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -13234,20 +13219,20 @@
         <v>2048</v>
       </c>
       <c r="B32" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4294121.837076081</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4361626.2086551897</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>886176.35560993128</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>635039.73497679201</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4547256.0722374143</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4614554.8502994552</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1799035.5767709336</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1830074.8379298523</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13256,43 +13241,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1342010.261529641</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1362007.1031749502</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3190847.9381775381</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3243238.7174595776</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>547759.99001111533</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>556620.81337894208</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>547759.99001111533</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>556620.81337894208</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>4976639.3539727349</v>
+        <v>5054873.0243043946</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="0"/>
-        <v>547759.99001111533</v>
+        <v>556620.81337894208</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>547759.99001111533</v>
+        <v>556620.81337894208</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7269844.3251363151</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7397079.0748212673</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -13300,20 +13285,20 @@
         <v>2049</v>
       </c>
       <c r="B33" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4272377.1143856384</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4339539.6549929967</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>884040.8418737516</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>633509.41195646103</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4520295.1836425504</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4587194.9441808192</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1788624.9170155204</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1819484.5601662367</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13322,43 +13307,43 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1325756.1569563723</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1345510.8016792322</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3181160.2441755827</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3233391.9604599359</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>546510.49006492062</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>555351.1009336178</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>546510.49006492062</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>555351.1009336178</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>4951438.4754722388</v>
+        <v>5029275.9834380029</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>546510.49006492062</v>
+        <v>555351.1009336178</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>546510.49006492062</v>
+        <v>555351.1009336178</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7247772.4406001931</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7374620.8944336222</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -13366,20 +13351,20 @@
         <v>2050</v>
       </c>
       <c r="B34" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4217869.8575414019</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4284175.5342172347</v>
       </c>
       <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>875107.94943165942</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>627108.04318478121</v>
       </c>
       <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4458701.0732432539</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4524689.2492347453</v>
       </c>
       <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1778214.2572601077</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1808894.2824026213</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -13388,43 +13373,43 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1309502.0523831041</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1329014.5001835146</v>
       </c>
       <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3148388.0289021889</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3200081.6556472601</v>
       </c>
       <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>541058.41525406053</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>549810.83079493511</v>
       </c>
       <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>541058.41525406053</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>549810.83079493511</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4888267.7109294161</v>
+        <v>4965112.1630564258</v>
       </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="0"/>
-        <v>541058.41525406053</v>
+        <v>549810.83079493511</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>
-        <v>541058.41525406053</v>
+        <v>549810.83079493511</v>
       </c>
       <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7173106.1111970115</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7298647.7761493279</v>
       </c>
     </row>
     <row r="35" spans="1:17">

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2D992-1D13-4349-8BC3-A9A14BCC5D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -21,12 +22,22 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -154,15 +165,6 @@
     <t>Model Subscript</t>
   </si>
   <si>
-    <t>Variable O&amp;M (2013 $/MWh)</t>
-  </si>
-  <si>
-    <t>Tot 2014 Capital Cost (2013 $/kW)</t>
-  </si>
-  <si>
-    <t>Fixed O&amp;M (2013 $/kW/yr)</t>
-  </si>
-  <si>
     <t>Scrubbed Coal</t>
   </si>
   <si>
@@ -172,15 +174,9 @@
     <t>Conventional Gas/Oil Combined Cycle</t>
   </si>
   <si>
-    <t>Advanced Gas/Oil Combined Cycle</t>
-  </si>
-  <si>
     <t>Conventional Combustion Turbine</t>
   </si>
   <si>
-    <t>Advanced Combustion Turbine</t>
-  </si>
-  <si>
     <t>Advanced Nuclear</t>
   </si>
   <si>
@@ -196,12 +192,6 @@
     <t>https://www.eia.gov/forecasts/aeo/assumptions/pdf/electricity.pdf</t>
   </si>
   <si>
-    <t>wind and solar PV capital costs.</t>
-  </si>
-  <si>
-    <t>We do not use the values in red because they exceed real-world observed costs.  We use other sources for</t>
-  </si>
-  <si>
     <t>Our EIA source uses 2013 dollars.</t>
   </si>
   <si>
@@ -236,9 +226,6 @@
   </si>
   <si>
     <t>http://brattle.com/system/publications/pdfs/000/005/188/original/Comparative_Generation_Costs_of_Utility-Scale_and_Residential-Scale_PV_in_Xcel_Energy_Colorado's_Service_Area.pdf?1436797265</t>
-  </si>
-  <si>
-    <t>This document is included as Appendix B of a report by Brattle Group.  It is on Page 10 of the EnerNex report, which is Page 70 of the PDF</t>
   </si>
   <si>
     <t>For coal, we use values for a coal plant that features carbon capture and sequestration (CCS),</t>
@@ -736,103 +723,94 @@
     <t>AEO 2019</t>
   </si>
   <si>
+    <t>Assumptions to Annual Energy Outlook 2015, 2019</t>
+  </si>
+  <si>
+    <t>2018 Wind Technologies Market Report</t>
+  </si>
+  <si>
+    <t>Page x, Cost Trends, bullet point 2</t>
+  </si>
+  <si>
+    <t>https://emp.lbl.gov/sites/default/files/wtmr_final_for_posting_8-9-19.pdf</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline (ATB) Spreadsheet - 2019 Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SEIA and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
+  </si>
+  <si>
+    <t>so we assume they are 2018 dollars.</t>
+  </si>
+  <si>
+    <t>Berkeley National Lab and Solar Energy Industries Association.)</t>
+  </si>
+  <si>
+    <t>cause them to decline at the same rate as costs declined in projections in the NREL</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline.</t>
+  </si>
+  <si>
+    <t>https://atb.nrel.gov/electricity/2019/data.html</t>
+  </si>
+  <si>
+    <t>NREL Overnight Capital Costs</t>
+  </si>
+  <si>
+    <t>Fraction of Start Year Costs</t>
+  </si>
+  <si>
+    <t>Potential Offshore Wind Plant Capacity (NREL Offshore Wind Tab)</t>
+  </si>
+  <si>
+    <t>2018 Onshore Wind Capital Cost</t>
+  </si>
+  <si>
+    <t>2018 Solar Capital Cost, Cost Imrpovement Rates, and Offshore Wind Costs</t>
+  </si>
+  <si>
+    <t>Overnight Capital Cost ($/kW)</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M ($/kW-yr)</t>
+  </si>
+  <si>
     <t>AEO 2020</t>
   </si>
   <si>
-    <t>AEO 2021</t>
-  </si>
-  <si>
-    <t>AEO 2022</t>
-  </si>
-  <si>
-    <t>AEO 2023</t>
-  </si>
-  <si>
-    <t>AEO 2024</t>
-  </si>
-  <si>
-    <t>AEO 2025</t>
-  </si>
-  <si>
-    <t>AEO 2026</t>
-  </si>
-  <si>
-    <t>AEO 2027</t>
-  </si>
-  <si>
-    <t>AEO 2028</t>
-  </si>
-  <si>
-    <t>AEO 2029</t>
-  </si>
-  <si>
-    <t>AEO 2030</t>
-  </si>
-  <si>
-    <t>AEO 2031</t>
-  </si>
-  <si>
-    <t>AEO 2032</t>
-  </si>
-  <si>
-    <t>2015, 2019</t>
-  </si>
-  <si>
-    <t>Assumptions to Annual Energy Outlook 2015, 2019</t>
-  </si>
-  <si>
-    <t>Electricity Market Module, Table 2</t>
-  </si>
-  <si>
-    <t>2018 Wind Technologies Market Report</t>
-  </si>
-  <si>
-    <t>Page x, Cost Trends, bullet point 2</t>
-  </si>
-  <si>
-    <t>https://emp.lbl.gov/sites/default/files/wtmr_final_for_posting_8-9-19.pdf</t>
-  </si>
-  <si>
-    <t>Annual Technology Baseline (ATB) Spreadsheet - 2019 Final</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The SEIA and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
-  </si>
-  <si>
-    <t>so we assume they are 2018 dollars.</t>
-  </si>
-  <si>
-    <t>Berkeley National Lab and Solar Energy Industries Association.)</t>
-  </si>
-  <si>
-    <t>cause them to decline at the same rate as costs declined in projections in the NREL</t>
-  </si>
-  <si>
-    <t>Annual Technology Baseline.</t>
-  </si>
-  <si>
-    <t>https://atb.nrel.gov/electricity/2019/data.html</t>
-  </si>
-  <si>
-    <t>NREL Overnight Capital Costs</t>
-  </si>
-  <si>
-    <t>Fraction of Start Year Costs</t>
-  </si>
-  <si>
-    <t>Potential Offshore Wind Plant Capacity (NREL Offshore Wind Tab)</t>
-  </si>
-  <si>
-    <t>2018 Onshore Wind Capital Cost</t>
-  </si>
-  <si>
-    <t>2018 Solar Capital Cost, Cost Imrpovement Rates, and Offshore Wind Costs</t>
+    <t>Combined Cycle - Single Shaft</t>
+  </si>
+  <si>
+    <t>Conbustion turbine - industrial frame</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Intentionally keeping older-year source for preexisting retiring plants</t>
+  </si>
+  <si>
+    <t>We do not use the values in red because they exceed real-world observed costs.</t>
+  </si>
+  <si>
+    <t>We use other sources for wind and solar PV capital costs.</t>
+  </si>
+  <si>
+    <t>2015, 2019, 2020</t>
+  </si>
+  <si>
+    <t>Electricity Market Module, Table 2 (AEO 2015, 2019) or Table 3 (AEO 2020)</t>
+  </si>
+  <si>
+    <t>This document is included as Appendix B of a report by Brattle Group.  It is on page 10 of the EnerNex report, which is page 70 of the PDF.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1588,7 +1566,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1723,6 +1701,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1747,239 +1743,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="228">
-    <cellStyle name="20% - Accent1 2" xfId="16"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="17"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="151"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="162"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="184"/>
-    <cellStyle name="20% - Accent2 2" xfId="18"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="19"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="152"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="163"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="185"/>
-    <cellStyle name="20% - Accent3 2" xfId="20"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="21"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="153"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="164"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="186"/>
-    <cellStyle name="20% - Accent4 2" xfId="22"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="23"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="154"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="165"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="187"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculated" xfId="24"/>
-    <cellStyle name="Comma 10" xfId="25"/>
-    <cellStyle name="Comma 10 2" xfId="155"/>
-    <cellStyle name="Comma 10 2 2" xfId="177"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="221"/>
-    <cellStyle name="Comma 10 2 3" xfId="199"/>
-    <cellStyle name="Comma 10 3" xfId="166"/>
-    <cellStyle name="Comma 10 3 2" xfId="210"/>
-    <cellStyle name="Comma 10 4" xfId="188"/>
-    <cellStyle name="Comma 11" xfId="26"/>
-    <cellStyle name="Comma 2" xfId="27"/>
-    <cellStyle name="Comma 2 2" xfId="28"/>
-    <cellStyle name="Comma 2 2 2" xfId="156"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="178"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="222"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="200"/>
-    <cellStyle name="Comma 2 2 3" xfId="167"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="211"/>
-    <cellStyle name="Comma 2 2 4" xfId="189"/>
-    <cellStyle name="Comma 3" xfId="29"/>
-    <cellStyle name="Comma 3 2" xfId="30"/>
-    <cellStyle name="Comma 3 2 2" xfId="157"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="179"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="223"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="201"/>
-    <cellStyle name="Comma 3 2 3" xfId="168"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="212"/>
-    <cellStyle name="Comma 3 2 4" xfId="190"/>
-    <cellStyle name="Comma 4" xfId="31"/>
-    <cellStyle name="Comma 5" xfId="32"/>
-    <cellStyle name="Comma 6" xfId="33"/>
-    <cellStyle name="Comma 7" xfId="34"/>
-    <cellStyle name="Comma 8" xfId="35"/>
-    <cellStyle name="Comma 9" xfId="36"/>
-    <cellStyle name="Currency 2" xfId="37"/>
-    <cellStyle name="Currency 3" xfId="38"/>
-    <cellStyle name="Currency 4" xfId="39"/>
-    <cellStyle name="Currency 5" xfId="40"/>
-    <cellStyle name="Currency 6" xfId="41"/>
-    <cellStyle name="Currency 7" xfId="42"/>
-    <cellStyle name="Currency 8" xfId="43"/>
-    <cellStyle name="Currency 8 2" xfId="158"/>
-    <cellStyle name="Currency 8 2 2" xfId="180"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="224"/>
-    <cellStyle name="Currency 8 2 3" xfId="202"/>
-    <cellStyle name="Currency 8 3" xfId="169"/>
-    <cellStyle name="Currency 8 3 2" xfId="213"/>
-    <cellStyle name="Currency 8 4" xfId="191"/>
+    <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Calculated" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 10" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Comma 10 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Comma 10 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Comma 10 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Comma 10 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Comma 10 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Comma 10 4" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Comma 11" xfId="26" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Comma 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Comma 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Comma 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Comma 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Comma 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Comma 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Comma 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Comma 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Currency 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Currency 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Currency 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Currency 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Currency 6" xfId="41" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Currency 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Currency 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Currency 8 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Currency 8 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Currency 8 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Currency 8 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Currency 8 3 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Currency 8 4" xfId="191" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
-    <cellStyle name="Heading" xfId="44"/>
-    <cellStyle name="Heading 2 2" xfId="45"/>
-    <cellStyle name="Heading2" xfId="46"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Heading 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Heading2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 10" xfId="47"/>
-    <cellStyle name="Hyperlink 10 2" xfId="48"/>
-    <cellStyle name="Hyperlink 10 3" xfId="49"/>
-    <cellStyle name="Hyperlink 11" xfId="50"/>
-    <cellStyle name="Hyperlink 11 2" xfId="51"/>
-    <cellStyle name="Hyperlink 11 3" xfId="52"/>
-    <cellStyle name="Hyperlink 12" xfId="53"/>
-    <cellStyle name="Hyperlink 12 2" xfId="54"/>
-    <cellStyle name="Hyperlink 12 3" xfId="55"/>
-    <cellStyle name="Hyperlink 13" xfId="56"/>
-    <cellStyle name="Hyperlink 13 2" xfId="57"/>
-    <cellStyle name="Hyperlink 13 3" xfId="58"/>
-    <cellStyle name="Hyperlink 14" xfId="59"/>
-    <cellStyle name="Hyperlink 14 2" xfId="60"/>
-    <cellStyle name="Hyperlink 14 3" xfId="61"/>
-    <cellStyle name="Hyperlink 15" xfId="62"/>
-    <cellStyle name="Hyperlink 15 2" xfId="63"/>
-    <cellStyle name="Hyperlink 15 3" xfId="64"/>
-    <cellStyle name="Hyperlink 16" xfId="65"/>
-    <cellStyle name="Hyperlink 16 2" xfId="66"/>
-    <cellStyle name="Hyperlink 16 3" xfId="67"/>
-    <cellStyle name="Hyperlink 17" xfId="68"/>
-    <cellStyle name="Hyperlink 17 2" xfId="69"/>
-    <cellStyle name="Hyperlink 17 3" xfId="70"/>
-    <cellStyle name="Hyperlink 18" xfId="71"/>
-    <cellStyle name="Hyperlink 18 2" xfId="72"/>
-    <cellStyle name="Hyperlink 18 3" xfId="73"/>
-    <cellStyle name="Hyperlink 19" xfId="74"/>
-    <cellStyle name="Hyperlink 19 2" xfId="75"/>
-    <cellStyle name="Hyperlink 19 3" xfId="76"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
-    <cellStyle name="Hyperlink 2 2" xfId="78"/>
-    <cellStyle name="Hyperlink 2 3" xfId="79"/>
-    <cellStyle name="Hyperlink 2 4" xfId="77"/>
-    <cellStyle name="Hyperlink 20" xfId="80"/>
-    <cellStyle name="Hyperlink 20 2" xfId="81"/>
-    <cellStyle name="Hyperlink 20 3" xfId="82"/>
-    <cellStyle name="Hyperlink 21" xfId="83"/>
-    <cellStyle name="Hyperlink 21 2" xfId="84"/>
-    <cellStyle name="Hyperlink 21 3" xfId="85"/>
-    <cellStyle name="Hyperlink 22" xfId="86"/>
-    <cellStyle name="Hyperlink 22 2" xfId="87"/>
-    <cellStyle name="Hyperlink 22 3" xfId="88"/>
-    <cellStyle name="Hyperlink 23" xfId="89"/>
-    <cellStyle name="Hyperlink 23 2" xfId="90"/>
-    <cellStyle name="Hyperlink 23 3" xfId="91"/>
-    <cellStyle name="Hyperlink 24" xfId="92"/>
-    <cellStyle name="Hyperlink 25" xfId="93"/>
-    <cellStyle name="Hyperlink 26" xfId="94"/>
-    <cellStyle name="Hyperlink 27" xfId="95"/>
-    <cellStyle name="Hyperlink 28" xfId="96"/>
-    <cellStyle name="Hyperlink 29" xfId="97"/>
-    <cellStyle name="Hyperlink 3" xfId="98"/>
-    <cellStyle name="Hyperlink 3 2" xfId="99"/>
-    <cellStyle name="Hyperlink 3 3" xfId="100"/>
-    <cellStyle name="Hyperlink 30" xfId="101"/>
-    <cellStyle name="Hyperlink 31" xfId="102"/>
-    <cellStyle name="Hyperlink 32" xfId="103"/>
-    <cellStyle name="Hyperlink 33" xfId="104"/>
-    <cellStyle name="Hyperlink 33 2" xfId="105"/>
-    <cellStyle name="Hyperlink 33 3" xfId="106"/>
-    <cellStyle name="Hyperlink 34" xfId="107"/>
-    <cellStyle name="Hyperlink 34 2" xfId="108"/>
-    <cellStyle name="Hyperlink 34 3" xfId="109"/>
-    <cellStyle name="Hyperlink 34 4" xfId="110"/>
-    <cellStyle name="Hyperlink 34 5" xfId="111"/>
-    <cellStyle name="Hyperlink 4" xfId="112"/>
-    <cellStyle name="Hyperlink 4 2" xfId="113"/>
-    <cellStyle name="Hyperlink 4 3" xfId="114"/>
-    <cellStyle name="Hyperlink 5" xfId="115"/>
-    <cellStyle name="Hyperlink 5 2" xfId="116"/>
-    <cellStyle name="Hyperlink 5 3" xfId="117"/>
-    <cellStyle name="Hyperlink 6" xfId="118"/>
-    <cellStyle name="Hyperlink 6 2" xfId="119"/>
-    <cellStyle name="Hyperlink 6 3" xfId="120"/>
-    <cellStyle name="Hyperlink 7" xfId="121"/>
-    <cellStyle name="Hyperlink 7 2" xfId="122"/>
-    <cellStyle name="Hyperlink 7 3" xfId="123"/>
-    <cellStyle name="Hyperlink 8" xfId="124"/>
-    <cellStyle name="Hyperlink 8 2" xfId="125"/>
-    <cellStyle name="Hyperlink 8 3" xfId="126"/>
-    <cellStyle name="Hyperlink 9" xfId="127"/>
-    <cellStyle name="Hyperlink 9 2" xfId="128"/>
-    <cellStyle name="Hyperlink 9 3" xfId="129"/>
-    <cellStyle name="Input 2" xfId="130"/>
-    <cellStyle name="Linked" xfId="131"/>
+    <cellStyle name="Hyperlink 10" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 10 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hyperlink 10 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hyperlink 11" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Hyperlink 11 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Hyperlink 12" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Hyperlink 12 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Hyperlink 12 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Hyperlink 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Hyperlink 13 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Hyperlink 13 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Hyperlink 14" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Hyperlink 14 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Hyperlink 14 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Hyperlink 15" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Hyperlink 15 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Hyperlink 15 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Hyperlink 16" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Hyperlink 16 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Hyperlink 16 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Hyperlink 17" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Hyperlink 17 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Hyperlink 17 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Hyperlink 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Hyperlink 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Hyperlink 18 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Hyperlink 19" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Hyperlink 19 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Hyperlink 19 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Hyperlink 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Hyperlink 20" xfId="80" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Hyperlink 20 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Hyperlink 20 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Hyperlink 21" xfId="83" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Hyperlink 21 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Hyperlink 21 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Hyperlink 22" xfId="86" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Hyperlink 22 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Hyperlink 22 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Hyperlink 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Hyperlink 23 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Hyperlink 23 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Hyperlink 24" xfId="92" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Hyperlink 25" xfId="93" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Hyperlink 26" xfId="94" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Hyperlink 27" xfId="95" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Hyperlink 28" xfId="96" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Hyperlink 29" xfId="97" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Hyperlink 30" xfId="101" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Hyperlink 31" xfId="102" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Hyperlink 32" xfId="103" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Hyperlink 33" xfId="104" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Hyperlink 33 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Hyperlink 33 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Hyperlink 34" xfId="107" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Hyperlink 34 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Hyperlink 34 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Hyperlink 34 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Hyperlink 34 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Hyperlink 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Hyperlink 5 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Hyperlink 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Hyperlink 6 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Hyperlink 6 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Hyperlink 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Hyperlink 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Hyperlink 7 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Hyperlink 8" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Hyperlink 8 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Hyperlink 8 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Hyperlink 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Hyperlink 9 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Hyperlink 9 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Input 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Linked" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="15"/>
-    <cellStyle name="Normal 2 2" xfId="14"/>
-    <cellStyle name="Normal 2 2 2" xfId="132"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="159"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="181"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="203"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="170"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="214"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="192"/>
-    <cellStyle name="Normal 3" xfId="133"/>
-    <cellStyle name="Normal 4" xfId="134"/>
-    <cellStyle name="Normal 5" xfId="135"/>
-    <cellStyle name="Normal 6" xfId="136"/>
-    <cellStyle name="Normal 6 2" xfId="160"/>
-    <cellStyle name="Normal 6 2 2" xfId="182"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="226"/>
-    <cellStyle name="Normal 6 2 3" xfId="204"/>
-    <cellStyle name="Normal 6 3" xfId="171"/>
-    <cellStyle name="Normal 6 3 2" xfId="215"/>
-    <cellStyle name="Normal 6 4" xfId="193"/>
-    <cellStyle name="Normal 7" xfId="137"/>
-    <cellStyle name="Normal 8" xfId="138"/>
-    <cellStyle name="Normal Small" xfId="139"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Percent 2" xfId="140"/>
-    <cellStyle name="Percent 2 2" xfId="141"/>
-    <cellStyle name="Percent 2 3" xfId="142"/>
-    <cellStyle name="Percent 2 4" xfId="161"/>
-    <cellStyle name="Percent 2 4 2" xfId="183"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="227"/>
-    <cellStyle name="Percent 2 4 3" xfId="205"/>
-    <cellStyle name="Percent 2 5" xfId="172"/>
-    <cellStyle name="Percent 2 5 2" xfId="216"/>
-    <cellStyle name="Percent 2 6" xfId="194"/>
-    <cellStyle name="Percent 3" xfId="143"/>
-    <cellStyle name="Percent 3 2" xfId="144"/>
-    <cellStyle name="Results" xfId="145"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
-    <cellStyle name="Title 2" xfId="146"/>
-    <cellStyle name="Title 3" xfId="147"/>
-    <cellStyle name="Unit" xfId="148"/>
-    <cellStyle name="UserInput" xfId="149"/>
-    <cellStyle name="Variable" xfId="150"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 5" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 6" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 6 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 6 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 6 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 6 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 6 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 6 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 7" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 8" xfId="138" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal Small" xfId="139" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Percent 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Percent 2 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Percent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Percent 2 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Percent 2 4 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Percent 2 5" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Percent 2 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Percent 2 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Percent 3" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Percent 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Results" xfId="145" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Title 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Unit" xfId="148" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="UserInput" xfId="149" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Variable" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2030,11 +2023,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2126,6 +2119,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2161,6 +2171,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2336,12 +2363,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -2375,11 +2400,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2393,7 +2418,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2401,26 +2426,26 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2429,18 +2454,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2453,23 +2478,23 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -2481,12 +2506,12 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D20" s="23"/>
     </row>
@@ -2499,21 +2524,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="D24" s="23"/>
     </row>
@@ -2549,7 +2574,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="11"/>
@@ -2562,7 +2587,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2575,7 +2600,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2599,7 +2624,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2612,7 +2637,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2625,7 +2650,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2638,7 +2663,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2651,7 +2676,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2712,7 +2737,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2725,7 +2750,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
@@ -2738,7 +2763,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2751,7 +2776,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2764,7 +2789,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2777,7 +2802,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2801,7 +2826,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2814,7 +2839,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
@@ -2827,7 +2852,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2851,7 +2876,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2864,7 +2889,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
@@ -2901,7 +2926,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2915,7 +2940,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2929,7 +2954,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2971,7 +2996,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2998,7 +3023,9 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="25"/>
+      <c r="A64" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
@@ -3010,8 +3037,8 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="19" t="s">
-        <v>24</v>
+      <c r="A65" s="25">
+        <v>0.89800000000000002</v>
       </c>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -3024,7 +3051,7 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="10"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
       <c r="E66" s="11"/>
@@ -3036,7 +3063,9 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="10"/>
+      <c r="A67" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="11"/>
@@ -3240,7 +3269,7 @@
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="7"/>
+      <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
       <c r="E84" s="11"/>
@@ -3251,13 +3280,37 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="10"/>
+      <c r="B85" s="9"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
-    <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -3265,58 +3318,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="58" customFormat="1" ht="30">
+      <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2">
         <v>2917</v>
@@ -3327,48 +3383,51 @@
       <c r="F2" s="16">
         <v>31.16</v>
       </c>
-      <c r="G2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="60">
         <v>2013</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3">
-        <v>5169</v>
-      </c>
-      <c r="E3" s="16">
-        <v>7.31</v>
-      </c>
-      <c r="F3" s="16">
-        <v>72.12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>167</v>
+      </c>
+      <c r="D3" s="63">
+        <v>4652</v>
+      </c>
+      <c r="E3" s="62">
+        <v>7.05</v>
+      </c>
+      <c r="F3" s="62">
+        <v>54.07</v>
+      </c>
+      <c r="G3" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>999</v>
@@ -3379,48 +3438,51 @@
       <c r="F4" s="16">
         <v>11.33</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="53">
+      <c r="G4" s="60">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>794</v>
-      </c>
-      <c r="E5" s="16">
-        <v>2.06</v>
-      </c>
-      <c r="F5" s="16">
-        <v>10.3</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="D5" s="63">
+        <v>1079</v>
+      </c>
+      <c r="E5" s="62">
+        <v>2.54</v>
+      </c>
+      <c r="F5" s="62">
+        <v>14.04</v>
+      </c>
+      <c r="G5" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>1126</v>
@@ -3431,295 +3493,300 @@
       <c r="F6" s="16">
         <v>18.03</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="H6" s="53">
+      <c r="G6" s="60">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>691</v>
-      </c>
-      <c r="E7" s="16">
-        <v>11.02</v>
-      </c>
-      <c r="F7" s="16">
-        <v>7.01</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="D7" s="63">
+        <v>710</v>
+      </c>
+      <c r="E7" s="62">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F7" s="62">
+        <v>6.97</v>
+      </c>
+      <c r="G7" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>6034</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2.37</v>
-      </c>
-      <c r="F8" s="16">
-        <v>103.31</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="D8" s="63">
+        <v>6317</v>
+      </c>
+      <c r="E8" s="62">
+        <v>2.36</v>
+      </c>
+      <c r="F8" s="62">
+        <v>121.13</v>
+      </c>
+      <c r="G8" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>3900</v>
-      </c>
-      <c r="E9" s="16">
-        <v>5.7</v>
-      </c>
-      <c r="F9" s="16">
-        <v>114.39</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="63">
+        <v>4104</v>
+      </c>
+      <c r="E9" s="62">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F9" s="62">
+        <v>125.19</v>
+      </c>
+      <c r="G9" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="D10">
-        <v>2787</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>122.28</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="D10" s="63">
+        <v>2680</v>
+      </c>
+      <c r="E10" s="62">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F10" s="62">
+        <v>113.29</v>
+      </c>
+      <c r="G10" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>2948</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1.36</v>
-      </c>
-      <c r="F11" s="16">
-        <v>40.85</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="D11" s="63">
+        <v>2752</v>
+      </c>
+      <c r="E11" s="62">
+        <v>1.39</v>
+      </c>
+      <c r="F11" s="62">
+        <v>41.63</v>
+      </c>
+      <c r="G11" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>1624</v>
+        <v>1319</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>48.42</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26.22</v>
+      </c>
+      <c r="G12" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D13" s="24">
-        <v>6542</v>
+        <v>5446</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>80.14</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>109.54</v>
+      </c>
+      <c r="G13" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14">
-        <v>4291</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16">
-        <v>72.84</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="D14" s="63">
+        <v>7191</v>
+      </c>
+      <c r="E14" s="62">
+        <v>0</v>
+      </c>
+      <c r="F14" s="62">
+        <v>85.03</v>
+      </c>
+      <c r="G14" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H14" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="24">
-        <v>1783</v>
+        <v>1331</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>22.46</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="23" customFormat="1">
+        <v>15.19</v>
+      </c>
+      <c r="G15" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D16" s="52">
-        <v>8895</v>
-      </c>
-      <c r="E16" s="16">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="F16" s="16">
-        <v>425.38</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="H16" s="53">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>1557</v>
+      </c>
+      <c r="E16" s="62">
+        <v>6.17</v>
+      </c>
+      <c r="F16" s="62">
+        <v>20.02</v>
+      </c>
+      <c r="G16" s="60">
+        <v>2019</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3729,7 +3796,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3751,7 +3818,7 @@
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3782,10 +3849,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3798,65 +3865,65 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="57"/>
+        <v>75</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3870,7 +3937,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="30" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3896,10 +3963,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -3922,7 +3989,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -3934,7 +4001,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="36" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -3960,7 +4027,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -3972,7 +4039,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -3998,7 +4065,7 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -4010,7 +4077,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -4036,7 +4103,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="36" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -4062,7 +4129,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -4088,7 +4155,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -4114,7 +4181,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -4140,7 +4207,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="36" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -4166,7 +4233,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="36" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4192,7 +4259,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4218,7 +4285,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -4244,7 +4311,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="36" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -4270,7 +4337,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -4296,7 +4363,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -4322,7 +4389,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -4348,7 +4415,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -4374,19 +4441,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -4400,7 +4467,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -4426,10 +4493,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -4452,7 +4519,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="32" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -4478,10 +4545,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -4504,12 +4571,12 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -4520,7 +4587,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -4531,7 +4598,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -4555,11 +4622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4570,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4610,10 +4677,10 @@
     </row>
     <row r="2" spans="1:36" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -4723,7 +4790,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4833,7 +4900,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -4943,7 +5010,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C5" s="53">
         <v>6044.2528846388041</v>
@@ -5053,7 +5120,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C6" s="53">
         <v>5501.4276276478286</v>
@@ -5163,7 +5230,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C7" s="53">
         <v>4068.8324979159847</v>
@@ -5273,7 +5340,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C8" s="53">
         <v>3836.1961011946664</v>
@@ -5383,7 +5450,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C9" s="53">
         <v>7123.1024412096613</v>
@@ -5493,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C10" s="53">
         <v>6358.970494457717</v>
@@ -5603,7 +5670,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C11" s="53">
         <v>6228.2456569988753</v>
@@ -5713,7 +5780,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C12" s="53">
         <v>5606.8362940961097</v>
@@ -5823,7 +5890,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C13" s="53">
         <v>6199.7160723985862</v>
@@ -5933,7 +6000,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" s="53">
         <v>7561.0934235746954</v>
@@ -6043,7 +6110,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C15" s="53">
         <v>7561.0934235746954</v>
@@ -6153,7 +6220,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C16" s="53">
         <v>7561.0934235746954</v>
@@ -6263,7 +6330,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C17" s="53">
         <v>3827.2968566587979</v>
@@ -6373,7 +6440,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C18" s="53">
         <v>4013.1693740693227</v>
@@ -6483,7 +6550,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C19" s="53">
         <v>4013.1693740693227</v>
@@ -6593,7 +6660,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C20" s="53">
         <v>4305.3925876948315</v>
@@ -6703,7 +6770,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C21" s="53">
         <v>5576.5909167824766</v>
@@ -6813,7 +6880,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C22" s="53">
         <v>14196.524804379835</v>
@@ -6923,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C23" s="53">
         <v>31389.002895326357</v>
@@ -7033,7 +7100,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C24" s="53">
         <v>14196.524804379835</v>
@@ -7143,7 +7210,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C25" s="53">
         <v>31389.002895326357</v>
@@ -7253,7 +7320,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C26" s="53">
         <v>899.1125440742336</v>
@@ -7360,10 +7427,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C27" s="53">
         <v>2985.7163232225957</v>
@@ -7470,10 +7537,10 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C28" s="53">
         <v>3068.5330578578878</v>
@@ -7580,10 +7647,10 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C29" s="53">
         <v>3161.5232415013843</v>
@@ -7690,10 +7757,10 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C30" s="53">
         <v>3433.5732515006521</v>
@@ -7800,10 +7867,10 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C31" s="53">
         <v>3650.4675562858592</v>
@@ -7910,10 +7977,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C32" s="53">
         <v>4469.1889883621543</v>
@@ -8020,10 +8087,10 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C33" s="53">
         <v>4351.9349981933547</v>
@@ -8130,10 +8197,10 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C34" s="53">
         <v>4362.9480041823535</v>
@@ -8240,10 +8307,10 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C35" s="53">
         <v>4522.3633673455815</v>
@@ -8350,10 +8417,10 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C36" s="53">
         <v>4645.8187533874998</v>
@@ -8460,10 +8527,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8570,10 +8637,10 @@
     </row>
     <row r="38" spans="1:36" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8680,10 +8747,10 @@
     </row>
     <row r="39" spans="1:36" s="23" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8790,10 +8857,10 @@
     </row>
     <row r="40" spans="1:36" s="23" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8900,10 +8967,10 @@
     </row>
     <row r="41" spans="1:36" s="23" customFormat="1">
       <c r="A41" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -9011,7 +9078,7 @@
     <row r="42" spans="1:36" s="23" customFormat="1"/>
     <row r="43" spans="1:36" s="53" customFormat="1">
       <c r="A43" s="55" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B43" s="55"/>
     </row>
@@ -9021,7 +9088,7 @@
     </row>
     <row r="45" spans="1:36" s="53" customFormat="1">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B45" s="23">
         <v>12.491269722013936</v>
@@ -9029,7 +9096,7 @@
     </row>
     <row r="46" spans="1:36" s="53" customFormat="1">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B46" s="23">
         <v>24.982539444027871</v>
@@ -9037,7 +9104,7 @@
     </row>
     <row r="47" spans="1:36" s="53" customFormat="1">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B47" s="23">
         <v>49.965078888055743</v>
@@ -9045,7 +9112,7 @@
     </row>
     <row r="48" spans="1:36" s="53" customFormat="1">
       <c r="A48" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B48" s="23">
         <v>320</v>
@@ -9053,7 +9120,7 @@
     </row>
     <row r="49" spans="1:35" s="53" customFormat="1">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B49" s="23">
         <v>320</v>
@@ -9061,7 +9128,7 @@
     </row>
     <row r="50" spans="1:35" s="53" customFormat="1">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B50" s="23">
         <v>12.491269722013936</v>
@@ -9069,7 +9136,7 @@
     </row>
     <row r="51" spans="1:35" s="53" customFormat="1">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B51" s="23">
         <v>24.982539444027871</v>
@@ -9077,7 +9144,7 @@
     </row>
     <row r="52" spans="1:35" s="53" customFormat="1">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B52" s="23">
         <v>49.965078888055743</v>
@@ -9085,7 +9152,7 @@
     </row>
     <row r="53" spans="1:35" s="53" customFormat="1">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B53" s="23">
         <v>99.930157776111486</v>
@@ -9093,7 +9160,7 @@
     </row>
     <row r="54" spans="1:35" s="53" customFormat="1">
       <c r="A54" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B54" s="23">
         <v>199.86031555222297</v>
@@ -9101,7 +9168,7 @@
     </row>
     <row r="55" spans="1:35" s="53" customFormat="1">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B55" s="23">
         <v>199.86031555222297</v>
@@ -9109,7 +9176,7 @@
     </row>
     <row r="56" spans="1:35" s="53" customFormat="1">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B56" s="23">
         <v>199.86031555222297</v>
@@ -9117,7 +9184,7 @@
     </row>
     <row r="57" spans="1:35" s="53" customFormat="1">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B57" s="23">
         <v>199.86031555222297</v>
@@ -9125,7 +9192,7 @@
     </row>
     <row r="58" spans="1:35" s="53" customFormat="1">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B58" s="23">
         <v>199.86031555222297</v>
@@ -9133,7 +9200,7 @@
     </row>
     <row r="59" spans="1:35" s="53" customFormat="1">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B59" s="23">
         <v>143.39977640871999</v>
@@ -9142,7 +9209,7 @@
     <row r="60" spans="1:35" s="53" customFormat="1"/>
     <row r="61" spans="1:35" s="23" customFormat="1">
       <c r="A61" s="55" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -10414,7 +10481,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B71" s="23">
         <f t="shared" ref="B71:AI71" si="8">(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
@@ -10559,15 +10626,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10582,18 +10647,18 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B2" s="4">
         <f>('EIA Costs'!F2*1000)*(About!$A$61)</f>
@@ -10604,7 +10669,7 @@
       </c>
       <c r="D2" s="4">
         <f>'EIA Costs'!F3*1000*About!$A$61</f>
-        <v>71110.319999999992</v>
+        <v>53313.02</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10620,7 +10685,7 @@
       </c>
       <c r="D3" s="4">
         <f>'EIA Costs'!F5*1000*About!$A$63</f>
-        <v>9417.2900000000009</v>
+        <v>12836.772000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10629,14 +10694,14 @@
       </c>
       <c r="B4" s="4">
         <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
-        <v>94456.332999999999</v>
+        <v>110749.159</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>'EIA Costs'!F8*1000*About!$A$63</f>
-        <v>94456.332999999999</v>
+        <v>110749.159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10645,30 +10710,30 @@
       </c>
       <c r="B5" s="4">
         <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
-        <v>37349.154999999999</v>
+        <v>38062.309000000001</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
         <f>'EIA Costs'!F11*1000*About!$A$63</f>
-        <v>37349.154999999999</v>
+        <v>38062.309000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
-        <v>44270.406000000003</v>
+        <v>23972.946</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
         <f>'EIA Costs'!F12*1000*About!$A$63</f>
-        <v>44270.406000000003</v>
+        <v>23972.946</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10677,14 +10742,14 @@
       </c>
       <c r="B7" s="4">
         <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
-        <v>20535.178</v>
+        <v>13888.217000000001</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
         <f>'EIA Costs'!F15*1000*About!$A$63</f>
-        <v>20535.178</v>
+        <v>13888.217000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10693,14 +10758,14 @@
       </c>
       <c r="B8" s="4">
         <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
-        <v>66597.611999999994</v>
+        <v>77742.929000000004</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
         <f>'EIA Costs'!F14*1000*About!$A$63</f>
-        <v>66597.611999999994</v>
+        <v>77742.929000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10709,14 +10774,14 @@
       </c>
       <c r="B9" s="4">
         <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
-        <v>104586.777</v>
+        <v>114461.217</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
         <f>'EIA Costs'!F9*1000*About!$A$63</f>
-        <v>104586.777</v>
+        <v>114461.217</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10725,14 +10790,14 @@
       </c>
       <c r="B10" s="4">
         <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
-        <v>111800.60400000001</v>
+        <v>103581.04700000001</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!F10*1000*About!$A$63</f>
-        <v>111800.60400000001</v>
+        <v>103581.04700000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10748,7 +10813,7 @@
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10764,12 +10829,12 @@
       </c>
       <c r="D12" s="4">
         <f>'EIA Costs'!F7*1000*About!$A$63</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -10781,28 +10846,28 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>71110.319999999992</v>
+        <v>53313.02</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4">
         <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
-        <v>73272.001999999993</v>
+        <v>100152.42200000001</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
         <f>'EIA Costs'!F13*1000*About!$A$63</f>
-        <v>73272.001999999993</v>
+        <v>100152.42200000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -10813,12 +10878,12 @@
       </c>
       <c r="D15" s="4">
         <f>D11</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -10829,23 +10894,23 @@
       </c>
       <c r="D16" s="4">
         <f>D11</f>
-        <v>6409.2430000000004</v>
+        <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" s="4">
         <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
-        <v>388924.93400000001</v>
+        <v>18304.286</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
         <f>'EIA Costs'!F16*1000*About!$A$63</f>
-        <v>388924.93400000001</v>
+        <v>18304.286</v>
       </c>
     </row>
   </sheetData>
@@ -10855,15 +10920,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -10877,13 +10940,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10899,7 +10962,7 @@
       </c>
       <c r="D2" s="16">
         <f>'EIA Costs'!E3*About!$A$61</f>
-        <v>7.2076599999999997</v>
+        <v>6.9512999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10915,7 +10978,7 @@
       </c>
       <c r="D3" s="16">
         <f>'EIA Costs'!E5*About!$A$63</f>
-        <v>1.8834580000000001</v>
+        <v>2.3223220000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10924,14 +10987,14 @@
       </c>
       <c r="B4" s="16">
         <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1668910000000001</v>
+        <v>2.1577479999999998</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
         <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1668910000000001</v>
+        <v>2.1577479999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10940,19 +11003,19 @@
       </c>
       <c r="B5" s="16">
         <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2434480000000001</v>
+        <v>1.2708769999999998</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
         <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2434480000000001</v>
+        <v>1.2708769999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!E12*About!$A$63</f>
@@ -11004,14 +11067,14 @@
       </c>
       <c r="B9" s="16">
         <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>5.2115100000000005</v>
+        <v>4.3977829999999996</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
         <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>5.2115100000000005</v>
+        <v>4.3977829999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11020,14 +11083,14 @@
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>0</v>
+        <v>1.0605879999999999</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>0</v>
+        <v>1.0605879999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11043,7 +11106,7 @@
       </c>
       <c r="D11" s="16">
         <f>D12</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11059,12 +11122,12 @@
       </c>
       <c r="D12" s="16">
         <f>'EIA Costs'!E7*About!$A$63</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -11076,12 +11139,12 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>12.210623999999999</v>
+        <v>11.77632</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E13*1000</f>
@@ -11097,7 +11160,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
@@ -11108,12 +11171,12 @@
       </c>
       <c r="D15" s="16">
         <f>D11</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
@@ -11124,23 +11187,23 @@
       </c>
       <c r="D16" s="16">
         <f>D11</f>
-        <v>10.075585999999999</v>
+        <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B17" s="16">
         <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>8.6584210000000006</v>
+        <v>5.6412310000000003</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
         <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>8.6584210000000006</v>
+        <v>5.6412310000000003</v>
       </c>
     </row>
   </sheetData>
@@ -11149,15 +11212,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11183,7 +11244,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -11195,7 +11256,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -11216,19 +11277,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11237,19 +11298,19 @@
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>5064086.276907078</v>
+        <v>4557579.6788879326</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>720796.7716489468</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>962058.30273462704</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5478251.7947959062</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5632940.678707079</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2654933.7360476032</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2434233.6034520324</v>
       </c>
       <c r="F2" s="20">
         <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
@@ -11260,28 +11321,28 @@
         <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3760873.857819173</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>6190235.3107596356</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3561017.0614915011</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3680479.6131787207</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2404345.5554760592</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2270817.9963020692</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>630790.91464397067</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>636580.52455604961</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>630790.91464397067</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>636580.52455604961</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5868983.6976608615</v>
+        <v>5281971.7859389298</v>
       </c>
       <c r="N2" s="20">
         <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
@@ -11289,15 +11350,15 @@
       </c>
       <c r="O2" s="4">
         <f>K2</f>
-        <v>630790.91464397067</v>
+        <v>636580.52455604961</v>
       </c>
       <c r="P2" s="4">
         <f>K2</f>
-        <v>630790.91464397067</v>
+        <v>636580.52455604961</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8121858.1440940769</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1396322.3093857865</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11306,19 +11367,19 @@
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>5031538.553814155</v>
+        <v>4528287.3577758651</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>715639.34329789365</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>955174.60546925361</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5439617.3895918122</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5593215.3574141553</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2614511.0720952055</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2397171.2069040639</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11327,43 +11388,43 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3598486.4156383448</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5922952.6215192685</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3556264.1229830021</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3675567.2263574409</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2260537.0109521174</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2134995.9926041379</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>629800.5292879414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>629800.5292879414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5831262.7652392657</v>
+        <v>5248023.67651249</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>629800.5292879414</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>629800.5292879414</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8111017.7881881548</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1394458.6187715731</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11372,19 +11433,19 @@
       </c>
       <c r="B4" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4998990.830721234</v>
+        <v>4498995.0366637995</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>710481.91494684049</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>948290.90820388054</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5400982.9843877172</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5553490.0361212343</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2574088.4081428093</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2360108.8103560968</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11393,43 +11454,43 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3436098.9734575162</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5655669.9322789013</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3550519.7582775778</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3669630.1536549246</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2116728.466428176</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1999173.9889062068</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>634311.81211813237</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640133.73800439923</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>634311.81211813237</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640133.73800439923</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5793541.8328176718</v>
+        <v>5214075.5670860531</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>634311.81211813237</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>634311.81211813237</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8097916.2179177077</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1392206.1767155745</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11438,19 +11499,19 @@
       </c>
       <c r="B5" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4966443.107628312</v>
+        <v>4469702.7155517321</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>705324.48659578711</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>941407.21093850711</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5362348.5791836223</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5513764.7148283115</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2533665.7441904116</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2323046.4138081288</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11459,43 +11520,43 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3273711.5312766884</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5388387.243038536</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3590174.8627922307</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3710615.5803474663</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1972919.9219042347</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1863351.9852082757</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>626686.34387035528</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>632438.28065955907</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>626686.34387035528</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>632438.28065955907</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5755820.900396076</v>
+        <v>5180127.4576596133</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>626686.34387035528</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>626686.34387035528</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>8188360.3601376666</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1407755.4723686662</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11504,19 +11565,19 @@
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4933895.38453539</v>
+        <v>4440410.3944396656</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>700167.05824473395</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>934523.51367313403</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5323714.1739795282</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5474039.3935353896</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2493243.0802380154</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2285984.0172601612</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11525,43 +11586,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3081544.2527027735</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5072088.2342516193</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3498002.0144531941</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3615350.5806739321</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1829111.3773802938</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1727529.9815103451</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>622011.50522564363</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>627720.5347827893</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>622011.50522564363</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>627720.5347827893</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5718099.9679744812</v>
+        <v>5146179.3482331755</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>622011.50522564363</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>622011.50522564363</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7978135.3637336325</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1371613.268545154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11570,19 +11631,19 @@
       </c>
       <c r="B7" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4901347.6614424679</v>
+        <v>4411118.0733275991</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>689558.55689698691</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>920364.18721302296</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5285079.7687754352</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5434314.0722424677</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2452820.4162856182</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2248921.6207121932</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11591,43 +11652,43 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2916824.1410367326</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4800966.0721755233</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3481100.5819001063</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3597882.1504836255</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1685302.8328563524</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1591707.9778124143</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>609751.08625557902</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>615347.58558829164</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>609751.08625557902</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>615347.58558829164</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5680379.0355528863</v>
+        <v>5112231.2388067376</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>609751.08625557902</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>609751.08625557902</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7939587.0964106284</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1364985.9913019019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11636,19 +11697,19 @@
       </c>
       <c r="B8" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4871133.5521644214</v>
+        <v>4383925.9595025899</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>684220.78187922772</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>913239.77853647328</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5248975.3203206714</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5397190.1458511474</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2412397.752333221</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2211859.2241642252</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11657,43 +11718,43 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2737126.4823311814</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4505191.5170499301</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3465752.0681416341</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3582018.7353398106</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1541494.2883324109</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1455885.9741144832</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>604079.20045986038</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>609623.64132841176</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>604079.20045986038</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>609623.64132841176</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5645362.6268473649</v>
+        <v>5080717.1484027747</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>604079.20045986038</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>604079.20045986038</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7904580.6784922676</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1358967.6342407612</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11702,19 +11763,19 @@
       </c>
       <c r="B9" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4860986.9768395703</v>
+        <v>4374794.2380069029</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>681555.86825411068</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>909682.87820068328</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5234491.5048556123</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5382297.3522425154</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2371975.0883808243</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2174796.8276162585</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11723,43 +11784,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2557428.8236256307</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4209416.9619243396</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3463946.7249027211</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3580152.8276873408</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1397685.7438084695</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1320063.9704165517</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>600709.84972221882</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>606223.36556319764</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>600709.84972221882</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>606223.36556319764</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5633603.3317026133</v>
+        <v>5070134.0102690179</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>600709.84972221882</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>600709.84972221882</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7900463.1071819756</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1358259.7350655918</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11768,19 +11829,19 @@
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4848899.9425518662</v>
+        <v>4363916.1409849636</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678836.18675523507</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>906052.87835925608</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5217901.8847617349</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5365239.2925965758</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2331552.4244284267</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2137734.4310682896</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11789,43 +11850,43 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2377731.1649200805</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3913642.4067987497</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3460852.7254932183</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3576955.0329132001</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1253877.1992845279</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1184241.9667186209</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>597375.06250310456</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>602857.9705520398</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>597375.06250310456</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>602857.9705520398</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5619595.1566225216</v>
+        <v>5057526.9237005152</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>597375.06250310456</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>597375.06250310456</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7893406.4085287629</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1357046.5366096133</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11834,19 +11895,19 @@
       </c>
       <c r="B11" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4834259.650226308</v>
+        <v>4350740.1611245479</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>675969.71587196749</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>902226.95651656261</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5198551.6690101232</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5345342.686611332</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2291129.7604760304</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2100672.0345203225</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -11855,43 +11916,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2198033.5062145297</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3617867.851673157</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3456049.6215158268</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3571990.797706374</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1110068.654760587</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1048419.9630206898</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>593992.07759784628</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>599443.93548026006</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>593992.07759784628</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>599443.93548026006</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5602627.9028497105</v>
+        <v>5042256.7235552054</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>593992.07759784628</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>593992.07759784628</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7882451.6367649436</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1355163.17544562</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11900,19 +11961,19 @@
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4814599.4303434519</v>
+        <v>4333046.343578591</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>673517.14606499264</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>898953.47467168875</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5173796.5234418577</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5319888.5323113659</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2250707.0965236328</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2063609.6379723544</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -11921,43 +11982,43 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2018335.8475089783</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3322093.2965475647</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3447855.0324163544</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3563521.302166706</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>966260.11023664533</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>912597.95932275837</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>591412.75760823954</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>596840.94162942353</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>591412.75760823954</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>596840.94162942353</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5579842.8427864406</v>
+        <v>5021750.6103003519</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>591412.75760823954</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>591412.75760823954</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7863761.6700880704</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1351949.9677079825</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11966,19 +12027,19 @@
       </c>
       <c r="B13" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4784972.2931732424</v>
+        <v>4306382.493295013</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>669688.42419803585</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>893843.22195435094</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5138334.26897074</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5283424.9334751861</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2210284.4325712356</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2026547.2414243866</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -11987,43 +12048,43 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1838638.1888034281</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3026318.7414219733</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3432888.6656527086</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3548052.8540223199</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>822451.56571270374</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>776775.95562482707</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>587632.55515291414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>593026.04321209737</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>587632.55515291414</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>593026.04321209737</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>5545506.700874079</v>
+        <v>4990848.7468497222</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>587632.55515291414</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>587632.55515291414</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7829626.8412771393</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1346081.4555830292</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -12032,19 +12093,19 @@
       </c>
       <c r="B14" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4763135.5944755012</v>
+        <v>4286729.8869220419</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>667515.74687055824</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>890943.31681565102</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5111243.09969428</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5255568.7933839113</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2169861.7686188393</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1989484.8448764191</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12053,43 +12114,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1658940.5300978783</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2730544.1862963829</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3423211.9373550331</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3538051.4974978026</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>585530.80757154443</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>590905.00508873118</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>585530.80757154443</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>590905.00508873118</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>5520199.2274899473</v>
+        <v>4968072.5104049603</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>585530.80757154443</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>585530.80757154443</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7807556.4571212865</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1342287.0812875433</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12098,19 +12159,19 @@
       </c>
       <c r="B15" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4741426.478848788</v>
+        <v>4267192.1028447589</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>665500.39399619412</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>888253.39499304548</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5084287.5593440877</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5227852.1119602192</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2129439.1046664426</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1952422.4483284515</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12119,43 +12180,43 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1642444.2286021602</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2703391.9892602018</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3413622.6676181271</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3528140.5335337119</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>583622.22681032016</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>588978.90673516935</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>583622.22681032016</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>588978.90673516935</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>5495039.6155210864</v>
+        <v>4945429.3463733969</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>583622.22681032016</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>583622.22681032016</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7785685.5457598045</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1338527.000660816</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -12164,19 +12225,19 @@
       </c>
       <c r="B16" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4717124.7826897809</v>
+        <v>4245321.0464447401</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>662771.45293364581</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>884611.0362725812</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5054553.1781136096</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5197278.1237860257</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2089016.440714045</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1915360.0517804835</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12185,43 +12246,43 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1625947.9271064417</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2676239.7922240188</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3402263.1629461991</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3516399.9480102807</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>580949.29130652454</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>586281.43813565525</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>580949.29130652454</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>586281.43813565525</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>5466875.3523581317</v>
+        <v>4920082.05439544</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>580949.29130652454</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>580949.29130652454</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7759777.1370272925</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1334072.7872933741</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -12230,19 +12291,19 @@
       </c>
       <c r="B17" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4694802.583419539</v>
+        <v>4225231.4989490611</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>660625.97031838971</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>881747.42832570034</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5026942.0678779799</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5168887.3612113139</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2048593.776761648</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1878297.6552325157</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12251,43 +12312,43 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1609451.6256107236</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2649087.5951878377</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3392253.8303445629</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3506054.8292013253</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>578909.22003510536</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>584222.64240803325</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>578909.22003510536</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>584222.64240803325</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>5441005.2118333932</v>
+        <v>4896799.4284095466</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>578909.22003510536</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
-        <v>578909.22003510536</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7736948.159208945</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1330147.9944119062</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -12296,19 +12357,19 @@
       </c>
       <c r="B18" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4676171.118459139</v>
+        <v>4208463.5409309175</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>658776.18363552867</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>879278.49019149749</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>5003279.8470043289</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5144556.9924184158</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>2008171.1128092513</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1841235.2586845479</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12317,43 +12378,43 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1592955.3241150051</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2621935.3981516548</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3384774.0298921876</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3498324.1015467704</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>577039.06568608666</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>582335.32315713551</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>577039.06568608666</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>582335.32315713551</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>5419412.4193458781</v>
+        <v>4877366.332907143</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>577039.06568608666</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
-        <v>577039.06568608666</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7719888.4604848735</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1327215.064841209</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -12362,19 +12423,19 @@
       </c>
       <c r="B19" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4651654.2466609143</v>
+        <v>4186398.8306184118</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>656380.38356404728</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>876080.77976725693</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4973319.8532436835</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5113751.0211141268</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1967748.4488568543</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1804172.86213658</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12383,43 +12444,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1576459.022619287</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2594783.2011154736</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3373261.2638571416</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3486425.1131533994</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>574803.15383415646</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>580078.88935867744</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>574803.15383415646</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>580078.88935867744</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>5390998.7800369319</v>
+        <v>4851794.6072222488</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>574803.15383415646</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>574803.15383415646</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7693630.4979510959</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1322700.7556481098</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -12428,19 +12489,19 @@
       </c>
       <c r="B20" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4629129.3831464667</v>
+        <v>4166126.8892237116</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>654095.55555118888</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>873031.18542034749</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4945491.3223203206</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5085136.6985640414</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1957158.1710932388</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1794462.9361779527</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12449,43 +12510,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1559962.7211235689</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2567631.0040792916</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3363113.1502028932</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3475936.55756051</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>572597.01425367699</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>577852.50109153183</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>572597.01425367699</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>577852.50109153183</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>5364893.7633508667</v>
+        <v>4828300.5972351003</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>572597.01425367699</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>572597.01425367699</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7670484.9925781367</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1318721.5448639654</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -12494,19 +12555,19 @@
       </c>
       <c r="B21" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4605495.3571930388</v>
+        <v>4144856.7230918976</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>652008.45930963557</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>870245.50664545642</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4916479.7116339877</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5055305.8897382952</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1946567.8933296236</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1784753.010219326</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12515,43 +12576,43 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1543466.4196278511</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2540478.80704311</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3352200.3800697704</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3464657.6933189998</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>570705.39606832794</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>575943.52100203745</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>570705.39606832794</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>575943.52100203745</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>5337503.2914184891</v>
+        <v>4803649.702394818</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>570705.39606832794</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>570705.39606832794</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7645595.4822360529</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1314442.5020705855</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -12560,19 +12621,19 @@
       </c>
       <c r="B22" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4584395.747225523</v>
+        <v>4125867.4823163347</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>650617.79886356287</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>868389.37121165253</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4890175.1739440486</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>5028258.59327613</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1935977.615566008</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1775043.0842606986</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12581,43 +12642,43 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1526970.1181321328</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2513326.610006928</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3343033.8633321188</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3455183.6645810818</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>569557.99255406461</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>574785.58623469959</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>569557.99255406461</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>574785.58623469959</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>5313050.0613281867</v>
+        <v>4781642.2683882229</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="0"/>
-        <v>569557.99255406461</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>569557.99255406461</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7624688.7729074871</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1310848.1885362437</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -12626,19 +12687,19 @@
       </c>
       <c r="B23" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4560854.3984156279</v>
+        <v>4104680.723820759</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>648880.35146640975</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>866070.37401335512</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4861264.4588709604</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4998531.5290436288</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1925387.3378023915</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1765333.158302071</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12647,43 +12708,43 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1510473.8166364138</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2486174.4129707455</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3332180.7051944486</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3443966.4121572562</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>568106.98562128015</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>573321.26147515886</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>568106.98562128015</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>573321.26147515886</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>5285766.9968558718</v>
+        <v>4757088.0381840812</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>568106.98562128015</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>568106.98562128015</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7599935.2237704154</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1306592.5204017661</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -12692,19 +12753,19 @@
       </c>
       <c r="B24" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4537891.6878652498</v>
+        <v>4084014.7285643537</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>647224.47835967725</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>863860.25524858502</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4832972.4464097433</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4969440.6376708252</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1914797.0600387768</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1755623.2323434441</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12713,43 +12774,43 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1493977.515140696</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2459022.2159345644</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3321725.4894855786</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3433160.4520611921</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>566727.40616458142</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571929.01977696037</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>566727.40616458142</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571929.01977696037</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>5259154.5407275399</v>
+        <v>4733137.3425158681</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="0"/>
-        <v>566727.40616458142</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>566727.40616458142</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7576089.2894805698</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1302492.8908039173</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -12758,19 +12819,19 @@
       </c>
       <c r="B25" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4519597.7110145967</v>
+        <v>4067550.5033159018</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>646235.67537540558</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>862540.48501902213</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4809649.9543022905</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4945459.5905335443</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1904206.782275161</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1745913.3063848168</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12779,43 +12840,43 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1477481.2136449779</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2431870.0188983819</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3314507.2962981635</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3425700.1078922306</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>565931.94021411764</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571126.25277404871</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>565931.94021411764</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>571126.25277404871</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>5237952.8774795271</v>
+        <v>4714056.2557621887</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>565931.94021411764</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>565931.94021411764</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7559626.2565569635</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1299662.5409327983</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -12824,19 +12885,19 @@
       </c>
       <c r="B26" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4491118.1877012318</v>
+        <v>4041919.4833016312</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>643789.57243076363</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>859275.63459266303</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4775491.2722972743</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4910336.3730173539</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1893616.5045115454</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1736203.3804261896</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -12845,43 +12906,43 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1460984.9121492596</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2404717.8218621998</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3300220.3511995459</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3410933.8741836962</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563860.27836401947</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>569035.57651885482</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563860.27836401947</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>569035.57651885482</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>5204946.7537873816</v>
+        <v>4684351.3829790875</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
-        <v>563860.27836401947</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>563860.27836401947</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7527041.0317743495</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1294060.4391091652</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -12890,19 +12951,19 @@
       </c>
       <c r="B27" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4475150.7348906612</v>
+        <v>4027549.0846800846</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>643137.03318897693</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>858404.68064265454</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4754636.3523898665</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4888892.5746857012</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1883026.2267479296</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1726493.454467562</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12911,43 +12972,43 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1444488.6106535415</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2377565.6248260182</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3294628.709260257</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3405154.6476856545</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563359.47632700379</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>568530.177953306</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>563359.47632700379</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>568530.177953306</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>5186441.3976156767</v>
+        <v>4667696.920431057</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>563359.47632700379</v>
+        <v>568530.177953306</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>563359.47632700379</v>
+        <v>568530.177953306</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7514287.7868897393</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1291867.8816877592</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -12956,19 +13017,19 @@
       </c>
       <c r="B28" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4447660.3112985436</v>
+        <v>4002808.235279711</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>640828.84107575472</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>855323.90187924227</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4721537.5164747164</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4854859.1300343601</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1872435.9489843145</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1716783.5285089349</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -12977,43 +13038,43 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1427992.3091578234</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2350413.4277898367</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3281015.3595255446</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3391084.6066551027</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>561408.40000623069</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>566561.19400174171</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>561408.40000623069</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>566561.19400174171</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>5154581.5834099697</v>
+        <v>4639023.7040091278</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="0"/>
-        <v>561408.40000623069</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>561408.40000623069</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7483238.8776871078</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1286529.9055950278</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -13022,19 +13083,19 @@
       </c>
       <c r="B29" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4430679.4514732715</v>
+        <v>3987525.789950409</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>640034.79412682063</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>854264.07546210196</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4699595.644906722</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4832297.6878896719</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1861845.6712206989</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1707073.6025503075</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13043,43 +13104,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1411496.0076621051</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2323261.2307536541</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3274731.7740136739</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3384590.2237373139</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>560783.77780424629</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>565930.83880835248</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>560783.77780424629</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>565930.83880835248</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>5134901.7470017215</v>
+        <v>4621312.2319698231</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>560783.77780424629</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>560783.77780424629</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7468907.4691927256</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1284066.0278652529</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -13088,19 +13149,19 @@
       </c>
       <c r="B30" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4404944.7675811611</v>
+        <v>3964365.0723133213</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>637976.97850742575</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>851517.47797442612</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4668368.5963213015</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4800188.8840519451</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1851255.3934570833</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1697363.6765916804</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13109,43 +13170,43 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1394999.7061663871</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2296109.0337174726</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3262334.739674523</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3371777.3022148283</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>559051.94687243411</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>564183.11255323095</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>559051.94687243411</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>564183.11255323095</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>5105076.7337676473</v>
+        <v>4594470.2970568947</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="0"/>
-        <v>559051.94687243411</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>559051.94687243411</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7440632.6947191991</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1279204.9852700992</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -13154,19 +13215,19 @@
       </c>
       <c r="B31" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4383321.6335722934</v>
+        <v>3944904.6700286916</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>636513.4857734699</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>849564.13218949281</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4641501.5041901665</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4772563.1483514039</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1840665.1156934679</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1687653.7506330532</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13175,43 +13236,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1378503.4046706685</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2268956.8366812905</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3252811.6859676302</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3361934.7756505935</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>557840.84849359537</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>562960.8983085549</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>557840.84849359537</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>562960.8983085549</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>5080016.7695310405</v>
+        <v>4571916.8140565678</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="0"/>
-        <v>557840.84849359537</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>557840.84849359537</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7418912.8068415569</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1275470.8688323523</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -13220,19 +13281,19 @@
       </c>
       <c r="B32" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4361626.2086551897</v>
+        <v>3925379.2073251978</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>635039.73497679201</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>847597.09481380892</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4614554.8502994552</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4744855.6043133195</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1830074.8379298523</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1677943.8246744261</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13241,43 +13302,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1362007.1031749502</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2241804.6396451085</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3243238.7174595776</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3352040.6597777726</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>556620.81337894208</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>561729.66530371504</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>556620.81337894208</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>561729.66530371504</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>5054873.0243043946</v>
+        <v>4549287.9297860414</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="0"/>
-        <v>556620.81337894208</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>556620.81337894208</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7397079.0748212673</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1271717.1801349882</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -13286,19 +13347,19 @@
       </c>
       <c r="B33" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4339539.6549929967</v>
+        <v>3905501.7363179387</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>633509.41195646103</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>845554.54963951895</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4587194.9441808192</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4716723.1390827727</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1819484.5601662367</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1668233.898715799</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13307,43 +13368,43 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1345510.8016792322</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2214652.4426089264</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3233391.9604599359</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3341863.5705453139</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>555351.1009336178</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>560448.29901305423</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>555351.1009336178</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>560448.29901305423</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>5029275.9834380029</v>
+        <v>4526251.0882092463</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>555351.1009336178</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>555351.1009336178</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7374620.8944336222</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1267856.1353165335</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -13352,19 +13413,19 @@
       </c>
       <c r="B34" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4284175.5342172347</v>
+        <v>3855675.0986996656</v>
       </c>
       <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>627108.04318478121</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>837010.54636717902</v>
       </c>
       <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>4524689.2492347453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>4652452.4766705297</v>
       </c>
       <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1808894.2824026213</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1658523.9727571718</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -13373,43 +13434,43 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>1329014.5001835146</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>2187500.2455727453</v>
       </c>
       <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>3200081.6556472601</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>3307435.7945322236</v>
       </c>
       <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>678643.02118876216</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>640953.95192689588</v>
       </c>
       <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>549810.83079493511</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>554857.17842271458</v>
       </c>
       <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>549810.83079493511</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>554857.17842271458</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4965112.1630564258</v>
+        <v>4468504.8911856236</v>
       </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="0"/>
-        <v>549810.83079493511</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>
-        <v>549810.83079493511</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
-        <v>7298647.7761493279</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <v>1254794.7202940234</v>
       </c>
     </row>
     <row r="35" spans="1:17">

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EvelineDB\Dropbox\Projeto EPS-WRI\elec_Eveline\Apil 2020\variables corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FB43E-90AA-4F49-A5BF-F301A2277284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23258" windowHeight="12578" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -408,13 +407,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -623,7 +622,7 @@
       <name val="AdvOT596495f2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,6 +662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,28 +840,28 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -953,10 +958,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -974,7 +979,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -992,10 +997,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1003,10 +1008,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1014,10 +1019,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1025,10 +1030,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1036,10 +1041,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1047,10 +1052,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1058,15 +1063,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1092,7 +1097,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1100,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1125,7 +1130,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1149,6 +1154,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1157,234 +1163,234 @@
     </xf>
   </cellXfs>
   <cellStyles count="228">
-    <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Calculated" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 10" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Comma 10 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Comma 10 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Comma 10 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Comma 10 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Comma 10 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Comma 10 4" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Comma 11" xfId="26" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Comma 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Comma 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Comma 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Comma 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Comma 3 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Comma 3 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Comma 3 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Comma 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Comma 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Comma 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Comma 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Comma 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Comma 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Currency 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Currency 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Currency 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Currency 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Currency 6" xfId="41" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Currency 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Currency 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Currency 8 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Currency 8 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Currency 8 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Currency 8 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Currency 8 3 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Currency 8 4" xfId="191" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Heading" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Heading 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Heading2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Hyperlink 10" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Hyperlink 10 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Hyperlink 10 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Hyperlink 11" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Hyperlink 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Hyperlink 11 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Hyperlink 12" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Hyperlink 12 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Hyperlink 12 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Hyperlink 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Hyperlink 13 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Hyperlink 13 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Hyperlink 14" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Hyperlink 14 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Hyperlink 14 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Hyperlink 15" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Hyperlink 15 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Hyperlink 15 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Hyperlink 16" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Hyperlink 16 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Hyperlink 16 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Hyperlink 17" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Hyperlink 17 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Hyperlink 17 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Hyperlink 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Hyperlink 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Hyperlink 18 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Hyperlink 19" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Hyperlink 19 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Hyperlink 19 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Hyperlink 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Hyperlink 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Hyperlink 20" xfId="80" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Hyperlink 20 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Hyperlink 20 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Hyperlink 21" xfId="83" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Hyperlink 21 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Hyperlink 21 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Hyperlink 22" xfId="86" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Hyperlink 22 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Hyperlink 22 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Hyperlink 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Hyperlink 23 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Hyperlink 23 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Hyperlink 24" xfId="92" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Hyperlink 25" xfId="93" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Hyperlink 26" xfId="94" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Hyperlink 27" xfId="95" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Hyperlink 28" xfId="96" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Hyperlink 29" xfId="97" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Hyperlink 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Hyperlink 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Hyperlink 30" xfId="101" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Hyperlink 31" xfId="102" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Hyperlink 32" xfId="103" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Hyperlink 33" xfId="104" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Hyperlink 33 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Hyperlink 33 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Hyperlink 34" xfId="107" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Hyperlink 34 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Hyperlink 34 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Hyperlink 34 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Hyperlink 34 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Hyperlink 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Hyperlink 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Hyperlink 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Hyperlink 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Hyperlink 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Hyperlink 5 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Hyperlink 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Hyperlink 6 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Hyperlink 6 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Hyperlink 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Hyperlink 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Hyperlink 7 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Hyperlink 8" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Hyperlink 8 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Hyperlink 8 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Hyperlink 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Hyperlink 9 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Hyperlink 9 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Input 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Linked" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="16"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="17"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="151"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="162"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="184"/>
+    <cellStyle name="20% - Accent2 2" xfId="18"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="19"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="152"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="163"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="185"/>
+    <cellStyle name="20% - Accent3 2" xfId="20"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="153"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="164"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="186"/>
+    <cellStyle name="20% - Accent4 2" xfId="22"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="23"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="154"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="165"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="187"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Calculated" xfId="24"/>
+    <cellStyle name="Comma 10" xfId="25"/>
+    <cellStyle name="Comma 10 2" xfId="155"/>
+    <cellStyle name="Comma 10 2 2" xfId="177"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="221"/>
+    <cellStyle name="Comma 10 2 3" xfId="199"/>
+    <cellStyle name="Comma 10 3" xfId="166"/>
+    <cellStyle name="Comma 10 3 2" xfId="210"/>
+    <cellStyle name="Comma 10 4" xfId="188"/>
+    <cellStyle name="Comma 11" xfId="26"/>
+    <cellStyle name="Comma 2" xfId="27"/>
+    <cellStyle name="Comma 2 2" xfId="28"/>
+    <cellStyle name="Comma 2 2 2" xfId="156"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="178"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="222"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="200"/>
+    <cellStyle name="Comma 2 2 3" xfId="167"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="211"/>
+    <cellStyle name="Comma 2 2 4" xfId="189"/>
+    <cellStyle name="Comma 3" xfId="29"/>
+    <cellStyle name="Comma 3 2" xfId="30"/>
+    <cellStyle name="Comma 3 2 2" xfId="157"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="179"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="223"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="201"/>
+    <cellStyle name="Comma 3 2 3" xfId="168"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="212"/>
+    <cellStyle name="Comma 3 2 4" xfId="190"/>
+    <cellStyle name="Comma 4" xfId="31"/>
+    <cellStyle name="Comma 5" xfId="32"/>
+    <cellStyle name="Comma 6" xfId="33"/>
+    <cellStyle name="Comma 7" xfId="34"/>
+    <cellStyle name="Comma 8" xfId="35"/>
+    <cellStyle name="Comma 9" xfId="36"/>
+    <cellStyle name="Currency 2" xfId="37"/>
+    <cellStyle name="Currency 3" xfId="38"/>
+    <cellStyle name="Currency 4" xfId="39"/>
+    <cellStyle name="Currency 5" xfId="40"/>
+    <cellStyle name="Currency 6" xfId="41"/>
+    <cellStyle name="Currency 7" xfId="42"/>
+    <cellStyle name="Currency 8" xfId="43"/>
+    <cellStyle name="Currency 8 2" xfId="158"/>
+    <cellStyle name="Currency 8 2 2" xfId="180"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="224"/>
+    <cellStyle name="Currency 8 2 3" xfId="202"/>
+    <cellStyle name="Currency 8 3" xfId="169"/>
+    <cellStyle name="Currency 8 3 2" xfId="213"/>
+    <cellStyle name="Currency 8 4" xfId="191"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="10"/>
+    <cellStyle name="Heading" xfId="44"/>
+    <cellStyle name="Heading 2 2" xfId="45"/>
+    <cellStyle name="Heading2" xfId="46"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Hyperlink 10" xfId="47"/>
+    <cellStyle name="Hyperlink 10 2" xfId="48"/>
+    <cellStyle name="Hyperlink 10 3" xfId="49"/>
+    <cellStyle name="Hyperlink 11" xfId="50"/>
+    <cellStyle name="Hyperlink 11 2" xfId="51"/>
+    <cellStyle name="Hyperlink 11 3" xfId="52"/>
+    <cellStyle name="Hyperlink 12" xfId="53"/>
+    <cellStyle name="Hyperlink 12 2" xfId="54"/>
+    <cellStyle name="Hyperlink 12 3" xfId="55"/>
+    <cellStyle name="Hyperlink 13" xfId="56"/>
+    <cellStyle name="Hyperlink 13 2" xfId="57"/>
+    <cellStyle name="Hyperlink 13 3" xfId="58"/>
+    <cellStyle name="Hyperlink 14" xfId="59"/>
+    <cellStyle name="Hyperlink 14 2" xfId="60"/>
+    <cellStyle name="Hyperlink 14 3" xfId="61"/>
+    <cellStyle name="Hyperlink 15" xfId="62"/>
+    <cellStyle name="Hyperlink 15 2" xfId="63"/>
+    <cellStyle name="Hyperlink 15 3" xfId="64"/>
+    <cellStyle name="Hyperlink 16" xfId="65"/>
+    <cellStyle name="Hyperlink 16 2" xfId="66"/>
+    <cellStyle name="Hyperlink 16 3" xfId="67"/>
+    <cellStyle name="Hyperlink 17" xfId="68"/>
+    <cellStyle name="Hyperlink 17 2" xfId="69"/>
+    <cellStyle name="Hyperlink 17 3" xfId="70"/>
+    <cellStyle name="Hyperlink 18" xfId="71"/>
+    <cellStyle name="Hyperlink 18 2" xfId="72"/>
+    <cellStyle name="Hyperlink 18 3" xfId="73"/>
+    <cellStyle name="Hyperlink 19" xfId="74"/>
+    <cellStyle name="Hyperlink 19 2" xfId="75"/>
+    <cellStyle name="Hyperlink 19 3" xfId="76"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Hyperlink 2 2" xfId="78"/>
+    <cellStyle name="Hyperlink 2 3" xfId="79"/>
+    <cellStyle name="Hyperlink 2 4" xfId="77"/>
+    <cellStyle name="Hyperlink 20" xfId="80"/>
+    <cellStyle name="Hyperlink 20 2" xfId="81"/>
+    <cellStyle name="Hyperlink 20 3" xfId="82"/>
+    <cellStyle name="Hyperlink 21" xfId="83"/>
+    <cellStyle name="Hyperlink 21 2" xfId="84"/>
+    <cellStyle name="Hyperlink 21 3" xfId="85"/>
+    <cellStyle name="Hyperlink 22" xfId="86"/>
+    <cellStyle name="Hyperlink 22 2" xfId="87"/>
+    <cellStyle name="Hyperlink 22 3" xfId="88"/>
+    <cellStyle name="Hyperlink 23" xfId="89"/>
+    <cellStyle name="Hyperlink 23 2" xfId="90"/>
+    <cellStyle name="Hyperlink 23 3" xfId="91"/>
+    <cellStyle name="Hyperlink 24" xfId="92"/>
+    <cellStyle name="Hyperlink 25" xfId="93"/>
+    <cellStyle name="Hyperlink 26" xfId="94"/>
+    <cellStyle name="Hyperlink 27" xfId="95"/>
+    <cellStyle name="Hyperlink 28" xfId="96"/>
+    <cellStyle name="Hyperlink 29" xfId="97"/>
+    <cellStyle name="Hyperlink 3" xfId="98"/>
+    <cellStyle name="Hyperlink 3 2" xfId="99"/>
+    <cellStyle name="Hyperlink 3 3" xfId="100"/>
+    <cellStyle name="Hyperlink 30" xfId="101"/>
+    <cellStyle name="Hyperlink 31" xfId="102"/>
+    <cellStyle name="Hyperlink 32" xfId="103"/>
+    <cellStyle name="Hyperlink 33" xfId="104"/>
+    <cellStyle name="Hyperlink 33 2" xfId="105"/>
+    <cellStyle name="Hyperlink 33 3" xfId="106"/>
+    <cellStyle name="Hyperlink 34" xfId="107"/>
+    <cellStyle name="Hyperlink 34 2" xfId="108"/>
+    <cellStyle name="Hyperlink 34 3" xfId="109"/>
+    <cellStyle name="Hyperlink 34 4" xfId="110"/>
+    <cellStyle name="Hyperlink 34 5" xfId="111"/>
+    <cellStyle name="Hyperlink 4" xfId="112"/>
+    <cellStyle name="Hyperlink 4 2" xfId="113"/>
+    <cellStyle name="Hyperlink 4 3" xfId="114"/>
+    <cellStyle name="Hyperlink 5" xfId="115"/>
+    <cellStyle name="Hyperlink 5 2" xfId="116"/>
+    <cellStyle name="Hyperlink 5 3" xfId="117"/>
+    <cellStyle name="Hyperlink 6" xfId="118"/>
+    <cellStyle name="Hyperlink 6 2" xfId="119"/>
+    <cellStyle name="Hyperlink 6 3" xfId="120"/>
+    <cellStyle name="Hyperlink 7" xfId="121"/>
+    <cellStyle name="Hyperlink 7 2" xfId="122"/>
+    <cellStyle name="Hyperlink 7 3" xfId="123"/>
+    <cellStyle name="Hyperlink 8" xfId="124"/>
+    <cellStyle name="Hyperlink 8 2" xfId="125"/>
+    <cellStyle name="Hyperlink 8 3" xfId="126"/>
+    <cellStyle name="Hyperlink 9" xfId="127"/>
+    <cellStyle name="Hyperlink 9 2" xfId="128"/>
+    <cellStyle name="Hyperlink 9 3" xfId="129"/>
+    <cellStyle name="Input 2" xfId="130"/>
+    <cellStyle name="Linked" xfId="131"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Normal 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Normal 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Normal 5" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Normal 6" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Normal 6 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Normal 6 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Normal 6 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Normal 6 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Normal 6 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Normal 6 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Normal 7" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Normal 8" xfId="138" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Normal Small" xfId="139" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Percent 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Percent 2 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Percent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Percent 2 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Percent 2 4 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Percent 2 5" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Percent 2 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Percent 2 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Percent 3" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Percent 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Results" xfId="145" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Title 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Unit" xfId="148" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="UserInput" xfId="149" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Variable" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 2" xfId="15"/>
+    <cellStyle name="Normal 2 2" xfId="14"/>
+    <cellStyle name="Normal 2 2 2" xfId="132"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="159"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="181"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="203"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="170"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="214"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="192"/>
+    <cellStyle name="Normal 3" xfId="133"/>
+    <cellStyle name="Normal 4" xfId="134"/>
+    <cellStyle name="Normal 5" xfId="135"/>
+    <cellStyle name="Normal 6" xfId="136"/>
+    <cellStyle name="Normal 6 2" xfId="160"/>
+    <cellStyle name="Normal 6 2 2" xfId="182"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="226"/>
+    <cellStyle name="Normal 6 2 3" xfId="204"/>
+    <cellStyle name="Normal 6 3" xfId="171"/>
+    <cellStyle name="Normal 6 3 2" xfId="215"/>
+    <cellStyle name="Normal 6 4" xfId="193"/>
+    <cellStyle name="Normal 7" xfId="137"/>
+    <cellStyle name="Normal 8" xfId="138"/>
+    <cellStyle name="Normal Small" xfId="139"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="140"/>
+    <cellStyle name="Percent 2 2" xfId="141"/>
+    <cellStyle name="Percent 2 3" xfId="142"/>
+    <cellStyle name="Percent 2 4" xfId="161"/>
+    <cellStyle name="Percent 2 4 2" xfId="183"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="227"/>
+    <cellStyle name="Percent 2 4 3" xfId="205"/>
+    <cellStyle name="Percent 2 5" xfId="172"/>
+    <cellStyle name="Percent 2 5 2" xfId="216"/>
+    <cellStyle name="Percent 2 6" xfId="194"/>
+    <cellStyle name="Percent 3" xfId="143"/>
+    <cellStyle name="Percent 3 2" xfId="144"/>
+    <cellStyle name="Results" xfId="145"/>
+    <cellStyle name="Section Break" xfId="12"/>
+    <cellStyle name="Section Break: parent row" xfId="13"/>
+    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Title 2" xfId="146"/>
+    <cellStyle name="Title 3" xfId="147"/>
+    <cellStyle name="Unit" xfId="148"/>
+    <cellStyle name="UserInput" xfId="149"/>
+    <cellStyle name="Variable" xfId="150"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -1435,11 +1441,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1668,7 +1674,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1743,23 +1749,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1795,23 +1784,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1987,23 +1959,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="78.53125" style="2" customWidth="1"/>
     <col min="3" max="3" width="54.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.53125" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.6640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2049,7 +2021,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="28.5">
       <c r="B7" s="22" t="s">
         <v>107</v>
       </c>
@@ -2075,7 +2047,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="28.8">
+    <row r="9" spans="1:11" ht="28.5">
       <c r="B9" s="22" t="s">
         <v>108</v>
       </c>
@@ -2231,7 +2203,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="28.5">
       <c r="A21" s="5"/>
       <c r="B21" s="22" t="s">
         <v>107</v>
@@ -2259,7 +2231,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" ht="28.8">
+    <row r="23" spans="1:11" ht="28.5">
       <c r="A23" s="5"/>
       <c r="B23" s="22" t="s">
         <v>108</v>
@@ -2365,7 +2337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8">
+    <row r="36" spans="1:2" ht="28.5">
       <c r="A36" s="5"/>
       <c r="B36" s="22" t="s">
         <v>107</v>
@@ -2377,7 +2349,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.8">
+    <row r="38" spans="1:2" ht="28.5">
       <c r="A38" s="5"/>
       <c r="B38" s="22" t="s">
         <v>108</v>
@@ -2763,22 +2735,22 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1">
-      <c r="A75" s="36"/>
+      <c r="A75" s="37"/>
       <c r="B75" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-    </row>
-    <row r="76" spans="1:11" ht="13.2" customHeight="1">
-      <c r="A76" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+    </row>
+    <row r="76" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A76" s="37"/>
       <c r="B76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-    </row>
-    <row r="77" spans="1:11" ht="13.2" customHeight="1">
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+    </row>
+    <row r="77" spans="1:11" ht="13.25" customHeight="1">
       <c r="A77" s="31"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
@@ -2831,9 +2803,9 @@
     <mergeCell ref="A75:A76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B31" r:id="rId2" xr:uid="{D43D7AD6-251B-49A3-BA96-2770C631E7F6}"/>
-    <hyperlink ref="B45" r:id="rId3" xr:uid="{67B8F900-28B8-43B1-B57C-E32ABBF05B8E}"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B45" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -2841,22 +2813,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B6ADDD-9842-4644-B731-66EF617373E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="31.86328125" style="18" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="18" customWidth="1"/>
     <col min="3" max="3" width="15" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="18" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="18"/>
-    <col min="8" max="8" width="10.88671875" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="13.19921875" style="18" customWidth="1"/>
+    <col min="5" max="7" width="8.86328125" style="18"/>
+    <col min="8" max="8" width="10.86328125" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="8.86328125" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -2873,18 +2845,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="19" t="s">
         <v>58</v>
       </c>
@@ -3673,24 +3645,24 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="37" t="str">
+      <c r="B54" s="38" t="str">
         <f>'CCaMC-AFOaMCpUC'!A1</f>
         <v>Fixed O&amp;M ($/MW)</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="G54" s="37" t="str">
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="G54" s="38" t="str">
         <f>'CCaMC-VOaMCpUC'!A1</f>
         <v>Variable O&amp;M ($/MWh)</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="1:9" ht="28.8">
-      <c r="A55" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9" ht="28.5">
+      <c r="A55" s="38"/>
       <c r="B55" s="21" t="s">
         <v>32</v>
       </c>
@@ -3858,19 +3830,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6543B86A-AB5E-437C-BF5B-1A9D4BB7AADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="18"/>
+    <col min="3" max="3" width="13.46484375" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="8.86328125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -4393,36 +4365,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A948814-7E97-49CB-B916-F1F28C72D050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="1" max="1" width="8.86328125" style="18"/>
     <col min="2" max="2" width="17.33203125" style="18" customWidth="1"/>
     <col min="3" max="3" width="31" style="18" customWidth="1"/>
     <col min="4" max="5" width="17.33203125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" style="30" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="22.53125" style="30" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" style="30" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" style="30" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" style="30" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" style="30" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="30"/>
-    <col min="19" max="16384" width="8.88671875" style="18"/>
+    <col min="16" max="16" width="18.86328125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" style="30" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="30"/>
+    <col min="19" max="16384" width="8.86328125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8">
+    <row r="1" spans="1:17" ht="28.5">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -6269,7 +6241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6279,12 +6251,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.53125" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6564,7 +6536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6574,11 +6546,11 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="16" customWidth="1"/>
     <col min="2" max="4" width="24" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="16"/>
+    <col min="5" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6850,36 +6822,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K33" sqref="K33:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.53125" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.88671875" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="18.86328125" customWidth="1"/>
+    <col min="17" max="17" width="16.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8">
+    <row r="1" spans="1:17" ht="28.5">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -6952,11 +6924,11 @@
         <f>AVERAGE('Capital cost data base'!B22:B23)</f>
         <v>2302000</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="36">
         <f>'Capital cost data base'!B42</f>
         <v>1810000</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="36">
         <f>AVERAGE('Capital cost data base'!B40:B41)</f>
         <v>4800000</v>
       </c>
@@ -6984,7 +6956,7 @@
         <f>I2</f>
         <v>3600000</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="36">
         <f>'Capital cost data base'!B43</f>
         <v>5000000</v>
       </c>
@@ -7022,12 +6994,10 @@
         <v>2302000</v>
       </c>
       <c r="F3" s="27">
-        <f>(((A3-$A$2)/($A$34-$A$2))*($F$34-$F$2))+$F$2</f>
-        <v>1801781.25</v>
+        <v>0</v>
       </c>
       <c r="G3" s="27">
-        <f>(((A3-$A$2)/($A$34-$A$2))*($G$34-$G$2))+$G$2</f>
-        <v>4701562.5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="27">
         <f>'Capital cost EUA model'!H3</f>
@@ -7054,8 +7024,7 @@
         <v>3565625</v>
       </c>
       <c r="N3" s="4">
-        <f>(((A3-$A$2)/($A$34-$A$2))*($N$34-$N$2))+$N$2</f>
-        <v>4937500</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
         <f>'Capital cost EUA model'!O3</f>
@@ -7090,20 +7059,18 @@
         <f t="shared" ref="E4:E33" si="3">(((A4-$A$2)/($A$34-$A$2))*($E$34-$E$2))+$E$2</f>
         <v>2302000</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" ref="F4:F33" si="4">(((A4-$A$2)/($A$34-$A$2))*($F$34-$F$2))+$F$2</f>
-        <v>1793562.5</v>
-      </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:G33" si="5">(((A4-$A$2)/($A$34-$A$2))*($G$34-$G$2))+$G$2</f>
-        <v>4603125</v>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <f>'Capital cost EUA model'!H4</f>
         <v>3385650.5382844037</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I33" si="6">(((A4-$A$2)/($A$34-$A$2))*($I$34-$I$2))+$I$2</f>
+        <f t="shared" ref="I4:I33" si="4">(((A4-$A$2)/($A$34-$A$2))*($I$34-$I$2))+$I$2</f>
         <v>3531250</v>
       </c>
       <c r="J4" s="4">
@@ -7115,16 +7082,15 @@
         <v>624214.22900192463</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L33" si="7">(((A4-$A$2)/($A$34-$A$2))*($L$34-$L$2))+$L$2</f>
+        <f t="shared" ref="L4:L33" si="5">(((A4-$A$2)/($A$34-$A$2))*($L$34-$L$2))+$L$2</f>
         <v>1178125</v>
       </c>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M33" si="8">(((A4-$A$2)/($A$34-$A$2))*($M$34-$M$2))+$M$2</f>
+        <f t="shared" ref="M4:M33" si="6">(((A4-$A$2)/($A$34-$A$2))*($M$34-$M$2))+$M$2</f>
         <v>3531250</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N33" si="9">(((A4-$A$2)/($A$34-$A$2))*($N$34-$N$2))+$N$2</f>
-        <v>4875000</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
         <f>'Capital cost EUA model'!O4</f>
@@ -7135,7 +7101,7 @@
         <v>624214.22900192463</v>
       </c>
       <c r="Q4" s="4">
-        <f t="shared" ref="Q4:Q33" si="10">(((A4-$A$2)/($A$34-$A$2))*($Q$34-$Q$2))+$Q$2</f>
+        <f t="shared" ref="Q4:Q33" si="7">(((A4-$A$2)/($A$34-$A$2))*($Q$34-$Q$2))+$Q$2</f>
         <v>6997500</v>
       </c>
     </row>
@@ -7159,20 +7125,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" si="4"/>
-        <v>1785343.75</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="5"/>
-        <v>4504687.5</v>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>'Capital cost EUA model'!H5</f>
         <v>3225647.2510458729</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3496875</v>
       </c>
       <c r="J5" s="4">
@@ -7184,16 +7148,15 @@
         <v>616710.15026315721</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1172187.5</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3496875</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="9"/>
-        <v>4812500</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
         <f>'Capital cost EUA model'!O5</f>
@@ -7204,7 +7167,7 @@
         <v>616710.15026315721</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6971250</v>
       </c>
     </row>
@@ -7228,20 +7191,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" si="4"/>
-        <v>1777125</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="5"/>
-        <v>4406250</v>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>'Capital cost EUA model'!H6</f>
         <v>3036301.351765865</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3462500</v>
       </c>
       <c r="J6" s="4">
@@ -7253,16 +7214,15 @@
         <v>612109.73017863615</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1166250</v>
       </c>
       <c r="M6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3462500</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" si="9"/>
-        <v>4750000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="4">
         <f>'Capital cost EUA model'!O6</f>
@@ -7273,7 +7233,7 @@
         <v>612109.73017863615</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6945000</v>
       </c>
     </row>
@@ -7297,20 +7257,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="4"/>
-        <v>1768906.25</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="5"/>
-        <v>4307812.5</v>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f>'Capital cost EUA model'!H7</f>
         <v>2873999.6430443497</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3428125</v>
       </c>
       <c r="J7" s="4">
@@ -7322,16 +7280,15 @@
         <v>600044.48430360877</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1160312.5</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3428125</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="9"/>
-        <v>4687500</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <f>'Capital cost EUA model'!O7</f>
@@ -7342,7 +7299,7 @@
         <v>600044.48430360877</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6918750</v>
       </c>
     </row>
@@ -7366,20 +7323,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="4"/>
-        <v>1760687.5</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="5"/>
-        <v>4209375</v>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f>'Capital cost EUA model'!H8</f>
         <v>2696940.2860163674</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3393750</v>
       </c>
       <c r="J8" s="4">
@@ -7391,16 +7346,15 @@
         <v>594462.88901983364</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1154375</v>
       </c>
       <c r="M8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3393750</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="9"/>
-        <v>4625000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="4">
         <f>'Capital cost EUA model'!O8</f>
@@ -7411,7 +7365,7 @@
         <v>594462.88901983364</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6892500</v>
       </c>
     </row>
@@ -7435,20 +7389,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="4"/>
-        <v>1752468.75</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="5"/>
-        <v>4110937.5</v>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
       </c>
       <c r="H9" s="4">
         <f>'Capital cost EUA model'!H9</f>
         <v>2519880.9289883869</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3359375</v>
       </c>
       <c r="J9" s="4">
@@ -7460,16 +7412,15 @@
         <v>591147.174835179</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1148437.5</v>
       </c>
       <c r="M9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3359375</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="9"/>
-        <v>4562500</v>
+        <v>0</v>
       </c>
       <c r="O9" s="4">
         <f>'Capital cost EUA model'!O9</f>
@@ -7480,7 +7431,7 @@
         <v>591147.174835179</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6866250</v>
       </c>
     </row>
@@ -7504,20 +7455,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="4"/>
-        <v>1744250</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="5"/>
-        <v>4012500</v>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
       </c>
       <c r="H10" s="4">
         <f>'Capital cost EUA model'!H10</f>
         <v>2342821.5719604054</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3325000</v>
       </c>
       <c r="J10" s="4">
@@ -7529,16 +7478,15 @@
         <v>587865.47395385115</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1142500</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3325000</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="9"/>
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="O10" s="4">
         <f>'Capital cost EUA model'!O10</f>
@@ -7549,7 +7497,7 @@
         <v>587865.47395385115</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6840000</v>
       </c>
     </row>
@@ -7573,20 +7521,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="4"/>
-        <v>1736031.25</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="5"/>
-        <v>3914062.5</v>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0</v>
       </c>
       <c r="H11" s="4">
         <f>'Capital cost EUA model'!H11</f>
         <v>2165762.214932424</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3290625</v>
       </c>
       <c r="J11" s="4">
@@ -7598,16 +7544,15 @@
         <v>584536.34264332184</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1136562.5</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3290625</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" si="9"/>
-        <v>4437500</v>
+        <v>0</v>
       </c>
       <c r="O11" s="4">
         <f>'Capital cost EUA model'!O11</f>
@@ -7618,7 +7563,7 @@
         <v>584536.34264332184</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6813750</v>
       </c>
     </row>
@@ -7642,20 +7587,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="4"/>
-        <v>1727812.5</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="5"/>
-        <v>3815625</v>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
       </c>
       <c r="H12" s="4">
         <f>'Capital cost EUA model'!H12</f>
         <v>1988702.8579044417</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3256250</v>
       </c>
       <c r="J12" s="4">
@@ -7667,16 +7610,15 @@
         <v>581998.08274038043</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1130625</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3256250</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="9"/>
-        <v>4375000</v>
+        <v>0</v>
       </c>
       <c r="O12" s="4">
         <f>'Capital cost EUA model'!O12</f>
@@ -7687,7 +7629,7 @@
         <v>581998.08274038043</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6787500</v>
       </c>
     </row>
@@ -7711,20 +7653,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="4"/>
-        <v>1719593.75</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="5"/>
-        <v>3717187.5</v>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
       </c>
       <c r="H13" s="4">
         <f>'Capital cost EUA model'!H13</f>
         <v>1811643.5008764607</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3221875</v>
       </c>
       <c r="J13" s="4">
@@ -7736,16 +7676,15 @@
         <v>578278.05716929329</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1124687.5</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3221875</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="9"/>
-        <v>4312500</v>
+        <v>0</v>
       </c>
       <c r="O13" s="4">
         <f>'Capital cost EUA model'!O13</f>
@@ -7756,7 +7695,7 @@
         <v>578278.05716929329</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6761250</v>
       </c>
     </row>
@@ -7780,20 +7719,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="4"/>
-        <v>1711375</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="5"/>
-        <v>3618750</v>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0</v>
       </c>
       <c r="H14" s="4">
         <f>'Capital cost EUA model'!H14</f>
         <v>1634584.1438484804</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3187500</v>
       </c>
       <c r="J14" s="4">
@@ -7805,16 +7742,15 @@
         <v>576209.76721946476</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1118750</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3187500</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="9"/>
-        <v>4250000</v>
+        <v>0</v>
       </c>
       <c r="O14" s="4">
         <f>'Capital cost EUA model'!O14</f>
@@ -7825,7 +7761,7 @@
         <v>576209.76721946476</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6735000</v>
       </c>
     </row>
@@ -7849,20 +7785,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="4"/>
-        <v>1703156.25</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="5"/>
-        <v>3520312.5</v>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0</v>
       </c>
       <c r="H15" s="4">
         <f>'Capital cost EUA model'!H15</f>
         <v>1618330.0392752115</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3153125</v>
       </c>
       <c r="J15" s="4">
@@ -7874,16 +7808,15 @@
         <v>574331.56907527894</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1112812.5</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3153125</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="9"/>
-        <v>4187500</v>
+        <v>0</v>
       </c>
       <c r="O15" s="4">
         <f>'Capital cost EUA model'!O15</f>
@@ -7894,7 +7827,7 @@
         <v>574331.56907527894</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6708750</v>
       </c>
     </row>
@@ -7918,20 +7851,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="4"/>
-        <v>1694937.5</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="5"/>
-        <v>3421875</v>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
       </c>
       <c r="H16" s="4">
         <f>'Capital cost EUA model'!H16</f>
         <v>1602075.9347019426</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3118750</v>
       </c>
       <c r="J16" s="4">
@@ -7943,16 +7874,15 @@
         <v>571701.18391958985</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1106875</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3118750</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="9"/>
-        <v>4125000</v>
+        <v>0</v>
       </c>
       <c r="O16" s="4">
         <f>'Capital cost EUA model'!O16</f>
@@ -7963,7 +7893,7 @@
         <v>571701.18391958985</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6682500</v>
       </c>
     </row>
@@ -7987,20 +7917,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" si="4"/>
-        <v>1686718.75</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="5"/>
-        <v>3323437.5</v>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="27">
+        <v>0</v>
       </c>
       <c r="H17" s="4">
         <f>'Capital cost EUA model'!H17</f>
         <v>1585821.8301286742</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3084375</v>
       </c>
       <c r="J17" s="4">
@@ -8012,16 +7940,15 @@
         <v>569693.58845712245</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1100937.5</v>
       </c>
       <c r="M17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3084375</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="9"/>
-        <v>4062500</v>
+        <v>0</v>
       </c>
       <c r="O17" s="4">
         <f>'Capital cost EUA model'!O17</f>
@@ -8032,7 +7959,7 @@
         <v>569693.58845712245</v>
       </c>
       <c r="Q17" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6656250</v>
       </c>
     </row>
@@ -8056,20 +7983,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F18" s="4">
-        <f t="shared" si="4"/>
-        <v>1678500</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="5"/>
-        <v>3225000</v>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>'Capital cost EUA model'!H18</f>
         <v>1569567.7255554048</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3050000</v>
       </c>
       <c r="J18" s="4">
@@ -8081,16 +8006,15 @@
         <v>567853.20501669892</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1095000</v>
       </c>
       <c r="M18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3050000</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="9"/>
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="O18" s="4">
         <f>'Capital cost EUA model'!O18</f>
@@ -8101,7 +8025,7 @@
         <v>567853.20501669892</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6630000</v>
       </c>
     </row>
@@ -8125,20 +8049,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="4"/>
-        <v>1670281.25</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="5"/>
-        <v>3126562.5</v>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="27">
+        <v>0</v>
       </c>
       <c r="H19" s="4">
         <f>'Capital cost EUA model'!H19</f>
         <v>1553313.6209821361</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3015625</v>
       </c>
       <c r="J19" s="4">
@@ -8150,16 +8072,15 @@
         <v>565652.8865517024</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1089062.5</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3015625</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="9"/>
-        <v>3937500</v>
+        <v>0</v>
       </c>
       <c r="O19" s="4">
         <f>'Capital cost EUA model'!O19</f>
@@ -8170,7 +8091,7 @@
         <v>565652.8865517024</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6603750</v>
       </c>
     </row>
@@ -8194,20 +8115,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="4"/>
-        <v>1662062.5</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="5"/>
-        <v>3028125</v>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0</v>
       </c>
       <c r="H20" s="4">
         <f>'Capital cost EUA model'!H20</f>
         <v>1537059.5164088674</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2981250</v>
       </c>
       <c r="J20" s="4">
@@ -8219,16 +8138,15 @@
         <v>563481.86641461716</v>
       </c>
       <c r="L20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1083125</v>
       </c>
       <c r="M20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2981250</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="9"/>
-        <v>3875000</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
         <f>'Capital cost EUA model'!O20</f>
@@ -8239,7 +8157,7 @@
         <v>563481.86641461716</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6577500</v>
       </c>
     </row>
@@ -8263,20 +8181,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F21" s="4">
-        <f t="shared" si="4"/>
-        <v>1653843.75</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="5"/>
-        <v>2929687.5</v>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
       </c>
       <c r="H21" s="4">
         <f>'Capital cost EUA model'!H21</f>
         <v>1520805.4118355988</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2946875</v>
       </c>
       <c r="J21" s="4">
@@ -8288,16 +8204,15 @@
         <v>561620.3608197727</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1077187.5</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2946875</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="9"/>
-        <v>3812500</v>
+        <v>0</v>
       </c>
       <c r="O21" s="4">
         <f>'Capital cost EUA model'!O21</f>
@@ -8308,7 +8223,7 @@
         <v>561620.3608197727</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6551250</v>
       </c>
     </row>
@@ -8332,20 +8247,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F22" s="4">
-        <f t="shared" si="4"/>
-        <v>1645625</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="5"/>
-        <v>2831250</v>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
       </c>
       <c r="H22" s="4">
         <f>'Capital cost EUA model'!H22</f>
         <v>1504551.3072623296</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2912500</v>
       </c>
       <c r="J22" s="4">
@@ -8357,16 +8270,15 @@
         <v>560491.22277389863</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1071250</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2912500</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="9"/>
-        <v>3750000</v>
+        <v>0</v>
       </c>
       <c r="O22" s="4">
         <f>'Capital cost EUA model'!O22</f>
@@ -8377,7 +8289,7 @@
         <v>560491.22277389863</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6525000</v>
       </c>
     </row>
@@ -8401,20 +8313,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F23" s="4">
-        <f t="shared" si="4"/>
-        <v>1637406.25</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="5"/>
-        <v>2732812.5</v>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
       </c>
       <c r="H23" s="4">
         <f>'Capital cost EUA model'!H23</f>
         <v>1488297.2026890602</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2878125</v>
       </c>
       <c r="J23" s="4">
@@ -8426,16 +8336,15 @@
         <v>559063.31435958087</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1065312.5</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2878125</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="9"/>
-        <v>3687500</v>
+        <v>0</v>
       </c>
       <c r="O23" s="4">
         <f>'Capital cost EUA model'!O23</f>
@@ -8446,7 +8355,7 @@
         <v>559063.31435958087</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6498750</v>
       </c>
     </row>
@@ -8470,20 +8379,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F24" s="4">
-        <f t="shared" si="4"/>
-        <v>1629187.5</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="5"/>
-        <v>2634375</v>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="27">
+        <v>0</v>
       </c>
       <c r="H24" s="4">
         <f>'Capital cost EUA model'!H24</f>
         <v>1472043.098115792</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2843750</v>
       </c>
       <c r="J24" s="4">
@@ -8495,16 +8402,15 @@
         <v>557705.69637035497</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1059375</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2843750</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="9"/>
-        <v>3625000</v>
+        <v>0</v>
       </c>
       <c r="O24" s="4">
         <f>'Capital cost EUA model'!O24</f>
@@ -8515,7 +8421,7 @@
         <v>557705.69637035497</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6472500</v>
       </c>
     </row>
@@ -8539,20 +8445,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F25" s="4">
-        <f t="shared" si="4"/>
-        <v>1620968.75</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="5"/>
-        <v>2535937.5</v>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27">
+        <v>0</v>
       </c>
       <c r="H25" s="4">
         <f>'Capital cost EUA model'!H25</f>
         <v>1455788.9935425231</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2809375</v>
       </c>
       <c r="J25" s="4">
@@ -8564,16 +8468,15 @@
         <v>556922.89340897254</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1053437.5</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2809375</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="9"/>
-        <v>3562500</v>
+        <v>0</v>
       </c>
       <c r="O25" s="4">
         <f>'Capital cost EUA model'!O25</f>
@@ -8584,7 +8487,7 @@
         <v>556922.89340897254</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6446250</v>
       </c>
     </row>
@@ -8608,20 +8511,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="4"/>
-        <v>1612750</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="5"/>
-        <v>2437500</v>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0</v>
       </c>
       <c r="H26" s="4">
         <f>'Capital cost EUA model'!H26</f>
         <v>1439534.888969254</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2775000</v>
       </c>
       <c r="J26" s="4">
@@ -8633,16 +8534,15 @@
         <v>554884.21025692218</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1047500</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2775000</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="9"/>
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="O26" s="4">
         <f>'Capital cost EUA model'!O26</f>
@@ -8653,7 +8553,7 @@
         <v>554884.21025692218</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6420000</v>
       </c>
     </row>
@@ -8677,20 +8577,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F27" s="4">
-        <f t="shared" si="4"/>
-        <v>1604531.25</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="5"/>
-        <v>2339062.5</v>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
       </c>
       <c r="H27" s="4">
         <f>'Capital cost EUA model'!H27</f>
         <v>1423280.7843959855</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2740625</v>
       </c>
       <c r="J27" s="4">
@@ -8702,16 +8600,15 @@
         <v>554391.38046651601</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1041562.5</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2740625</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="9"/>
-        <v>3437500</v>
+        <v>0</v>
       </c>
       <c r="O27" s="4">
         <f>'Capital cost EUA model'!O27</f>
@@ -8722,7 +8619,7 @@
         <v>554391.38046651601</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6393750</v>
       </c>
     </row>
@@ -8746,20 +8643,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F28" s="4">
-        <f t="shared" si="4"/>
-        <v>1596312.5</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="5"/>
-        <v>2240625</v>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
       </c>
       <c r="H28" s="4">
         <f>'Capital cost EUA model'!H28</f>
         <v>1407026.6798227169</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2706250</v>
       </c>
       <c r="J28" s="4">
@@ -8771,16 +8666,15 @@
         <v>552471.36324781028</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1035625</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2706250</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="9"/>
-        <v>3375000</v>
+        <v>0</v>
       </c>
       <c r="O28" s="4">
         <f>'Capital cost EUA model'!O28</f>
@@ -8791,7 +8685,7 @@
         <v>552471.36324781028</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6367500</v>
       </c>
     </row>
@@ -8815,20 +8709,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F29" s="4">
-        <f t="shared" si="4"/>
-        <v>1588093.75</v>
-      </c>
-      <c r="G29" s="4">
-        <f t="shared" si="5"/>
-        <v>2142187.5</v>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
       </c>
       <c r="H29" s="4">
         <f>'Capital cost EUA model'!H29</f>
         <v>1390772.5752494477</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2671875</v>
       </c>
       <c r="J29" s="4">
@@ -8840,16 +8732,15 @@
         <v>551856.68438044505</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1029687.5</v>
       </c>
       <c r="M29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2671875</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="9"/>
-        <v>3312500</v>
+        <v>0</v>
       </c>
       <c r="O29" s="4">
         <f>'Capital cost EUA model'!O29</f>
@@ -8860,7 +8751,7 @@
         <v>551856.68438044505</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6341250</v>
       </c>
     </row>
@@ -8884,20 +8775,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F30" s="4">
-        <f t="shared" si="4"/>
-        <v>1579875</v>
-      </c>
-      <c r="G30" s="4">
-        <f t="shared" si="5"/>
-        <v>2043750</v>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
       </c>
       <c r="H30" s="4">
         <f>'Capital cost EUA model'!H30</f>
         <v>1374518.470676179</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2637500</v>
       </c>
       <c r="J30" s="4">
@@ -8909,16 +8798,15 @@
         <v>550152.42239255458</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1023750</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2637500</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="9"/>
-        <v>3250000</v>
+        <v>0</v>
       </c>
       <c r="O30" s="4">
         <f>'Capital cost EUA model'!O30</f>
@@ -8929,7 +8817,7 @@
         <v>550152.42239255458</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6315000</v>
       </c>
     </row>
@@ -8953,20 +8841,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F31" s="4">
-        <f t="shared" si="4"/>
-        <v>1571656.25</v>
-      </c>
-      <c r="G31" s="4">
-        <f t="shared" si="5"/>
-        <v>1945312.5</v>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0</v>
       </c>
       <c r="H31" s="4">
         <f>'Capital cost EUA model'!H31</f>
         <v>1358264.3661029099</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2603125</v>
       </c>
       <c r="J31" s="4">
@@ -8978,16 +8864,15 @@
         <v>548960.60343798099</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1017812.5</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2603125</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="9"/>
-        <v>3187500</v>
+        <v>0</v>
       </c>
       <c r="O31" s="4">
         <f>'Capital cost EUA model'!O31</f>
@@ -8998,7 +8883,7 @@
         <v>548960.60343798099</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6288750</v>
       </c>
     </row>
@@ -9022,20 +8907,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F32" s="4">
-        <f t="shared" si="4"/>
-        <v>1563437.5</v>
-      </c>
-      <c r="G32" s="4">
-        <f t="shared" si="5"/>
-        <v>1846875</v>
+      <c r="F32" s="27">
+        <v>0</v>
+      </c>
+      <c r="G32" s="27">
+        <v>0</v>
       </c>
       <c r="H32" s="4">
         <f>'Capital cost EUA model'!H32</f>
         <v>1342010.261529641</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2568750</v>
       </c>
       <c r="J32" s="4">
@@ -9047,16 +8930,15 @@
         <v>547759.99001111533</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1011875</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2568750</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="9"/>
-        <v>3125000</v>
+        <v>0</v>
       </c>
       <c r="O32" s="4">
         <f>'Capital cost EUA model'!O32</f>
@@ -9067,7 +8949,7 @@
         <v>547759.99001111533</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6262500</v>
       </c>
     </row>
@@ -9091,20 +8973,18 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F33" s="4">
-        <f t="shared" si="4"/>
-        <v>1555218.75</v>
-      </c>
-      <c r="G33" s="4">
-        <f t="shared" si="5"/>
-        <v>1748437.5</v>
+      <c r="F33" s="27">
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <v>0</v>
       </c>
       <c r="H33" s="4">
         <f>'Capital cost EUA model'!H33</f>
         <v>1325756.1569563723</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2534375</v>
       </c>
       <c r="J33" s="4">
@@ -9116,16 +8996,15 @@
         <v>546510.49006492062</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1005937.5</v>
       </c>
       <c r="M33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2534375</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="9"/>
-        <v>3062500</v>
+        <v>0</v>
       </c>
       <c r="O33" s="4">
         <f>'Capital cost EUA model'!O33</f>
@@ -9136,7 +9015,7 @@
         <v>546510.49006492062</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>6236250</v>
       </c>
     </row>
@@ -9161,12 +9040,10 @@
         <v>2302000</v>
       </c>
       <c r="F34" s="27">
-        <f>'Capital cost data base'!C42</f>
-        <v>1547000</v>
-      </c>
-      <c r="G34" s="4">
-        <f>AVERAGE('Capital cost data base'!C40:C41)</f>
-        <v>1650000</v>
+        <v>0</v>
+      </c>
+      <c r="G34" s="27">
+        <v>0</v>
       </c>
       <c r="H34" s="4">
         <f>'Capital cost EUA model'!H34</f>
@@ -9180,18 +9057,20 @@
         <f>'Capital cost EUA model'!J34</f>
         <v>668659.39583219984</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4">
+        <f>'Capital cost EUA model'!K34</f>
+        <v>541058.41525406053</v>
+      </c>
       <c r="L34" s="4">
         <f>'Capital cost data base'!C16</f>
         <v>1000000</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34" si="11">I34</f>
+        <f t="shared" ref="M34" si="8">I34</f>
         <v>2500000</v>
       </c>
-      <c r="N34" s="27">
-        <f>'Capital cost data base'!C43</f>
-        <v>3000000</v>
+      <c r="N34" s="4">
+        <v>0</v>
       </c>
       <c r="O34" s="4">
         <f>'Capital cost EUA model'!O34</f>
@@ -9205,6 +9084,10 @@
         <f>'Capital cost data base'!C33</f>
         <v>6210000</v>
       </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:17">
       <c r="B36" s="11"/>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-brazil\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Variable and Fixed cost data" sheetId="16" r:id="rId2"/>
     <sheet name="Capital cost data base" sheetId="17" r:id="rId3"/>
     <sheet name="Capital cost EUA model" sheetId="18" r:id="rId4"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId5"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId6"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId7"/>
+    <sheet name="Solar PV" sheetId="19" r:id="rId5"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId6"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="132">
   <si>
     <t>Energy Information Administration</t>
   </si>
@@ -413,6 +414,24 @@
   </si>
   <si>
     <t>IRENA</t>
+  </si>
+  <si>
+    <t>Solar PV Capital Costs</t>
+  </si>
+  <si>
+    <t>Renewable Power Generation Costs in 2019</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/-/media/Files/IRENA/Agency/Publication/2020/Jun/IRENA_Power_Generation_Costs_2019.pdf</t>
+  </si>
+  <si>
+    <t>Figure 3.5</t>
+  </si>
+  <si>
+    <t>We adjust 2019 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>2012 Cost</t>
   </si>
 </sst>
 </file>
@@ -426,7 +445,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +643,14 @@
       <color rgb="FF287CA5"/>
       <name val="AdvOT596495f2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -794,7 +821,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
@@ -1072,6 +1099,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1131,9 +1159,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1159,15 +1184,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="227"/>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="228">
     <cellStyle name="20% - Accent1 2" xfId="15"/>
     <cellStyle name="20% - Accent1 2 2" xfId="16"/>
     <cellStyle name="20% - Accent1 2 2 2" xfId="150"/>
@@ -1262,6 +1288,7 @@
     <cellStyle name="Heading" xfId="43"/>
     <cellStyle name="Heading 2 2" xfId="44"/>
     <cellStyle name="Heading2" xfId="45"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8"/>
     <cellStyle name="Hyperlink 10" xfId="46"/>
     <cellStyle name="Hyperlink 10 2" xfId="47"/>
     <cellStyle name="Hyperlink 10 3" xfId="48"/>
@@ -1463,6 +1490,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>232529</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42862" y="90487"/>
+          <a:ext cx="6666667" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1752,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -1866,7 +1936,7 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>110</v>
       </c>
       <c r="D11" s="6"/>
@@ -1933,7 +2003,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4"/>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6"/>
@@ -1972,7 +2042,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="4"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="6"/>
@@ -2000,7 +2070,7 @@
     </row>
     <row r="21" spans="1:11" ht="28.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>124</v>
       </c>
       <c r="D21" s="6"/>
@@ -2014,7 +2084,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="4"/>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -2026,7 +2096,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="4"/>
-      <c r="B23" s="35"/>
+      <c r="B23" s="34"/>
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -2108,7 +2178,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="6"/>
@@ -2162,7 +2232,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4"/>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2210,7 +2280,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4"/>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2236,154 +2306,100 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:3">
       <c r="A49" s="4"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:3">
       <c r="A50" s="4"/>
       <c r="B50" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:3">
       <c r="A51" s="4"/>
       <c r="B51" s="17"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:3">
       <c r="A52" s="4"/>
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="B52" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="4"/>
-      <c r="B53" s="17"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="4" t="s">
+      <c r="B53" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="23" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="23"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="23" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="23"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="31" t="s">
+    <row r="64" spans="1:3">
+      <c r="B64" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C64" s="30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="8"/>
-      <c r="B60" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="8"/>
-      <c r="B61" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="8"/>
-      <c r="B62" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="8"/>
-      <c r="B63" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="33" t="str">
-        <f>'Variable and Fixed cost data'!A45</f>
-        <v>Wind onshore</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="8"/>
-      <c r="B64" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8"/>
-      <c r="B65" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>96</v>
+      <c r="B65" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="9"/>
@@ -2396,12 +2412,11 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8"/>
-      <c r="B66" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C66" s="34" t="str">
-        <f>'Variable and Fixed cost data'!A35</f>
-        <v>Biomass - steam turbine</v>
+      <c r="B66" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="9"/>
@@ -2414,11 +2429,11 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="8"/>
-      <c r="B67" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>70</v>
+      <c r="B67" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>101</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="9"/>
@@ -2431,12 +2446,12 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8"/>
-      <c r="B68" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="33" t="str">
-        <f>C60</f>
-        <v xml:space="preserve">Domestic coal </v>
+      <c r="B68" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="32" t="str">
+        <f>'Variable and Fixed cost data'!A45</f>
+        <v>Wind onshore</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="9"/>
@@ -2449,12 +2464,11 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8"/>
-      <c r="B69" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="33" t="str">
-        <f>'Variable and Fixed cost data'!A46</f>
-        <v>Wind offshore</v>
+      <c r="B69" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="9"/>
@@ -2467,12 +2481,11 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8"/>
-      <c r="B70" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="33" t="str">
-        <f>'Variable and Fixed cost data'!A36</f>
-        <v>Municipal solid waste</v>
+      <c r="B70" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="9"/>
@@ -2485,8 +2498,13 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="33" t="str">
+        <f>'Variable and Fixed cost data'!A35</f>
+        <v>Biomass - steam turbine</v>
+      </c>
       <c r="D71" s="6"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -2497,11 +2515,13 @@
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="D72" s="6"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -2513,8 +2533,12 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="8"/>
-      <c r="B73" s="17" t="s">
-        <v>24</v>
+      <c r="B73" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="32" t="str">
+        <f>C65</f>
+        <v xml:space="preserve">Domestic coal </v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="9"/>
@@ -2527,8 +2551,12 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8"/>
-      <c r="B74" s="17" t="s">
-        <v>25</v>
+      <c r="B74" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="32" t="str">
+        <f>'Variable and Fixed cost data'!A46</f>
+        <v>Wind offshore</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="9"/>
@@ -2541,8 +2569,12 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="8"/>
-      <c r="B75" s="17" t="s">
-        <v>46</v>
+      <c r="B75" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="32" t="str">
+        <f>'Variable and Fixed cost data'!A36</f>
+        <v>Municipal solid waste</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="9"/>
@@ -2555,9 +2587,8 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8"/>
-      <c r="B76" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="6"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -2568,7 +2599,11 @@
       <c r="K76" s="9"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="6"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -2580,7 +2615,9 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8"/>
-      <c r="B78" s="17"/>
+      <c r="B78" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -2591,10 +2628,10 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="17"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -2606,8 +2643,8 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8"/>
-      <c r="B80" s="36" t="s">
-        <v>15</v>
+      <c r="B80" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="9"/>
@@ -2620,8 +2657,8 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8"/>
-      <c r="B81" s="36" t="s">
-        <v>16</v>
+      <c r="B81" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="9"/>
@@ -2634,9 +2671,6 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8"/>
-      <c r="B82" s="36" t="s">
-        <v>37</v>
-      </c>
       <c r="D82" s="6"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -2648,9 +2682,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8"/>
-      <c r="B83" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="B83" s="17"/>
       <c r="D83" s="6"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -2661,7 +2693,9 @@
       <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="8"/>
+      <c r="A84" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="B84" s="17"/>
       <c r="D84" s="6"/>
       <c r="E84" s="9"/>
@@ -2674,7 +2708,9 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8"/>
-      <c r="B85" s="17"/>
+      <c r="B85" s="35" t="s">
+        <v>15</v>
+      </c>
       <c r="D85" s="6"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -2685,80 +2721,159 @@
       <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="8"/>
+      <c r="B86" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="8"/>
+      <c r="B87" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="8"/>
+      <c r="B88" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="8"/>
+      <c r="B89" s="17"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="8"/>
+      <c r="B90" s="17"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1">
-      <c r="A87" s="37"/>
-      <c r="B87" s="21" t="s">
+    <row r="92" spans="1:11" ht="15" customHeight="1">
+      <c r="A92" s="37"/>
+      <c r="B92" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-    </row>
-    <row r="88" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A88" s="37"/>
-      <c r="B88" s="2" t="s">
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+    </row>
+    <row r="93" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A93" s="37"/>
+      <c r="B93" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-    </row>
-    <row r="89" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="2" t="s">
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+    </row>
+    <row r="94" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="4" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="17" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="24"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="17">
+      <c r="B99" s="24"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="17">
         <f>'Variable and Fixed cost data'!J6</f>
         <v>1.0529130131709286</v>
       </c>
-      <c r="B95" s="24"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="17" t="s">
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="24"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="14"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="17"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="24"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="B100" s="24"/>
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="17"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="14">
+        <v>0.89805481563188172</v>
+      </c>
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A92:A93"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B56" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2766,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -3783,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -4290,19 +4405,19 @@
     <col min="2" max="2" width="17.33203125" style="17" customWidth="1"/>
     <col min="3" max="3" width="31" style="17" customWidth="1"/>
     <col min="4" max="5" width="17.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="23.1328125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="22.46484375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="22.46484375" style="29" customWidth="1"/>
-    <col min="11" max="11" width="20.796875" style="29" customWidth="1"/>
-    <col min="12" max="12" width="28.1328125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="19.1328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1328125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="18.796875" style="29" customWidth="1"/>
-    <col min="17" max="17" width="16.46484375" style="29" customWidth="1"/>
-    <col min="18" max="18" width="8.796875" style="29"/>
+    <col min="6" max="6" width="23.1328125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="22.46484375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="22.46484375" style="28" customWidth="1"/>
+    <col min="11" max="11" width="20.796875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" style="28" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="18.796875" style="28" customWidth="1"/>
+    <col min="17" max="17" width="16.46484375" style="28" customWidth="1"/>
+    <col min="18" max="18" width="8.796875" style="28"/>
     <col min="19" max="16384" width="8.796875" style="17"/>
   </cols>
   <sheetData>
@@ -4322,40 +4437,40 @@
       <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4375,40 +4490,40 @@
       <c r="E2" s="3">
         <v>2609904.3307550726</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>1472023</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>1106952.27008149</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>3705657.1127614691</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>3503492.939728946</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>2368974.8458332461</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>620749.38054688869</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>620749.38054688869</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>5778150.1329843532</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>3030248.6826914768</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>620749.38054688869</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>620749.38054688869</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <v>7982156.7055278737</v>
       </c>
     </row>
@@ -4428,40 +4543,40 @@
       <c r="E3" s="3">
         <v>2570167.261510144</v>
       </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>3545653.8255229369</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>3498816.7794578923</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>2227281.8916664924</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>619774.76109377737</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>619774.76109377737</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <v>5741013.0029604603</v>
       </c>
-      <c r="N3" s="26">
-        <v>0</v>
-      </c>
-      <c r="O3" s="26">
+      <c r="N3" s="25">
+        <v>0</v>
+      </c>
+      <c r="O3" s="25">
         <v>619774.76109377737</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <v>619774.76109377737</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <v>7971502.811055745</v>
       </c>
     </row>
@@ -4481,40 +4596,40 @@
       <c r="E4" s="3">
         <v>2530430.1922652172</v>
       </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <v>3385650.5382844037</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>3493165.2083361712</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>2085588.9374997385</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>624214.22900192463</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>624214.22900192463</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>5703875.8729365692</v>
       </c>
-      <c r="N4" s="26">
-        <v>0</v>
-      </c>
-      <c r="O4" s="26">
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25">
         <v>624214.22900192463</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>624214.22900192463</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>7958626.596631432</v>
       </c>
     </row>
@@ -4534,40 +4649,40 @@
       <c r="E5" s="3">
         <v>2490693.1230202895</v>
       </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <v>3225647.2510458729</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>3532179.7303932798</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>1943895.9833329846</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>616710.15026315721</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>616710.15026315721</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>5666738.742912678</v>
       </c>
-      <c r="N5" s="26">
-        <v>0</v>
-      </c>
-      <c r="O5" s="26">
+      <c r="N5" s="25">
+        <v>0</v>
+      </c>
+      <c r="O5" s="25">
         <v>616710.15026315721</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>616710.15026315721</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>8047515.0385973537</v>
       </c>
     </row>
@@ -4587,40 +4702,40 @@
       <c r="E6" s="3">
         <v>2450956.0537753622</v>
       </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
         <v>3036301.351765865</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>3441495.8280658736</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>1802203.0291662314</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>612109.73017863615</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>612109.73017863615</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>5629601.6128887851</v>
       </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
+      <c r="N6" s="25">
+        <v>0</v>
+      </c>
+      <c r="O6" s="25">
         <v>612109.73017863615</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>612109.73017863615</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>7840906.0539358519</v>
       </c>
     </row>
@@ -4640,40 +4755,40 @@
       <c r="E7" s="3">
         <v>2411218.9845304345</v>
       </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
         <v>2873999.6430443497</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>3424867.4186540279</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>1660510.0749994777</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>600044.48430360877</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>600044.48430360877</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>5592464.482864894</v>
       </c>
-      <c r="N7" s="26">
-        <v>0</v>
-      </c>
-      <c r="O7" s="26">
+      <c r="N7" s="25">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25">
         <v>600044.48430360877</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>600044.48430360877</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>7803020.8428130085</v>
       </c>
     </row>
@@ -4693,40 +4808,40 @@
       <c r="E8" s="3">
         <v>2371481.9152855068</v>
       </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <v>2696940.2860163674</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>3409766.8424255005</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>1518817.1208327236</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>594462.88901983364</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>594462.88901983364</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>5557990.0189642562</v>
       </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26">
+      <c r="N8" s="25">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25">
         <v>594462.88901983364</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>594462.88901983364</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>7768616.5588959409</v>
       </c>
     </row>
@@ -4746,40 +4861,40 @@
       <c r="E9" s="3">
         <v>2331744.84604058</v>
       </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <v>2519880.9289883869</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>3407990.6624235231</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>1377124.1666659696</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>591147.174835179</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>591147.174835179</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="25">
         <v>5546412.7210359061</v>
       </c>
-      <c r="N9" s="26">
-        <v>0</v>
-      </c>
-      <c r="O9" s="26">
+      <c r="N9" s="25">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
         <v>591147.174835179</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="25">
         <v>591147.174835179</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
         <v>7764569.8125896389</v>
       </c>
     </row>
@@ -4799,40 +4914,40 @@
       <c r="E10" s="3">
         <v>2292007.7767956513</v>
       </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <v>2342821.5719604054</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>3404946.6430044817</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="25">
         <v>1235431.2124992157</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>587865.47395385115</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="25">
         <v>587865.47395385115</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="25">
         <v>5532621.3488202756</v>
       </c>
-      <c r="N10" s="26">
-        <v>0</v>
-      </c>
-      <c r="O10" s="26">
+      <c r="N10" s="25">
+        <v>0</v>
+      </c>
+      <c r="O10" s="25">
         <v>587865.47395385115</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="25">
         <v>587865.47395385115</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
         <v>7757634.4939132584</v>
       </c>
     </row>
@@ -4852,40 +4967,40 @@
       <c r="E11" s="3">
         <v>2252270.7075507245</v>
       </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <v>2165762.214932424</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>3400221.1276298021</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>1093738.2583324621</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>584536.34264332184</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>584536.34264332184</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>5515916.6952219354</v>
       </c>
-      <c r="N11" s="26">
-        <v>0</v>
-      </c>
-      <c r="O11" s="26">
+      <c r="N11" s="25">
+        <v>0</v>
+      </c>
+      <c r="O11" s="25">
         <v>584536.34264332184</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="25">
         <v>584536.34264332184</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
         <v>7746868.1516131693</v>
       </c>
     </row>
@@ -4905,40 +5020,40 @@
       <c r="E12" s="3">
         <v>2212533.6383057963</v>
       </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <v>1988702.8579044417</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>3392158.9126619366</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>952045.3041657079</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>581998.08274038043</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="25">
         <v>581998.08274038043</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="25">
         <v>5493484.2768311454</v>
       </c>
-      <c r="N12" s="26">
-        <v>0</v>
-      </c>
-      <c r="O12" s="26">
+      <c r="N12" s="25">
+        <v>0</v>
+      </c>
+      <c r="O12" s="25">
         <v>581998.08274038043</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="25">
         <v>581998.08274038043</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
         <v>7728499.6649701986</v>
       </c>
     </row>
@@ -4958,40 +5073,40 @@
       <c r="E13" s="3">
         <v>2172796.569060869</v>
       </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>1811643.5008764607</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>3377434.3102844721</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>810352.34999895387</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <v>578278.05716929329</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>578278.05716929329</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="25">
         <v>5459679.5513151847</v>
       </c>
-      <c r="N13" s="26">
-        <v>0</v>
-      </c>
-      <c r="O13" s="26">
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
         <v>578278.05716929329</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="25">
         <v>578278.05716929329</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
         <v>7694951.9782399936</v>
       </c>
     </row>
@@ -5011,40 +5126,40 @@
       <c r="E14" s="3">
         <v>2133059.4998159413</v>
       </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <v>1634584.1438484804</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>3367913.89836699</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>576209.76721946476</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>576209.76721946476</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>5434763.7586953649</v>
       </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26">
+      <c r="N14" s="25">
+        <v>0</v>
+      </c>
+      <c r="O14" s="25">
         <v>576209.76721946476</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>576209.76721946476</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <v>7673261.2195788976</v>
       </c>
     </row>
@@ -5064,40 +5179,40 @@
       <c r="E15" s="3">
         <v>2093322.4305710143</v>
       </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <v>1618330.0392752115</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>3358479.5322181419</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>574331.56907527894</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="25">
         <v>574331.56907527894</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="25">
         <v>5409993.5390572287</v>
       </c>
-      <c r="N15" s="26">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26">
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
         <v>574331.56907527894</v>
       </c>
-      <c r="P15" s="26">
+      <c r="P15" s="25">
         <v>574331.56907527894</v>
       </c>
-      <c r="Q15" s="26">
+      <c r="Q15" s="25">
         <v>7651766.5026455559</v>
       </c>
     </row>
@@ -5117,40 +5232,40 @@
       <c r="E16" s="3">
         <v>2053585.3613260863</v>
       </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>1602075.9347019426</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <v>3347303.5272370684</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <v>571701.18391958985</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="25">
         <v>571701.18391958985</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="25">
         <v>5382265.1708552018</v>
       </c>
-      <c r="N16" s="26">
-        <v>0</v>
-      </c>
-      <c r="O16" s="26">
+      <c r="N16" s="25">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
         <v>571701.18391958985</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="25">
         <v>571701.18391958985</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="25">
         <v>7626303.7360194027</v>
       </c>
     </row>
@@ -5170,40 +5285,40 @@
       <c r="E17" s="3">
         <v>2013848.2920811588</v>
       </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <v>1585821.8301286742</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>3337455.8838543813</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>569693.58845712245</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>569693.58845712245</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>5356795.4194273818</v>
       </c>
-      <c r="N17" s="26">
-        <v>0</v>
-      </c>
-      <c r="O17" s="26">
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
         <v>569693.58845712245</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>569693.58845712245</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>7603867.4320185054</v>
       </c>
     </row>
@@ -5223,40 +5338,40 @@
       <c r="E18" s="3">
         <v>1974111.2228362313</v>
       </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>1569567.7255554048</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="25">
         <v>3330096.910947775</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="25">
         <v>567853.20501669892</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="25">
         <v>567853.20501669892</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="25">
         <v>5335536.8160284711</v>
       </c>
-      <c r="N18" s="26">
-        <v>0</v>
-      </c>
-      <c r="O18" s="26">
+      <c r="N18" s="25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
         <v>567853.20501669892</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="25">
         <v>567853.20501669892</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="25">
         <v>7587101.1716198716</v>
       </c>
     </row>
@@ -5276,40 +5391,40 @@
       <c r="E19" s="3">
         <v>1934374.1535913039</v>
       </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>1553313.6209821361</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>3318770.1203640644</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <v>565652.8865517024</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <v>565652.8865517024</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="25">
         <v>5307562.9312454909</v>
       </c>
-      <c r="N19" s="26">
-        <v>0</v>
-      </c>
-      <c r="O19" s="26">
+      <c r="N19" s="25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="25">
         <v>565652.8865517024</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="25">
         <v>565652.8865517024</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="25">
         <v>7561294.8637536224</v>
       </c>
     </row>
@@ -5329,40 +5444,40 @@
       <c r="E20" s="3">
         <v>1923963.4938358904</v>
       </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>1537059.5164088674</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>3308785.9377765385</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>563481.86641461716</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>563481.86641461716</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>5281861.9388068421</v>
       </c>
-      <c r="N20" s="26">
-        <v>0</v>
-      </c>
-      <c r="O20" s="26">
+      <c r="N20" s="25">
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
         <v>563481.86641461716</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="25">
         <v>563481.86641461716</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="25">
         <v>7538547.4766855622</v>
       </c>
     </row>
@@ -5382,40 +5497,40 @@
       <c r="E21" s="3">
         <v>1913552.8340804782</v>
       </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>1520805.4118355988</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>3298049.4508532588</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="25">
         <v>561620.3608197727</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="25">
         <v>561620.3608197727</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="25">
         <v>5254895.3859602809</v>
       </c>
-      <c r="N21" s="26">
-        <v>0</v>
-      </c>
-      <c r="O21" s="26">
+      <c r="N21" s="25">
+        <v>0</v>
+      </c>
+      <c r="O21" s="25">
         <v>561620.3608197727</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="25">
         <v>561620.3608197727</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="25">
         <v>7514086.0827102391</v>
       </c>
     </row>
@@ -5435,40 +5550,40 @@
       <c r="E22" s="3">
         <v>1903142.1743250648</v>
       </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <v>1504551.3072623296</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>3289031.0086167539</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="25">
         <v>560491.22277389863</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="25">
         <v>560491.22277389863</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="25">
         <v>5230820.6156121381</v>
       </c>
-      <c r="N22" s="26">
-        <v>0</v>
-      </c>
-      <c r="O22" s="26">
+      <c r="N22" s="25">
+        <v>0</v>
+      </c>
+      <c r="O22" s="25">
         <v>560491.22277389863</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="25">
         <v>560491.22277389863</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="25">
         <v>7493538.9828844583</v>
       </c>
     </row>
@@ -5488,40 +5603,40 @@
       <c r="E23" s="3">
         <v>1892731.5145696511</v>
       </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <v>1488297.2026890602</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>3278353.1707259226</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>559063.31435958087</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>559063.31435958087</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>5203959.8078931188</v>
       </c>
-      <c r="N23" s="26">
-        <v>0</v>
-      </c>
-      <c r="O23" s="26">
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
         <v>559063.31435958087</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>559063.31435958087</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>7469211.21148971</v>
       </c>
     </row>
@@ -5541,40 +5656,40 @@
       <c r="E24" s="3">
         <v>1882320.8548142386</v>
       </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <v>1472043.098115792</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <v>3268066.8469631197</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="25">
         <v>557705.69637035497</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="25">
         <v>557705.69637035497</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="25">
         <v>5177759.2295922721</v>
       </c>
-      <c r="N24" s="26">
-        <v>0</v>
-      </c>
-      <c r="O24" s="26">
+      <c r="N24" s="25">
+        <v>0</v>
+      </c>
+      <c r="O24" s="25">
         <v>557705.69637035497</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="25">
         <v>557705.69637035497</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="25">
         <v>7445775.4433545973</v>
       </c>
     </row>
@@ -5594,40 +5709,40 @@
       <c r="E25" s="3">
         <v>1871910.1950588252</v>
       </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
         <v>1455788.9935425231</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>3260965.2553579621</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="25">
         <v>556922.89340897254</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="25">
         <v>556922.89340897254</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="25">
         <v>5156885.7019720068</v>
       </c>
-      <c r="N25" s="26">
-        <v>0</v>
-      </c>
-      <c r="O25" s="26">
+      <c r="N25" s="25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
         <v>556922.89340897254</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="25">
         <v>556922.89340897254</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="25">
         <v>7429595.5857021902</v>
       </c>
     </row>
@@ -5647,40 +5762,40 @@
       <c r="E26" s="3">
         <v>1861499.5353034122</v>
       </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
         <v>1439534.888969254</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>3246909.0993724768</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>554884.21025692218</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>554884.21025692218</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>5124390.4101419989</v>
       </c>
-      <c r="N26" s="26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="26">
+      <c r="N26" s="25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
         <v>554884.21025692218</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="25">
         <v>554884.21025692218</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="25">
         <v>7397570.8487657513</v>
       </c>
     </row>
@@ -5700,40 +5815,40 @@
       <c r="E27" s="3">
         <v>1851088.8755479991</v>
       </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
         <v>1423280.7843959855</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>3241407.783956822</v>
       </c>
-      <c r="J27" s="26">
+      <c r="J27" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="25">
         <v>554391.38046651601</v>
       </c>
-      <c r="L27" s="26">
+      <c r="L27" s="25">
         <v>554391.38046651601</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="25">
         <v>5106171.459173183</v>
       </c>
-      <c r="N27" s="26">
-        <v>0</v>
-      </c>
-      <c r="O27" s="26">
+      <c r="N27" s="25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="25">
         <v>554391.38046651601</v>
       </c>
-      <c r="P27" s="26">
+      <c r="P27" s="25">
         <v>554391.38046651601</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="25">
         <v>7385036.9682956832</v>
       </c>
     </row>
@@ -5753,40 +5868,40 @@
       <c r="E28" s="3">
         <v>1840678.2157925859</v>
       </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26">
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
         <v>1407026.6798227169</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <v>3228014.3421793631</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <v>552471.36324781028</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="25">
         <v>552471.36324781028</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="25">
         <v>5074804.7355336314</v>
       </c>
-      <c r="N28" s="26">
-        <v>0</v>
-      </c>
-      <c r="O28" s="26">
+      <c r="N28" s="25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="25">
         <v>552471.36324781028</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="25">
         <v>552471.36324781028</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="25">
         <v>7354522.1212749518</v>
       </c>
     </row>
@@ -5806,40 +5921,40 @@
       <c r="E29" s="3">
         <v>1830267.5560371724</v>
       </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <v>1390772.5752494477</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>3221832.2607411454</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>551856.68438044505</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>551856.68438044505</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="25">
         <v>5055429.4816196105</v>
       </c>
-      <c r="N29" s="26">
-        <v>0</v>
-      </c>
-      <c r="O29" s="26">
+      <c r="N29" s="25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="25">
         <v>551856.68438044505</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="25">
         <v>551856.68438044505</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="25">
         <v>7340437.2226737272</v>
       </c>
     </row>
@@ -5859,40 +5974,40 @@
       <c r="E30" s="3">
         <v>1819856.8962817597</v>
       </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <v>1374518.470676179</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="25">
         <v>3209635.4861874729</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="25">
         <v>550152.42239255458</v>
       </c>
-      <c r="L30" s="26">
+      <c r="L30" s="25">
         <v>550152.42239255458</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M30" s="25">
         <v>5026066.0665783612</v>
       </c>
-      <c r="N30" s="26">
-        <v>0</v>
-      </c>
-      <c r="O30" s="26">
+      <c r="N30" s="25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="25">
         <v>550152.42239255458</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="25">
         <v>550152.42239255458</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="25">
         <v>7312648.7933935076</v>
       </c>
     </row>
@@ -5912,40 +6027,40 @@
       <c r="E31" s="3">
         <v>1809446.2365263463</v>
       </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
         <v>1358264.3661029099</v>
       </c>
-      <c r="I31" s="26">
+      <c r="I31" s="25">
         <v>3200266.2664250759</v>
       </c>
-      <c r="J31" s="26">
+      <c r="J31" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="25">
         <v>548960.60343798099</v>
       </c>
-      <c r="L31" s="26">
+      <c r="L31" s="25">
         <v>548960.60343798099</v>
       </c>
-      <c r="M31" s="26">
+      <c r="M31" s="25">
         <v>5001393.9524363447</v>
       </c>
-      <c r="N31" s="26">
-        <v>0</v>
-      </c>
-      <c r="O31" s="26">
+      <c r="N31" s="25">
+        <v>0</v>
+      </c>
+      <c r="O31" s="25">
         <v>548960.60343798099</v>
       </c>
-      <c r="P31" s="26">
+      <c r="P31" s="25">
         <v>548960.60343798099</v>
       </c>
-      <c r="Q31" s="26">
+      <c r="Q31" s="25">
         <v>7291302.5022382103</v>
       </c>
     </row>
@@ -5965,40 +6080,40 @@
       <c r="E32" s="3">
         <v>1799035.5767709336</v>
       </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26">
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
         <v>1342010.261529641</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>3190847.9381775381</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>547759.99001111533</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>547759.99001111533</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>4976639.3539727349</v>
       </c>
-      <c r="N32" s="26">
-        <v>0</v>
-      </c>
-      <c r="O32" s="26">
+      <c r="N32" s="25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
         <v>547759.99001111533</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="25">
         <v>547759.99001111533</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="25">
         <v>7269844.3251363151</v>
       </c>
     </row>
@@ -6018,40 +6133,40 @@
       <c r="E33" s="3">
         <v>1788624.9170155204</v>
       </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="26">
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
         <v>1325756.1569563723</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="25">
         <v>3181160.2441755827</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="25">
         <v>546510.49006492062</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="25">
         <v>546510.49006492062</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="25">
         <v>4951438.4754722388</v>
       </c>
-      <c r="N33" s="26">
-        <v>0</v>
-      </c>
-      <c r="O33" s="26">
+      <c r="N33" s="25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="25">
         <v>546510.49006492062</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="25">
         <v>546510.49006492062</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="25">
         <v>7247772.4406001931</v>
       </c>
     </row>
@@ -6071,40 +6186,40 @@
       <c r="E34" s="3">
         <v>1778214.2572601077</v>
       </c>
-      <c r="F34" s="26">
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
-        <v>0</v>
-      </c>
-      <c r="H34" s="26">
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25">
         <v>1309502.0523831041</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="25">
         <v>3148388.0289021889</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="25">
         <v>668659.39583219984</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="25">
         <v>541058.41525406053</v>
       </c>
-      <c r="L34" s="26">
+      <c r="L34" s="25">
         <v>541058.41525406053</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M34" s="25">
         <v>4888267.7109294161</v>
       </c>
-      <c r="N34" s="26">
-        <v>0</v>
-      </c>
-      <c r="O34" s="26">
+      <c r="N34" s="25">
+        <v>0</v>
+      </c>
+      <c r="O34" s="25">
         <v>541058.41525406053</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="25">
         <v>541058.41525406053</v>
       </c>
-      <c r="Q34" s="26">
+      <c r="Q34" s="25">
         <v>7173106.1111970115</v>
       </c>
     </row>
@@ -6154,13 +6269,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A38:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38">
+        <f>1255*About!A104*1000</f>
+        <v>1127058.7936180115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -6451,7 +6591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6459,7 +6599,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -6504,14 +6644,14 @@
         <v>23</v>
       </c>
       <c r="B3" s="12">
-        <f>'Variable and Fixed cost data'!D18*'Variable and Fixed cost data'!J6</f>
+        <f>'Variable and Fixed cost data'!D19*'Variable and Fixed cost data'!J6</f>
         <v>3.68519554609825</v>
       </c>
       <c r="C3" s="15">
         <v>0</v>
       </c>
       <c r="D3" s="12">
-        <f>'Variable and Fixed cost data'!E18*'Variable and Fixed cost data'!J6</f>
+        <f>'Variable and Fixed cost data'!E19*'Variable and Fixed cost data'!J6</f>
         <v>3.68519554609825</v>
       </c>
     </row>
@@ -6640,14 +6780,14 @@
         <v>26</v>
       </c>
       <c r="B12" s="12">
-        <f>'Variable and Fixed cost data'!D19*'Variable and Fixed cost data'!J6</f>
+        <f>'Variable and Fixed cost data'!D18*'Variable and Fixed cost data'!J6</f>
         <v>3.68519554609825</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
       </c>
       <c r="D12" s="12">
-        <f>'Variable and Fixed cost data'!E19*'Variable and Fixed cost data'!J6</f>
+        <f>'Variable and Fixed cost data'!E18*'Variable and Fixed cost data'!J6</f>
         <v>3.68519554609825</v>
       </c>
     </row>
@@ -6737,7 +6877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6745,7 +6885,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N34"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
@@ -6783,13 +6923,13 @@
       <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="11" t="s">
@@ -6840,13 +6980,13 @@
         <f>AVERAGE('Capital cost data base'!B22:B23)</f>
         <v>2302000</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="36">
         <f>'Capital cost data base'!B42</f>
         <v>1810000</v>
       </c>
-      <c r="G2" s="39">
-        <f>AVERAGE('Capital cost data base'!B40:B41)</f>
-        <v>4800000</v>
+      <c r="G2" s="36">
+        <f>'Solar PV'!B38</f>
+        <v>1127058.7936180115</v>
       </c>
       <c r="H2" s="3">
         <f>'Capital cost data base'!B45</f>
@@ -6872,7 +7012,7 @@
         <f>I2</f>
         <v>3600000</v>
       </c>
-      <c r="N2" s="39">
+      <c r="N2" s="36">
         <f>'Capital cost data base'!B43</f>
         <v>5000000</v>
       </c>
@@ -6909,13 +7049,13 @@
         <f>(((A3-$A$2)/($A$34-$A$2))*($E$34-$E$2))+$E$2</f>
         <v>2302000</v>
       </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="26">
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <f>(((A3-$A$2)/($A$34-$A$2))*($H$34-$H$2))+$H$2</f>
         <v>5123375</v>
       </c>
@@ -6975,13 +7115,13 @@
         <f t="shared" ref="E4:E33" si="3">(((A4-$A$2)/($A$34-$A$2))*($E$34-$E$2))+$E$2</f>
         <v>2302000</v>
       </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26">
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <f t="shared" ref="H4:H32" si="4">(((A4-$A$2)/($A$34-$A$2))*($H$34-$H$2))+$H$2</f>
         <v>5038750</v>
       </c>
@@ -7041,13 +7181,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="26">
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <f t="shared" si="4"/>
         <v>4954125</v>
       </c>
@@ -7107,13 +7247,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
         <f t="shared" si="4"/>
         <v>4869500</v>
       </c>
@@ -7173,13 +7313,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
         <f t="shared" si="4"/>
         <v>4784875</v>
       </c>
@@ -7239,13 +7379,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="26">
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <f t="shared" si="4"/>
         <v>4700250</v>
       </c>
@@ -7305,13 +7445,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <f t="shared" si="4"/>
         <v>4615625</v>
       </c>
@@ -7371,13 +7511,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <f t="shared" si="4"/>
         <v>4531000</v>
       </c>
@@ -7437,13 +7577,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <f t="shared" si="4"/>
         <v>4446375</v>
       </c>
@@ -7503,13 +7643,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F12" s="26">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <f t="shared" si="4"/>
         <v>4361750</v>
       </c>
@@ -7569,13 +7709,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <f t="shared" si="4"/>
         <v>4277125</v>
       </c>
@@ -7635,13 +7775,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <f t="shared" si="4"/>
         <v>4192500</v>
       </c>
@@ -7701,13 +7841,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <f t="shared" si="4"/>
         <v>4107875</v>
       </c>
@@ -7767,13 +7907,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <f t="shared" si="4"/>
         <v>4023250</v>
       </c>
@@ -7833,13 +7973,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <f t="shared" si="4"/>
         <v>3938625</v>
       </c>
@@ -7899,13 +8039,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <f t="shared" si="4"/>
         <v>3854000</v>
       </c>
@@ -7965,13 +8105,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <f t="shared" si="4"/>
         <v>3769375</v>
       </c>
@@ -8031,13 +8171,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <f t="shared" si="4"/>
         <v>3684750</v>
       </c>
@@ -8097,13 +8237,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <f t="shared" si="4"/>
         <v>3600125</v>
       </c>
@@ -8163,13 +8303,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <f t="shared" si="4"/>
         <v>3515500</v>
       </c>
@@ -8229,13 +8369,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <f t="shared" si="4"/>
         <v>3430875</v>
       </c>
@@ -8295,13 +8435,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <f t="shared" si="4"/>
         <v>3346250</v>
       </c>
@@ -8361,13 +8501,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
         <f t="shared" si="4"/>
         <v>3261625</v>
       </c>
@@ -8427,13 +8567,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
         <f t="shared" si="4"/>
         <v>3177000</v>
       </c>
@@ -8493,13 +8633,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
         <f t="shared" si="4"/>
         <v>3092375</v>
       </c>
@@ -8559,13 +8699,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F28" s="26">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
-        <v>0</v>
-      </c>
-      <c r="H28" s="26">
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
         <f t="shared" si="4"/>
         <v>3007750</v>
       </c>
@@ -8625,13 +8765,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F29" s="26">
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
-        <v>0</v>
-      </c>
-      <c r="H29" s="26">
+      <c r="F29" s="25">
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <f t="shared" si="4"/>
         <v>2923125</v>
       </c>
@@ -8691,13 +8831,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F30" s="26">
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
-        <v>0</v>
-      </c>
-      <c r="H30" s="26">
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <f t="shared" si="4"/>
         <v>2838500</v>
       </c>
@@ -8757,13 +8897,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F31" s="26">
-        <v>0</v>
-      </c>
-      <c r="G31" s="26">
-        <v>0</v>
-      </c>
-      <c r="H31" s="26">
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
         <f t="shared" si="4"/>
         <v>2753875</v>
       </c>
@@ -8823,13 +8963,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26">
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
         <f t="shared" si="4"/>
         <v>2669250</v>
       </c>
@@ -8889,13 +9029,13 @@
         <f t="shared" si="3"/>
         <v>2302000</v>
       </c>
-      <c r="F33" s="26">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>0</v>
-      </c>
-      <c r="H33" s="26">
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
         <f>(((A33-$A$2)/($A$34-$A$2))*($H$34-$H$2))+$H$2</f>
         <v>2584625</v>
       </c>
@@ -8955,10 +9095,10 @@
         <f>AVERAGE('Capital cost data base'!C22:C23)</f>
         <v>2302000</v>
       </c>
-      <c r="F34" s="26">
-        <v>0</v>
-      </c>
-      <c r="G34" s="26">
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
         <v>0</v>
       </c>
       <c r="H34" s="3">
